--- a/tests/indicators/s-z/Trix/Trix.Calc.xlsx
+++ b/tests/indicators/s-z/Trix/Trix.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659DC1E-75C6-4002-B918-5597AFB7DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCBF8F8-7F8C-4DF0-B02B-D95526A4D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRIX" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="18" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="16" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="15" dataCellStyle="Currency"/>
@@ -1398,7 +1401,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1416,7 +1419,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>42738</v>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>42739</v>
@@ -1547,7 +1550,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42740</v>
@@ -1581,7 +1584,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>42741</v>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>42744</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>42745</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>42746</v>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>42747</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>42748</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>42752</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>42753</v>
@@ -1853,7 +1856,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>42754</v>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42755</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>42758</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>42759</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>42760</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>42761</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>42762</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>42765</v>
@@ -2125,7 +2128,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>42766</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>42767</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>42768</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>42769</v>
@@ -2273,7 +2276,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>42772</v>
@@ -2310,7 +2313,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>42773</v>
@@ -2347,7 +2350,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>42774</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>42775</v>
@@ -2421,7 +2424,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>42776</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>42779</v>
@@ -2495,7 +2498,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>42780</v>
@@ -2532,7 +2535,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>42781</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>42782</v>
@@ -2606,7 +2609,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>42783</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>42787</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>42788</v>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>42789</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>42790</v>
@@ -2791,7 +2794,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>42793</v>
@@ -2828,7 +2831,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42794</v>
@@ -2868,7 +2871,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>42795</v>
@@ -2908,7 +2911,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>42796</v>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>42797</v>
@@ -2988,7 +2991,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>42800</v>
@@ -3028,7 +3031,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>42801</v>
@@ -3068,7 +3071,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>42802</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>42803</v>
@@ -3148,7 +3151,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>42804</v>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>42807</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>42808</v>
@@ -3268,7 +3271,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>42809</v>
@@ -3308,7 +3311,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>42810</v>
@@ -3348,7 +3351,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>42811</v>
@@ -3388,7 +3391,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>42814</v>
@@ -3428,7 +3431,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>42815</v>
@@ -3468,7 +3471,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>42816</v>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>42817</v>
@@ -3548,7 +3551,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>42818</v>
@@ -3588,7 +3591,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>42821</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>42822</v>
@@ -3683,7 +3686,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>42823</v>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>42824</v>
@@ -3783,7 +3786,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>42825</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>42828</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>42829</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>42830</v>
@@ -3998,7 +4001,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>42831</v>
@@ -4053,7 +4056,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>42832</v>
@@ -4108,7 +4111,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>42835</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>42836</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>42837</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>42838</v>
@@ -4328,7 +4331,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>42842</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>42843</v>
@@ -4438,7 +4441,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>42844</v>
@@ -4493,7 +4496,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>42845</v>
@@ -4548,7 +4551,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42846</v>
@@ -4603,7 +4606,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>42849</v>
@@ -4658,7 +4661,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>42850</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>42851</v>
@@ -4768,7 +4771,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>42852</v>
@@ -4823,7 +4826,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>42853</v>
@@ -4878,7 +4881,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>42856</v>
@@ -4933,7 +4936,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>42857</v>
@@ -4988,7 +4991,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>42858</v>
@@ -5043,7 +5046,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>42859</v>
@@ -5098,7 +5101,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>42860</v>
@@ -5153,7 +5156,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>42863</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>42864</v>
@@ -5263,7 +5266,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>42865</v>
@@ -5318,7 +5321,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>42866</v>
@@ -5373,7 +5376,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>42867</v>
@@ -5428,7 +5431,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>42870</v>
@@ -5483,7 +5486,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>42871</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>42872</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>42873</v>
@@ -5648,7 +5651,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>42874</v>
@@ -5703,7 +5706,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>42877</v>
@@ -5758,7 +5761,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>42878</v>
@@ -5813,7 +5816,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>42879</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>42880</v>
@@ -5923,7 +5926,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>42881</v>
@@ -5978,7 +5981,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>42885</v>
@@ -6033,7 +6036,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>42886</v>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>42887</v>
@@ -6143,7 +6146,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>42888</v>
@@ -6198,7 +6201,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>42891</v>
@@ -6253,7 +6256,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>42892</v>
@@ -6308,7 +6311,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>42893</v>
@@ -6363,7 +6366,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>42894</v>
@@ -6418,7 +6421,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>42895</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>42898</v>
@@ -6528,7 +6531,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>42899</v>
@@ -6583,7 +6586,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>42900</v>
@@ -6638,7 +6641,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>42901</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>42902</v>
@@ -6748,7 +6751,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>42905</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>42906</v>
@@ -6858,7 +6861,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>42907</v>
@@ -6913,7 +6916,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>42908</v>
@@ -6968,7 +6971,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>42909</v>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>42912</v>
@@ -7078,7 +7081,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>42913</v>
@@ -7133,7 +7136,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>42914</v>
@@ -7188,7 +7191,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>42915</v>
@@ -7243,7 +7246,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>42916</v>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>42919</v>
@@ -7353,7 +7356,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>42921</v>
@@ -7408,7 +7411,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>42922</v>
@@ -7463,7 +7466,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>42923</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>42926</v>
@@ -7573,7 +7576,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>42927</v>
@@ -7628,7 +7631,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>42928</v>
@@ -7683,7 +7686,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>42929</v>
@@ -7738,7 +7741,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>42930</v>
@@ -7793,7 +7796,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>42933</v>
@@ -7848,7 +7851,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>42934</v>
@@ -7903,7 +7906,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>42935</v>
@@ -7958,7 +7961,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>42936</v>
@@ -8013,7 +8016,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>42937</v>
@@ -8068,7 +8071,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>42940</v>
@@ -8123,7 +8126,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>42941</v>
@@ -8178,7 +8181,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>42942</v>
@@ -8233,7 +8236,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>42943</v>
@@ -8288,7 +8291,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>42944</v>
@@ -8343,7 +8346,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>42947</v>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>42948</v>
@@ -8453,7 +8456,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>42949</v>
@@ -8508,7 +8511,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>42950</v>
@@ -8563,7 +8566,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>42951</v>
@@ -8618,7 +8621,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>42954</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>42955</v>
@@ -8728,7 +8731,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>42956</v>
@@ -8783,7 +8786,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>42957</v>
@@ -8838,7 +8841,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>42958</v>
@@ -8893,7 +8896,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>42961</v>
@@ -8948,7 +8951,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>42962</v>
@@ -9003,7 +9006,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>42963</v>
@@ -9058,7 +9061,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>42964</v>
@@ -9113,7 +9116,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>42965</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>42968</v>
@@ -9223,7 +9226,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>42969</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>42970</v>
@@ -9333,7 +9336,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>42971</v>
@@ -9388,7 +9391,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>42972</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>42975</v>
@@ -9498,7 +9501,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>42976</v>
@@ -9553,7 +9556,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>42977</v>
@@ -9608,7 +9611,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>42978</v>
@@ -9663,7 +9666,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>42979</v>
@@ -9718,7 +9721,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>42983</v>
@@ -9773,7 +9776,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>42984</v>
@@ -9828,7 +9831,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>42985</v>
@@ -9883,7 +9886,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>42986</v>
@@ -9938,7 +9941,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>42989</v>
@@ -9993,7 +9996,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>42990</v>
@@ -10048,7 +10051,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>42991</v>
@@ -10103,7 +10106,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>42992</v>
@@ -10158,7 +10161,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>42993</v>
@@ -10213,7 +10216,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>42996</v>
@@ -10268,7 +10271,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>42997</v>
@@ -10323,7 +10326,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>42998</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>42999</v>
@@ -10433,7 +10436,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>43000</v>
@@ -10488,7 +10491,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>43003</v>
@@ -10543,7 +10546,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>43004</v>
@@ -10598,7 +10601,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>43005</v>
@@ -10653,7 +10656,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>43006</v>
@@ -10708,7 +10711,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>43007</v>
@@ -10763,7 +10766,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>43010</v>
@@ -10818,7 +10821,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>43011</v>
@@ -10873,7 +10876,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>43012</v>
@@ -10928,7 +10931,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>43013</v>
@@ -10983,7 +10986,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>43014</v>
@@ -11038,7 +11041,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>43017</v>
@@ -11093,7 +11096,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>43018</v>
@@ -11148,7 +11151,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>43019</v>
@@ -11203,7 +11206,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>43020</v>
@@ -11258,7 +11261,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>43021</v>
@@ -11313,7 +11316,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>43024</v>
@@ -11368,7 +11371,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>43025</v>
@@ -11423,7 +11426,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>43026</v>
@@ -11478,7 +11481,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>43027</v>
@@ -11533,7 +11536,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>43028</v>
@@ -11588,7 +11591,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>43031</v>
@@ -11643,7 +11646,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>43032</v>
@@ -11698,7 +11701,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>43033</v>
@@ -11753,7 +11756,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>43034</v>
@@ -11808,7 +11811,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>43035</v>
@@ -11863,7 +11866,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>43038</v>
@@ -11918,7 +11921,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>43039</v>
@@ -11973,7 +11976,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>43040</v>
@@ -12028,7 +12031,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>43041</v>
@@ -12083,7 +12086,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>43042</v>
@@ -12138,7 +12141,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>43045</v>
@@ -12193,7 +12196,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>43046</v>
@@ -12248,7 +12251,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>43047</v>
@@ -12303,7 +12306,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>43048</v>
@@ -12358,7 +12361,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>43049</v>
@@ -12413,7 +12416,7 @@
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>43052</v>
@@ -12468,7 +12471,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>43053</v>
@@ -12523,7 +12526,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>43054</v>
@@ -12578,7 +12581,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>43055</v>
@@ -12633,7 +12636,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>43056</v>
@@ -12688,7 +12691,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>43059</v>
@@ -12743,7 +12746,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>43060</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>43061</v>
@@ -12853,7 +12856,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>43063</v>
@@ -12908,7 +12911,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>43066</v>
@@ -12963,7 +12966,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>43067</v>
@@ -13018,7 +13021,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>43068</v>
@@ -13073,7 +13076,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>43069</v>
@@ -13128,7 +13131,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>43070</v>
@@ -13183,7 +13186,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>43073</v>
@@ -13238,7 +13241,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>43074</v>
@@ -13293,7 +13296,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>43075</v>
@@ -13348,7 +13351,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>43076</v>
@@ -13403,7 +13406,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>43077</v>
@@ -13458,7 +13461,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>43080</v>
@@ -13513,7 +13516,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>43081</v>
@@ -13568,7 +13571,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>43082</v>
@@ -13623,7 +13626,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>43083</v>
@@ -13678,7 +13681,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>43084</v>
@@ -13733,7 +13736,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>43087</v>
@@ -13788,7 +13791,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>43088</v>
@@ -13843,7 +13846,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>43089</v>
@@ -13898,7 +13901,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>43090</v>
@@ -13953,7 +13956,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>43091</v>
@@ -14008,7 +14011,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>43095</v>
@@ -14063,7 +14066,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>43096</v>
@@ -14118,7 +14121,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>43097</v>
@@ -14173,7 +14176,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>43098</v>
@@ -14228,7 +14231,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>43102</v>
@@ -14283,7 +14286,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>43103</v>
@@ -14338,7 +14341,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>43104</v>
@@ -14393,7 +14396,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>43105</v>
@@ -14448,7 +14451,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>43108</v>
@@ -14503,7 +14506,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>43109</v>
@@ -14558,7 +14561,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>43110</v>
@@ -14613,7 +14616,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>43111</v>
@@ -14668,7 +14671,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>43112</v>
@@ -14723,7 +14726,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>43116</v>
@@ -14778,7 +14781,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>43117</v>
@@ -14833,7 +14836,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>43118</v>
@@ -14888,7 +14891,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>43119</v>
@@ -14943,7 +14946,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>43122</v>
@@ -14998,7 +15001,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>43123</v>
@@ -15053,7 +15056,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>43124</v>
@@ -15108,7 +15111,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>43125</v>
@@ -15163,7 +15166,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>43126</v>
@@ -15218,7 +15221,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>43129</v>
@@ -15273,7 +15276,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>43130</v>
@@ -15328,7 +15331,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>43131</v>
@@ -15383,7 +15386,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>43132</v>
@@ -15438,7 +15441,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>43133</v>
@@ -15493,7 +15496,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>43136</v>
@@ -15548,7 +15551,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>43137</v>
@@ -15603,7 +15606,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>43138</v>
@@ -15658,7 +15661,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>43139</v>
@@ -15713,7 +15716,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>43140</v>
@@ -15768,7 +15771,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>43143</v>
@@ -15823,7 +15826,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>43144</v>
@@ -15878,7 +15881,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>43145</v>
@@ -15933,7 +15936,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>43146</v>
@@ -15988,7 +15991,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>43147</v>
@@ -16043,7 +16046,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>43151</v>
@@ -16098,7 +16101,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>43152</v>
@@ -16153,7 +16156,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>43153</v>
@@ -16208,7 +16211,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>43154</v>
@@ -16263,7 +16266,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>43157</v>
@@ -16318,7 +16321,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>43158</v>
@@ -16373,7 +16376,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>43159</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>43160</v>
@@ -16483,7 +16486,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>43161</v>
@@ -16538,7 +16541,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>43164</v>
@@ -16593,7 +16596,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>43165</v>
@@ -16648,7 +16651,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>43166</v>
@@ -16703,7 +16706,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>43167</v>
@@ -16758,7 +16761,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>43168</v>
@@ -16813,7 +16816,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>43171</v>
@@ -16868,7 +16871,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>43172</v>
@@ -16923,7 +16926,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>43173</v>
@@ -16978,7 +16981,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>43174</v>
@@ -17033,7 +17036,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>43175</v>
@@ -17088,7 +17091,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>43178</v>
@@ -17143,7 +17146,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>43179</v>
@@ -17198,7 +17201,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>43180</v>
@@ -17253,7 +17256,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>43181</v>
@@ -17308,7 +17311,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>43182</v>
@@ -17363,7 +17366,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>43185</v>
@@ -17418,7 +17421,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>43186</v>
@@ -17473,7 +17476,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>43187</v>
@@ -17528,7 +17531,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>43188</v>
@@ -17583,7 +17586,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>43192</v>
@@ -17638,7 +17641,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>43193</v>
@@ -17693,7 +17696,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>43194</v>
@@ -17748,7 +17751,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>43195</v>
@@ -17803,7 +17806,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>43196</v>
@@ -17858,7 +17861,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>43199</v>
@@ -17913,7 +17916,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>43200</v>
@@ -17968,7 +17971,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>43201</v>
@@ -18023,7 +18026,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>43202</v>
@@ -18078,7 +18081,7 @@
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>43203</v>
@@ -18133,7 +18136,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>43206</v>
@@ -18188,7 +18191,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>43207</v>
@@ -18243,7 +18246,7 @@
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>43208</v>
@@ -18298,7 +18301,7 @@
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>43209</v>
@@ -18353,7 +18356,7 @@
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>43210</v>
@@ -18408,7 +18411,7 @@
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>43213</v>
@@ -18463,7 +18466,7 @@
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>43214</v>
@@ -18518,7 +18521,7 @@
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>43215</v>
@@ -18573,7 +18576,7 @@
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>43216</v>
@@ -18628,7 +18631,7 @@
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>43217</v>
@@ -18683,7 +18686,7 @@
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>43220</v>
@@ -18738,7 +18741,7 @@
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>43221</v>
@@ -18793,7 +18796,7 @@
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>43222</v>
@@ -18848,7 +18851,7 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>43223</v>
@@ -18903,7 +18906,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>43224</v>
@@ -18958,7 +18961,7 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>43227</v>
@@ -19013,7 +19016,7 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>43228</v>
@@ -19068,7 +19071,7 @@
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>43229</v>
@@ -19123,7 +19126,7 @@
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>43230</v>
@@ -19178,7 +19181,7 @@
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>43231</v>
@@ -19233,7 +19236,7 @@
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>43234</v>
@@ -19288,7 +19291,7 @@
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>43235</v>
@@ -19343,7 +19346,7 @@
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>43236</v>
@@ -19398,7 +19401,7 @@
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>43237</v>
@@ -19453,7 +19456,7 @@
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>43238</v>
@@ -19508,7 +19511,7 @@
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>43241</v>
@@ -19563,7 +19566,7 @@
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>43242</v>
@@ -19618,7 +19621,7 @@
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>43243</v>
@@ -19673,7 +19676,7 @@
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>43244</v>
@@ -19728,7 +19731,7 @@
     </row>
     <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>43245</v>
@@ -19783,7 +19786,7 @@
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>43249</v>
@@ -19838,7 +19841,7 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>43250</v>
@@ -19893,7 +19896,7 @@
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>43251</v>
@@ -19948,7 +19951,7 @@
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>43252</v>
@@ -20003,7 +20006,7 @@
     </row>
     <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>43255</v>
@@ -20058,7 +20061,7 @@
     </row>
     <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>43256</v>
@@ -20113,7 +20116,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>43257</v>
@@ -20168,7 +20171,7 @@
     </row>
     <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>43258</v>
@@ -20223,7 +20226,7 @@
     </row>
     <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>43259</v>
@@ -20278,7 +20281,7 @@
     </row>
     <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>43262</v>
@@ -20333,7 +20336,7 @@
     </row>
     <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>43263</v>
@@ -20388,7 +20391,7 @@
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>43264</v>
@@ -20443,7 +20446,7 @@
     </row>
     <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>43265</v>
@@ -20498,7 +20501,7 @@
     </row>
     <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>43266</v>
@@ -20553,7 +20556,7 @@
     </row>
     <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>43269</v>
@@ -20608,7 +20611,7 @@
     </row>
     <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>43270</v>
@@ -20663,7 +20666,7 @@
     </row>
     <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>43271</v>
@@ -20718,7 +20721,7 @@
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>43272</v>
@@ -20773,7 +20776,7 @@
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>43273</v>
@@ -20828,7 +20831,7 @@
     </row>
     <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>43276</v>
@@ -20883,7 +20886,7 @@
     </row>
     <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>43277</v>
@@ -20938,7 +20941,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>43278</v>
@@ -20993,7 +20996,7 @@
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>43279</v>
@@ -21048,7 +21051,7 @@
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>43280</v>
@@ -21103,7 +21106,7 @@
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>43283</v>
@@ -21158,7 +21161,7 @@
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>43284</v>
@@ -21213,7 +21216,7 @@
     </row>
     <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>43286</v>
@@ -21268,7 +21271,7 @@
     </row>
     <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>43287</v>
@@ -21323,7 +21326,7 @@
     </row>
     <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>43290</v>
@@ -21378,7 +21381,7 @@
     </row>
     <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>43291</v>
@@ -21433,7 +21436,7 @@
     </row>
     <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>43292</v>
@@ -21488,7 +21491,7 @@
     </row>
     <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>43293</v>
@@ -21543,7 +21546,7 @@
     </row>
     <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>43294</v>
@@ -21598,7 +21601,7 @@
     </row>
     <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>43297</v>
@@ -21653,7 +21656,7 @@
     </row>
     <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>43298</v>
@@ -21708,7 +21711,7 @@
     </row>
     <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>43299</v>
@@ -21763,7 +21766,7 @@
     </row>
     <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>43300</v>
@@ -21818,7 +21821,7 @@
     </row>
     <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>43301</v>
@@ -21873,7 +21876,7 @@
     </row>
     <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>43304</v>
@@ -21928,7 +21931,7 @@
     </row>
     <row r="393" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>43305</v>
@@ -21983,7 +21986,7 @@
     </row>
     <row r="394" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>43306</v>
@@ -22038,7 +22041,7 @@
     </row>
     <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>43307</v>
@@ -22093,7 +22096,7 @@
     </row>
     <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>43308</v>
@@ -22148,7 +22151,7 @@
     </row>
     <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>43311</v>
@@ -22203,7 +22206,7 @@
     </row>
     <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>43312</v>
@@ -22258,7 +22261,7 @@
     </row>
     <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>43313</v>
@@ -22313,7 +22316,7 @@
     </row>
     <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>43314</v>
@@ -22368,7 +22371,7 @@
     </row>
     <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3">
         <v>43315</v>
@@ -22423,7 +22426,7 @@
     </row>
     <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3">
         <v>43318</v>
@@ -22478,7 +22481,7 @@
     </row>
     <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3">
         <v>43319</v>
@@ -22533,7 +22536,7 @@
     </row>
     <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3">
         <v>43320</v>
@@ -22588,7 +22591,7 @@
     </row>
     <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3">
         <v>43321</v>
@@ -22643,7 +22646,7 @@
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3">
         <v>43322</v>
@@ -22698,7 +22701,7 @@
     </row>
     <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3">
         <v>43325</v>
@@ -22753,7 +22756,7 @@
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3">
         <v>43326</v>
@@ -22808,7 +22811,7 @@
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3">
         <v>43327</v>
@@ -22863,7 +22866,7 @@
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3">
         <v>43328</v>
@@ -22918,7 +22921,7 @@
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3">
         <v>43329</v>
@@ -22973,7 +22976,7 @@
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3">
         <v>43332</v>
@@ -23028,7 +23031,7 @@
     </row>
     <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3">
         <v>43333</v>
@@ -23083,7 +23086,7 @@
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3">
         <v>43334</v>
@@ -23138,7 +23141,7 @@
     </row>
     <row r="415" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3">
         <v>43335</v>
@@ -23193,7 +23196,7 @@
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3">
         <v>43336</v>
@@ -23248,7 +23251,7 @@
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3">
         <v>43339</v>
@@ -23303,7 +23306,7 @@
     </row>
     <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3">
         <v>43340</v>
@@ -23358,7 +23361,7 @@
     </row>
     <row r="419" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3">
         <v>43341</v>
@@ -23413,7 +23416,7 @@
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3">
         <v>43342</v>
@@ -23468,7 +23471,7 @@
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3">
         <v>43343</v>
@@ -23523,7 +23526,7 @@
     </row>
     <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3">
         <v>43347</v>
@@ -23578,7 +23581,7 @@
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="7">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3">
         <v>43348</v>
@@ -23633,7 +23636,7 @@
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3">
         <v>43349</v>
@@ -23688,7 +23691,7 @@
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3">
         <v>43350</v>
@@ -23743,7 +23746,7 @@
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3">
         <v>43353</v>
@@ -23798,7 +23801,7 @@
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="7">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3">
         <v>43354</v>
@@ -23853,7 +23856,7 @@
     </row>
     <row r="428" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A428" s="7">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3">
         <v>43355</v>
@@ -23908,7 +23911,7 @@
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="7">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3">
         <v>43356</v>
@@ -23963,7 +23966,7 @@
     </row>
     <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="7">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3">
         <v>43357</v>
@@ -24018,7 +24021,7 @@
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="7">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3">
         <v>43360</v>
@@ -24073,7 +24076,7 @@
     </row>
     <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="7">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3">
         <v>43361</v>
@@ -24128,7 +24131,7 @@
     </row>
     <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="7">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3">
         <v>43362</v>
@@ -24183,7 +24186,7 @@
     </row>
     <row r="434" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A434" s="7">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3">
         <v>43363</v>
@@ -24238,7 +24241,7 @@
     </row>
     <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="7">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3">
         <v>43364</v>
@@ -24293,7 +24296,7 @@
     </row>
     <row r="436" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A436" s="7">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3">
         <v>43367</v>
@@ -24348,7 +24351,7 @@
     </row>
     <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="7">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3">
         <v>43368</v>
@@ -24403,7 +24406,7 @@
     </row>
     <row r="438" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A438" s="7">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3">
         <v>43369</v>
@@ -24458,7 +24461,7 @@
     </row>
     <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="7">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3">
         <v>43370</v>
@@ -24513,7 +24516,7 @@
     </row>
     <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="7">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3">
         <v>43371</v>
@@ -24568,7 +24571,7 @@
     </row>
     <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="7">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3">
         <v>43374</v>
@@ -24623,7 +24626,7 @@
     </row>
     <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="7">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3">
         <v>43375</v>
@@ -24678,7 +24681,7 @@
     </row>
     <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="7">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3">
         <v>43376</v>
@@ -24733,7 +24736,7 @@
     </row>
     <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="7">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3">
         <v>43377</v>
@@ -24788,7 +24791,7 @@
     </row>
     <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="7">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3">
         <v>43378</v>
@@ -24843,7 +24846,7 @@
     </row>
     <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="7">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3">
         <v>43381</v>
@@ -24898,7 +24901,7 @@
     </row>
     <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="7">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3">
         <v>43382</v>
@@ -24953,7 +24956,7 @@
     </row>
     <row r="448" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A448" s="7">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3">
         <v>43383</v>
@@ -25008,7 +25011,7 @@
     </row>
     <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="7">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3">
         <v>43384</v>
@@ -25063,7 +25066,7 @@
     </row>
     <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="7">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3">
         <v>43385</v>
@@ -25118,7 +25121,7 @@
     </row>
     <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="7">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3">
         <v>43388</v>
@@ -25173,7 +25176,7 @@
     </row>
     <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="7">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3">
         <v>43389</v>
@@ -25228,7 +25231,7 @@
     </row>
     <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="7">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3">
         <v>43390</v>
@@ -25283,7 +25286,7 @@
     </row>
     <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="7">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3">
         <v>43391</v>
@@ -25338,7 +25341,7 @@
     </row>
     <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="7">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3">
         <v>43392</v>
@@ -25393,7 +25396,7 @@
     </row>
     <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="7">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3">
         <v>43395</v>
@@ -25448,7 +25451,7 @@
     </row>
     <row r="457" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A457" s="7">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3">
         <v>43396</v>
@@ -25503,7 +25506,7 @@
     </row>
     <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="7">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3">
         <v>43397</v>
@@ -25558,7 +25561,7 @@
     </row>
     <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="7">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3">
         <v>43398</v>
@@ -25613,7 +25616,7 @@
     </row>
     <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="7">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3">
         <v>43399</v>
@@ -25668,7 +25671,7 @@
     </row>
     <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="7">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3">
         <v>43402</v>
@@ -25723,7 +25726,7 @@
     </row>
     <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="7">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3">
         <v>43403</v>
@@ -25778,7 +25781,7 @@
     </row>
     <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="7">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3">
         <v>43404</v>
@@ -25833,7 +25836,7 @@
     </row>
     <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="7">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3">
         <v>43405</v>
@@ -25888,7 +25891,7 @@
     </row>
     <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="7">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3">
         <v>43406</v>
@@ -25943,7 +25946,7 @@
     </row>
     <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="7">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3">
         <v>43409</v>
@@ -25998,7 +26001,7 @@
     </row>
     <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="7">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3">
         <v>43410</v>
@@ -26053,7 +26056,7 @@
     </row>
     <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="7">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3">
         <v>43411</v>
@@ -26108,7 +26111,7 @@
     </row>
     <row r="469" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A469" s="7">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3">
         <v>43412</v>
@@ -26163,7 +26166,7 @@
     </row>
     <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="7">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3">
         <v>43413</v>
@@ -26218,7 +26221,7 @@
     </row>
     <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="7">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3">
         <v>43416</v>
@@ -26273,7 +26276,7 @@
     </row>
     <row r="472" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A472" s="7">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3">
         <v>43417</v>
@@ -26328,7 +26331,7 @@
     </row>
     <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="7">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3">
         <v>43418</v>
@@ -26383,7 +26386,7 @@
     </row>
     <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="7">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3">
         <v>43419</v>
@@ -26438,7 +26441,7 @@
     </row>
     <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3">
         <v>43420</v>
@@ -26493,7 +26496,7 @@
     </row>
     <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="7">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="3">
         <v>43423</v>
@@ -26548,7 +26551,7 @@
     </row>
     <row r="477" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A477" s="7">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3">
         <v>43424</v>
@@ -26603,7 +26606,7 @@
     </row>
     <row r="478" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A478" s="7">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3">
         <v>43425</v>
@@ -26658,7 +26661,7 @@
     </row>
     <row r="479" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A479" s="7">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3">
         <v>43427</v>
@@ -26713,7 +26716,7 @@
     </row>
     <row r="480" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A480" s="7">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3">
         <v>43430</v>
@@ -26768,7 +26771,7 @@
     </row>
     <row r="481" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3">
         <v>43431</v>
@@ -26823,7 +26826,7 @@
     </row>
     <row r="482" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3">
         <v>43432</v>
@@ -26878,7 +26881,7 @@
     </row>
     <row r="483" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3">
         <v>43433</v>
@@ -26933,7 +26936,7 @@
     </row>
     <row r="484" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3">
         <v>43434</v>
@@ -26988,7 +26991,7 @@
     </row>
     <row r="485" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3">
         <v>43437</v>
@@ -27043,7 +27046,7 @@
     </row>
     <row r="486" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3">
         <v>43438</v>
@@ -27098,7 +27101,7 @@
     </row>
     <row r="487" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3">
         <v>43440</v>
@@ -27153,7 +27156,7 @@
     </row>
     <row r="488" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3">
         <v>43441</v>
@@ -27208,7 +27211,7 @@
     </row>
     <row r="489" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="3">
         <v>43444</v>
@@ -27263,7 +27266,7 @@
     </row>
     <row r="490" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3">
         <v>43445</v>
@@ -27318,7 +27321,7 @@
     </row>
     <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3">
         <v>43446</v>
@@ -27373,7 +27376,7 @@
     </row>
     <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3">
         <v>43447</v>
@@ -27428,7 +27431,7 @@
     </row>
     <row r="493" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3">
         <v>43448</v>
@@ -27483,7 +27486,7 @@
     </row>
     <row r="494" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A494" s="7">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3">
         <v>43451</v>
@@ -27538,7 +27541,7 @@
     </row>
     <row r="495" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="3">
         <v>43452</v>
@@ -27593,7 +27596,7 @@
     </row>
     <row r="496" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3">
         <v>43453</v>
@@ -27648,7 +27651,7 @@
     </row>
     <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3">
         <v>43454</v>
@@ -27703,7 +27706,7 @@
     </row>
     <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3">
         <v>43455</v>
@@ -27758,7 +27761,7 @@
     </row>
     <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3">
         <v>43458</v>
@@ -27813,7 +27816,7 @@
     </row>
     <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3">
         <v>43460</v>
@@ -27868,7 +27871,7 @@
     </row>
     <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3">
         <v>43461</v>
@@ -27923,7 +27926,7 @@
     </row>
     <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3">
         <v>43462</v>
@@ -27978,7 +27981,7 @@
     </row>
     <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="7">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3">
         <v>43465</v>

--- a/tests/indicators/s-z/Trix/Trix.Calc.xlsx
+++ b/tests/indicators/s-z/Trix/Trix.Calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCBF8F8-7F8C-4DF0-B02B-D95526A4D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C05804-9947-481C-88A8-0A7365EFB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:T503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,9 +2152,15 @@
         <f>AVERAGE(F2:F21)</f>
         <v>214.52499999999995</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="17"/>
+      <c r="I21" s="14">
+        <f>testdata[[#This Row],[ema]]</f>
+        <v>214.52499999999995</v>
+      </c>
+      <c r="J21" s="15">
+        <f>testdata[[#This Row],[ema]]</f>
+        <v>214.52499999999995</v>
+      </c>
+      <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="P21" s="7">
         <v>20</v>
@@ -2189,9 +2195,18 @@
         <f>(testdata[[#This Row],[close]]-H21)*Multiplier +H21</f>
         <v>214.57499999999996</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="17"/>
+      <c r="I22" s="2">
+        <f>(testdata[[#This Row],[ema]]-I21)*Multiplier+I21</f>
+        <v>214.52976190476184</v>
+      </c>
+      <c r="J22" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J21)*Multiplier+J21</f>
+        <v>214.52545351473918</v>
+      </c>
+      <c r="K22" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J21)/J21</f>
+        <v>2.1140414368237096E-4</v>
+      </c>
       <c r="L22" s="18"/>
       <c r="P22" s="7">
         <v>21</v>
@@ -2226,9 +2241,18 @@
         <f>(testdata[[#This Row],[close]]-H22)*Multiplier +H22</f>
         <v>214.6335714285714</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="17"/>
+      <c r="I23" s="2">
+        <f>(testdata[[#This Row],[ema]]-I22)*Multiplier+I22</f>
+        <v>214.53964852607703</v>
+      </c>
+      <c r="J23" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J22)*Multiplier+J22</f>
+        <v>214.52680542058087</v>
+      </c>
+      <c r="K23" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J22)/J22</f>
+        <v>6.3018435320294313E-4</v>
+      </c>
       <c r="L23" s="18"/>
       <c r="P23" s="7">
         <v>22</v>
@@ -2263,9 +2287,18 @@
         <f>(testdata[[#This Row],[close]]-H23)*Multiplier +H23</f>
         <v>214.82751700680271</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="17"/>
+      <c r="I24" s="2">
+        <f>(testdata[[#This Row],[ema]]-I23)*Multiplier+I23</f>
+        <v>214.56706457186044</v>
+      </c>
+      <c r="J24" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J23)*Multiplier+J23</f>
+        <v>214.53063962546463</v>
+      </c>
+      <c r="K24" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J23)/J23</f>
+        <v>1.7872847527106027E-3</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="P24" s="7">
         <v>23</v>
@@ -2300,9 +2333,18 @@
         <f>(testdata[[#This Row],[close]]-H24)*Multiplier +H24</f>
         <v>214.96584872044053</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="17"/>
+      <c r="I25" s="2">
+        <f>(testdata[[#This Row],[ema]]-I24)*Multiplier+I24</f>
+        <v>214.60504401458235</v>
+      </c>
+      <c r="J25" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J24)*Multiplier+J24</f>
+        <v>214.53772575776156</v>
+      </c>
+      <c r="K25" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J24)/J24</f>
+        <v>3.3030863606731339E-3</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="P25" s="7">
         <v>24</v>
@@ -2337,10 +2379,22 @@
         <f>(testdata[[#This Row],[close]]-H25)*Multiplier +H25</f>
         <v>215.09195836611286</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="18"/>
+      <c r="I26" s="2">
+        <f>(testdata[[#This Row],[ema]]-I25)*Multiplier+I25</f>
+        <v>214.65141680996621</v>
+      </c>
+      <c r="J26" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J25)*Multiplier+J25</f>
+        <v>214.54855347701914</v>
+      </c>
+      <c r="K26" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J25)/J25</f>
+        <v>5.0470001112078288E-3</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" ref="L22:L63" si="0">AVERAGE(K22:K26)</f>
+        <v>2.1957919442953762E-3</v>
+      </c>
       <c r="P26" s="7">
         <v>25</v>
       </c>
@@ -2374,10 +2428,22 @@
         <f>(testdata[[#This Row],[close]]-H26)*Multiplier +H26</f>
         <v>215.23367661695926</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="18"/>
+      <c r="I27" s="2">
+        <f>(testdata[[#This Row],[ema]]-I26)*Multiplier+I26</f>
+        <v>214.70687012491791</v>
+      </c>
+      <c r="J27" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J26)*Multiplier+J26</f>
+        <v>214.5636312530095</v>
+      </c>
+      <c r="K27" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J26)/J26</f>
+        <v>7.0276754357042667E-3</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5590462026997547E-3</v>
+      </c>
       <c r="P27" s="7">
         <v>26</v>
       </c>
@@ -2411,10 +2477,22 @@
         <f>(testdata[[#This Row],[close]]-H27)*Multiplier +H27</f>
         <v>215.48380265343934</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="2">
+        <f>(testdata[[#This Row],[ema]]-I27)*Multiplier+I27</f>
+        <v>214.78086369906282</v>
+      </c>
+      <c r="J28" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J27)*Multiplier+J27</f>
+        <v>214.58432005739553</v>
+      </c>
+      <c r="K28" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J27)/J27</f>
+        <v>9.6422698782675752E-3</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" si="0"/>
+        <v>5.3614633077126812E-3</v>
+      </c>
       <c r="P28" s="7">
         <v>27</v>
       </c>
@@ -2448,10 +2526,22 @@
         <f>(testdata[[#This Row],[close]]-H28)*Multiplier +H28</f>
         <v>215.79201192454036</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="2">
+        <f>(testdata[[#This Row],[ema]]-I28)*Multiplier+I28</f>
+        <v>214.87716353006067</v>
+      </c>
+      <c r="J29" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J28)*Multiplier+J28</f>
+        <v>214.61220991193505</v>
+      </c>
+      <c r="K29" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J28)/J28</f>
+        <v>1.2997154000843983E-2</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="0"/>
+        <v>7.603437157339357E-3</v>
+      </c>
       <c r="P29" s="7">
         <v>28</v>
       </c>
@@ -2485,10 +2575,22 @@
         <f>(testdata[[#This Row],[close]]-H29)*Multiplier +H29</f>
         <v>216.18420126506032</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="I30" s="2">
+        <f>(testdata[[#This Row],[ema]]-I29)*Multiplier+I29</f>
+        <v>215.00164331434635</v>
+      </c>
+      <c r="J30" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J29)*Multiplier+J29</f>
+        <v>214.6492988074028</v>
+      </c>
+      <c r="K30" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J29)/J29</f>
+        <v>1.7281819838193772E-2</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="0"/>
+        <v>1.0399183852843486E-2</v>
+      </c>
       <c r="P30" s="7">
         <v>29</v>
       </c>
@@ -2522,10 +2624,22 @@
         <f>(testdata[[#This Row],[close]]-H30)*Multiplier +H30</f>
         <v>216.622848763626</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="2">
+        <f>(testdata[[#This Row],[ema]]-I30)*Multiplier+I30</f>
+        <v>215.15604383332536</v>
+      </c>
+      <c r="J31" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J30)*Multiplier+J30</f>
+        <v>214.69756023844303</v>
+      </c>
+      <c r="K31" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J30)/J30</f>
+        <v>2.248385217579231E-2</v>
+      </c>
+      <c r="L31" s="18">
+        <f t="shared" si="0"/>
+        <v>1.3886554265760381E-2</v>
+      </c>
       <c r="P31" s="7">
         <v>30</v>
       </c>
@@ -2559,10 +2673,22 @@
         <f>(testdata[[#This Row],[close]]-H31)*Multiplier +H31</f>
         <v>217.12924411947114</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="2">
+        <f>(testdata[[#This Row],[ema]]-I31)*Multiplier+I31</f>
+        <v>215.34396767010114</v>
+      </c>
+      <c r="J32" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J31)*Multiplier+J31</f>
+        <v>214.7591228509819</v>
+      </c>
+      <c r="K32" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J31)/J31</f>
+        <v>2.8674109044598831E-2</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8215840987539294E-2</v>
+      </c>
       <c r="P32" s="7">
         <v>31</v>
       </c>
@@ -2596,10 +2722,22 @@
         <f>(testdata[[#This Row],[close]]-H32)*Multiplier +H32</f>
         <v>217.56931610809295</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="2">
+        <f>(testdata[[#This Row],[ema]]-I32)*Multiplier+I32</f>
+        <v>215.55590561657655</v>
+      </c>
+      <c r="J33" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J32)*Multiplier+J32</f>
+        <v>214.83500692389566</v>
+      </c>
+      <c r="K33" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J32)/J32</f>
+        <v>3.5334504959037658E-2</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="0"/>
+        <v>2.335428800369331E-2</v>
+      </c>
       <c r="P33" s="7">
         <v>32</v>
       </c>
@@ -2633,10 +2771,22 @@
         <f>(testdata[[#This Row],[close]]-H33)*Multiplier +H33</f>
         <v>218.0008098120841</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="2">
+        <f>(testdata[[#This Row],[ema]]-I33)*Multiplier+I33</f>
+        <v>215.78875363519631</v>
+      </c>
+      <c r="J34" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J33)*Multiplier+J33</f>
+        <v>214.92583994401954</v>
+      </c>
+      <c r="K34" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J33)/J33</f>
+        <v>4.2280362695293117E-2</v>
+      </c>
+      <c r="L34" s="18">
+        <f t="shared" si="0"/>
+        <v>2.9210929742583137E-2</v>
+      </c>
       <c r="P34" s="7">
         <v>33</v>
       </c>
@@ -2670,10 +2820,22 @@
         <f>(testdata[[#This Row],[close]]-H34)*Multiplier +H34</f>
         <v>218.51787554426656</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="18"/>
+      <c r="I35" s="2">
+        <f>(testdata[[#This Row],[ema]]-I34)*Multiplier+I34</f>
+        <v>216.04867000748871</v>
+      </c>
+      <c r="J35" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J34)*Multiplier+J34</f>
+        <v>215.03277614054042</v>
+      </c>
+      <c r="K35" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J34)/J34</f>
+        <v>4.9754927815440934E-2</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" si="0"/>
+        <v>3.5705551338032569E-2</v>
+      </c>
       <c r="P35" s="7">
         <v>34</v>
       </c>
@@ -2707,10 +2869,22 @@
         <f>(testdata[[#This Row],[close]]-H35)*Multiplier +H35</f>
         <v>218.96664930195547</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="2">
+        <f>(testdata[[#This Row],[ema]]-I35)*Multiplier+I35</f>
+        <v>216.32657279743793</v>
+      </c>
+      <c r="J36" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J35)*Multiplier+J35</f>
+        <v>215.15599486976876</v>
+      </c>
+      <c r="K36" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J35)/J35</f>
+        <v>5.7302301276996218E-2</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="0"/>
+        <v>4.2669241158273349E-2</v>
+      </c>
       <c r="P36" s="7">
         <v>35</v>
       </c>
@@ -2744,10 +2918,22 @@
         <f>(testdata[[#This Row],[close]]-H36)*Multiplier +H36</f>
         <v>219.38696841605494</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="18"/>
+      <c r="I37" s="2">
+        <f>(testdata[[#This Row],[ema]]-I36)*Multiplier+I36</f>
+        <v>216.61803904683003</v>
+      </c>
+      <c r="J37" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J36)*Multiplier+J36</f>
+        <v>215.29523717234602</v>
+      </c>
+      <c r="K37" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J36)/J36</f>
+        <v>6.4716905825254967E-2</v>
+      </c>
+      <c r="L37" s="18">
+        <f t="shared" si="0"/>
+        <v>4.9877800514404581E-2</v>
+      </c>
       <c r="P37" s="7">
         <v>36</v>
       </c>
@@ -2781,10 +2967,22 @@
         <f>(testdata[[#This Row],[close]]-H37)*Multiplier +H37</f>
         <v>219.79392380500209</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
+      <c r="I38" s="2">
+        <f>(testdata[[#This Row],[ema]]-I37)*Multiplier+I37</f>
+        <v>216.92050426189405</v>
+      </c>
+      <c r="J38" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J37)*Multiplier+J37</f>
+        <v>215.45002451420774</v>
+      </c>
+      <c r="K38" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J37)/J37</f>
+        <v>7.1895386026496824E-2</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="0"/>
+        <v>5.7189976727896406E-2</v>
+      </c>
       <c r="P38" s="7">
         <v>37</v>
       </c>
@@ -2818,10 +3016,22 @@
         <f>(testdata[[#This Row],[close]]-H38)*Multiplier +H38</f>
         <v>220.19545487119237</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
+      <c r="I39" s="2">
+        <f>(testdata[[#This Row],[ema]]-I38)*Multiplier+I38</f>
+        <v>217.23240431992247</v>
+      </c>
+      <c r="J39" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J38)*Multiplier+J38</f>
+        <v>215.61977497189486</v>
+      </c>
+      <c r="K39" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J38)/J38</f>
+        <v>7.8788785505996203E-2</v>
+      </c>
+      <c r="L39" s="18">
+        <f t="shared" si="0"/>
+        <v>6.4491661290037028E-2</v>
+      </c>
       <c r="P39" s="7">
         <v>38</v>
       </c>
@@ -2855,13 +3065,22 @@
         <f>(testdata[[#This Row],[close]]-H39)*Multiplier +H39</f>
         <v>220.5016020263169</v>
       </c>
-      <c r="I40" s="14">
-        <f>AVERAGE(H21:H40)</f>
-        <v>216.89986403749944</v>
-      </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18"/>
+      <c r="I40" s="2">
+        <f>(testdata[[#This Row],[ema]]-I39)*Multiplier+I39</f>
+        <v>217.54375648243621</v>
+      </c>
+      <c r="J40" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J39)*Multiplier+J39</f>
+        <v>215.80301130623212</v>
+      </c>
+      <c r="K40" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J39)/J39</f>
+        <v>8.4981228814078102E-2</v>
+      </c>
+      <c r="L40" s="18">
+        <f t="shared" si="0"/>
+        <v>7.1536921489764455E-2</v>
+      </c>
       <c r="P40" s="7">
         <v>39</v>
       </c>
@@ -2897,11 +3116,20 @@
       </c>
       <c r="I41" s="2">
         <f>(testdata[[#This Row],[ema]]-I40)*Multiplier+I40</f>
-        <v>217.29756604980119</v>
-      </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="18"/>
+        <v>217.88013540474395</v>
+      </c>
+      <c r="J41" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J40)*Multiplier+J40</f>
+        <v>216.00083264894752</v>
+      </c>
+      <c r="K41" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J40)/J40</f>
+        <v>9.1667554367295095E-2</v>
+      </c>
+      <c r="L41" s="18">
+        <f t="shared" si="0"/>
+        <v>7.840997210782423E-2</v>
+      </c>
       <c r="P41" s="7">
         <v>40</v>
       </c>
@@ -2937,11 +3165,20 @@
       </c>
       <c r="I42" s="2">
         <f>(testdata[[#This Row],[ema]]-I41)*Multiplier+I41</f>
-        <v>217.69398365125633</v>
-      </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="18"/>
+        <v>218.22107021049027</v>
+      </c>
+      <c r="J42" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J41)*Multiplier+J41</f>
+        <v>216.21228384528493</v>
+      </c>
+      <c r="K42" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J41)/J41</f>
+        <v>9.7893695012308254E-2</v>
+      </c>
+      <c r="L42" s="18">
+        <f t="shared" si="0"/>
+        <v>8.5045329945234907E-2</v>
+      </c>
       <c r="P42" s="7">
         <v>41</v>
       </c>
@@ -2977,11 +3214,20 @@
       </c>
       <c r="I43" s="2">
         <f>(testdata[[#This Row],[ema]]-I42)*Multiplier+I42</f>
-        <v>218.08702405833182</v>
-      </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="18"/>
+        <v>218.56391189763869</v>
+      </c>
+      <c r="J43" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J42)*Multiplier+J42</f>
+        <v>216.43624842169956</v>
+      </c>
+      <c r="K43" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J42)/J42</f>
+        <v>0.10358550052359314</v>
+      </c>
+      <c r="L43" s="18">
+        <f t="shared" si="0"/>
+        <v>9.1383352844654181E-2</v>
+      </c>
       <c r="P43" s="7">
         <v>42</v>
       </c>
@@ -3017,11 +3263,20 @@
       </c>
       <c r="I44" s="2">
         <f>(testdata[[#This Row],[ema]]-I43)*Multiplier+I43</f>
-        <v>218.46765782413888</v>
-      </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="18"/>
+        <v>218.89912777398797</v>
+      </c>
+      <c r="J44" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J43)*Multiplier+J43</f>
+        <v>216.67080836001273</v>
+      </c>
+      <c r="K44" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J43)/J43</f>
+        <v>0.1083736851029487</v>
+      </c>
+      <c r="L44" s="18">
+        <f t="shared" si="0"/>
+        <v>9.730033276404465E-2</v>
+      </c>
       <c r="P44" s="7">
         <v>43</v>
       </c>
@@ -3057,11 +3312,20 @@
       </c>
       <c r="I45" s="2">
         <f>(testdata[[#This Row],[ema]]-I44)*Multiplier+I44</f>
-        <v>218.82860602858287</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="18"/>
+        <v>219.21898360225586</v>
+      </c>
+      <c r="J45" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J44)*Multiplier+J44</f>
+        <v>216.91349171641684</v>
+      </c>
+      <c r="K45" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J44)/J44</f>
+        <v>0.11200556191255832</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="0"/>
+        <v>0.1027051993837407</v>
+      </c>
       <c r="P45" s="7">
         <v>44</v>
       </c>
@@ -3097,11 +3361,20 @@
       </c>
       <c r="I46" s="2">
         <f>(testdata[[#This Row],[ema]]-I45)*Multiplier+I45</f>
-        <v>219.16635631812923</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="18"/>
+        <v>219.51955507526193</v>
+      </c>
+      <c r="J46" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J45)*Multiplier+J45</f>
+        <v>217.16168822678304</v>
+      </c>
+      <c r="K46" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J45)/J45</f>
+        <v>0.11442188699386222</v>
+      </c>
+      <c r="L46" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10725606590905412</v>
+      </c>
       <c r="P46" s="7">
         <v>45</v>
       </c>
@@ -3137,11 +3410,20 @@
       </c>
       <c r="I47" s="2">
         <f>(testdata[[#This Row],[ema]]-I46)*Multiplier+I46</f>
-        <v>219.48468382210592</v>
-      </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="18"/>
+        <v>219.80424460236884</v>
+      </c>
+      <c r="J47" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J46)*Multiplier+J46</f>
+        <v>217.41336026255311</v>
+      </c>
+      <c r="K47" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J46)/J46</f>
+        <v>0.11589154506261169</v>
+      </c>
+      <c r="L47" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11085563591911481</v>
+      </c>
       <c r="P47" s="7">
         <v>46</v>
       </c>
@@ -3177,11 +3459,20 @@
       </c>
       <c r="I48" s="2">
         <f>(testdata[[#This Row],[ema]]-I47)*Multiplier+I47</f>
-        <v>219.79129945395889</v>
-      </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="18"/>
+        <v>220.08042587419678</v>
+      </c>
+      <c r="J48" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J47)*Multiplier+J47</f>
+        <v>217.66736651128107</v>
+      </c>
+      <c r="K48" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J47)/J47</f>
+        <v>0.11683102106568695</v>
+      </c>
+      <c r="L48" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11350474002753359</v>
+      </c>
       <c r="P48" s="7">
         <v>47</v>
       </c>
@@ -3217,11 +3508,20 @@
       </c>
       <c r="I49" s="2">
         <f>(testdata[[#This Row],[ema]]-I48)*Multiplier+I48</f>
-        <v>220.08654445460081</v>
-      </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="18"/>
+        <v>220.34813502529224</v>
+      </c>
+      <c r="J49" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J48)*Multiplier+J48</f>
+        <v>217.92267779832974</v>
+      </c>
+      <c r="K49" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J48)/J48</f>
+        <v>0.11729424173257408</v>
+      </c>
+      <c r="L49" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11528885135345864</v>
+      </c>
       <c r="P49" s="7">
         <v>48</v>
       </c>
@@ -3257,11 +3557,20 @@
       </c>
       <c r="I50" s="2">
         <f>(testdata[[#This Row],[ema]]-I49)*Multiplier+I49</f>
-        <v>220.36200311086688</v>
-      </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="18"/>
+        <v>220.5986802938734</v>
+      </c>
+      <c r="J50" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J49)*Multiplier+J49</f>
+        <v>218.17753517885771</v>
+      </c>
+      <c r="K50" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J49)/J49</f>
+        <v>0.11694853564704098</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11627744610035518</v>
+      </c>
       <c r="P50" s="7">
         <v>49</v>
       </c>
@@ -3297,11 +3606,20 @@
       </c>
       <c r="I51" s="2">
         <f>(testdata[[#This Row],[ema]]-I50)*Multiplier+I50</f>
-        <v>220.63636266294984</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
+        <v>220.85049916186048</v>
+      </c>
+      <c r="J51" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J50)*Multiplier+J50</f>
+        <v>218.43210317723893</v>
+      </c>
+      <c r="K51" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J50)/J50</f>
+        <v>0.11667928972271564</v>
+      </c>
+      <c r="L51" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11672892664612589</v>
+      </c>
       <c r="P51" s="7">
         <v>50</v>
       </c>
@@ -3337,11 +3655,20 @@
       </c>
       <c r="I52" s="2">
         <f>(testdata[[#This Row],[ema]]-I51)*Multiplier+I51</f>
-        <v>220.90334304310889</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="18"/>
+        <v>221.09708558974233</v>
+      </c>
+      <c r="J52" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J51)*Multiplier+J51</f>
+        <v>218.68591102604879</v>
+      </c>
+      <c r="K52" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J51)/J51</f>
+        <v>0.11619530513969963</v>
+      </c>
+      <c r="L52" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11678967866154347</v>
+      </c>
       <c r="P52" s="7">
         <v>51</v>
       </c>
@@ -3377,11 +3704,20 @@
       </c>
       <c r="I53" s="2">
         <f>(testdata[[#This Row],[ema]]-I52)*Multiplier+I52</f>
-        <v>221.15823316797281</v>
-      </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="18"/>
+        <v>221.3335240434983</v>
+      </c>
+      <c r="J53" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J52)*Multiplier+J52</f>
+        <v>218.93806464675825</v>
+      </c>
+      <c r="K53" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J52)/J52</f>
+        <v>0.11530400816695906</v>
+      </c>
+      <c r="L53" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11648427608179787</v>
+      </c>
       <c r="P53" s="7">
         <v>52</v>
       </c>
@@ -3417,11 +3753,20 @@
       </c>
       <c r="I54" s="2">
         <f>(testdata[[#This Row],[ema]]-I53)*Multiplier+I53</f>
-        <v>221.39864677886618</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="18"/>
+        <v>221.55724328529402</v>
+      </c>
+      <c r="J54" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J53)*Multiplier+J53</f>
+        <v>219.18751023138071</v>
+      </c>
+      <c r="K54" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J53)/J53</f>
+        <v>0.11393431517946753</v>
+      </c>
+      <c r="L54" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11581229077117657</v>
+      </c>
       <c r="P54" s="7">
         <v>53</v>
       </c>
@@ -3457,11 +3802,20 @@
       </c>
       <c r="I55" s="2">
         <f>(testdata[[#This Row],[ema]]-I54)*Multiplier+I54</f>
-        <v>221.59890692947172</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
+        <v>221.74239900671597</v>
+      </c>
+      <c r="J55" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J54)*Multiplier+J54</f>
+        <v>219.43083297188883</v>
+      </c>
+      <c r="K55" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J54)/J54</f>
+        <v>0.11101122516116962</v>
+      </c>
+      <c r="L55" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11462482867400228</v>
+      </c>
       <c r="P55" s="7">
         <v>54</v>
       </c>
@@ -3497,11 +3851,20 @@
       </c>
       <c r="I56" s="2">
         <f>(testdata[[#This Row],[ema]]-I55)*Multiplier+I55</f>
-        <v>221.76919782890644</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="18"/>
+        <v>221.89902399403221</v>
+      </c>
+      <c r="J56" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J55)*Multiplier+J55</f>
+        <v>219.66589878352153</v>
+      </c>
+      <c r="K56" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J55)/J55</f>
+        <v>0.10712524235954032</v>
+      </c>
+      <c r="L56" s="18">
+        <f t="shared" si="0"/>
+        <v>0.11271401920136723</v>
+      </c>
       <c r="P56" s="7">
         <v>55</v>
       </c>
@@ -3537,11 +3900,20 @@
       </c>
       <c r="I57" s="2">
         <f>(testdata[[#This Row],[ema]]-I56)*Multiplier+I56</f>
-        <v>221.91123461661689</v>
-      </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="18"/>
+        <v>222.02869638506402</v>
+      </c>
+      <c r="J57" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J56)*Multiplier+J56</f>
+        <v>219.89092712652558</v>
+      </c>
+      <c r="K57" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J56)/J56</f>
+        <v>0.10244118192683994</v>
+      </c>
+      <c r="L57" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10996319455879529</v>
+      </c>
       <c r="P57" s="7">
         <v>56</v>
       </c>
@@ -3577,11 +3949,20 @@
       </c>
       <c r="I58" s="2">
         <f>(testdata[[#This Row],[ema]]-I57)*Multiplier+I57</f>
-        <v>222.02740319234707</v>
-      </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="18"/>
+        <v>222.13367812570399</v>
+      </c>
+      <c r="J58" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J57)*Multiplier+J57</f>
+        <v>220.10452245978067</v>
+      </c>
+      <c r="K58" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J57)/J57</f>
+        <v>9.7136946961064216E-2</v>
+      </c>
+      <c r="L58" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10632978231761632</v>
+      </c>
       <c r="P58" s="7">
         <v>57</v>
       </c>
@@ -3617,14 +3998,20 @@
       </c>
       <c r="I59" s="2">
         <f>(testdata[[#This Row],[ema]]-I58)*Multiplier+I58</f>
-        <v>222.11925635123416</v>
-      </c>
-      <c r="J59" s="15">
-        <f>AVERAGE(I40:I59)</f>
-        <v>219.98440866903735</v>
-      </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="18"/>
+        <v>222.21540986236661</v>
+      </c>
+      <c r="J59" s="12">
+        <f>(testdata[[#This Row],[ema2]]-J58)*Multiplier+J58</f>
+        <v>220.30555935526505</v>
+      </c>
+      <c r="K59" s="18">
+        <f>100*(testdata[[#This Row],[ema3]]-J58)/J58</f>
+        <v>9.1337012632765668E-2</v>
+      </c>
+      <c r="L59" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10181032180827596</v>
+      </c>
       <c r="P59" s="7">
         <v>58</v>
       </c>
@@ -3662,17 +4049,20 @@
       </c>
       <c r="I60" s="2">
         <f>(testdata[[#This Row],[ema]]-I59)*Multiplier+I59</f>
-        <v>222.20506579557272</v>
+        <v>222.29206182945447</v>
       </c>
       <c r="J60" s="12">
         <f>(testdata[[#This Row],[ema2]]-J59)*Multiplier+J59</f>
-        <v>220.19589982394547</v>
+        <v>220.49475006709261</v>
       </c>
       <c r="K60" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J59)/J59</f>
-        <v>9.6139156491904743E-2</v>
-      </c>
-      <c r="L60" s="18"/>
+        <v>8.5876503698426768E-2</v>
+      </c>
+      <c r="L60" s="18">
+        <f t="shared" si="0"/>
+        <v>9.6783377515727381E-2</v>
+      </c>
       <c r="P60" s="7">
         <v>59</v>
       </c>
@@ -3712,17 +4102,20 @@
       </c>
       <c r="I61" s="2">
         <f>(testdata[[#This Row],[ema]]-I60)*Multiplier+I60</f>
-        <v>222.28705433576303</v>
+        <v>222.36576503308461</v>
       </c>
       <c r="J61" s="12">
         <f>(testdata[[#This Row],[ema2]]-J60)*Multiplier+J60</f>
-        <v>220.39505739649951</v>
+        <v>220.67294196861565</v>
       </c>
       <c r="K61" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J60)/J60</f>
-        <v>9.0445631691269693E-2</v>
-      </c>
-      <c r="L61" s="18"/>
+        <v>8.0814577883970104E-2</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" si="0"/>
+        <v>9.152124462061334E-2</v>
+      </c>
       <c r="P61" s="7">
         <v>60</v>
       </c>
@@ -3762,17 +4155,20 @@
       </c>
       <c r="I62" s="2">
         <f>(testdata[[#This Row],[ema]]-I61)*Multiplier+I61</f>
-        <v>222.37161135541302</v>
+        <v>222.44282579584683</v>
       </c>
       <c r="J62" s="12">
         <f>(testdata[[#This Row],[ema2]]-J61)*Multiplier+J61</f>
-        <v>220.58330063068175</v>
+        <v>220.84150233311385</v>
       </c>
       <c r="K62" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J61)/J61</f>
-        <v>8.5411731281968314E-2</v>
-      </c>
-      <c r="L62" s="18"/>
+        <v>7.6384699906786965E-2</v>
+      </c>
+      <c r="L62" s="18">
+        <f t="shared" si="0"/>
+        <v>8.6309948216602747E-2</v>
+      </c>
       <c r="P62" s="7">
         <v>61</v>
       </c>
@@ -3812,17 +4208,20 @@
       </c>
       <c r="I63" s="2">
         <f>(testdata[[#This Row],[ema]]-I62)*Multiplier+I62</f>
-        <v>222.45278740682346</v>
+        <v>222.51721951959689</v>
       </c>
       <c r="J63" s="12">
         <f>(testdata[[#This Row],[ema2]]-J62)*Multiplier+J62</f>
-        <v>220.76134699031428</v>
+        <v>221.00109444611223</v>
       </c>
       <c r="K63" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J62)/J62</f>
-        <v>8.0716155358755551E-2</v>
-      </c>
-      <c r="L63" s="18"/>
+        <v>7.2265453419011763E-2</v>
+      </c>
+      <c r="L63" s="18">
+        <f t="shared" si="0"/>
+        <v>8.1335649508192248E-2</v>
+      </c>
       <c r="P63" s="7">
         <v>62</v>
       </c>
@@ -3862,19 +4261,19 @@
       </c>
       <c r="I64" s="2">
         <f>(testdata[[#This Row],[ema]]-I63)*Multiplier+I63</f>
-        <v>222.5269221118844</v>
+        <v>222.5852178329651</v>
       </c>
       <c r="J64" s="12">
         <f>(testdata[[#This Row],[ema2]]-J63)*Multiplier+J63</f>
-        <v>220.9294970018924</v>
+        <v>221.15196334009823</v>
       </c>
       <c r="K64" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J63)/J63</f>
-        <v>7.616823047627895E-2</v>
+        <v>6.8266129796378847E-2</v>
       </c>
       <c r="L64" s="18">
         <f>AVERAGE(K60:K64)</f>
-        <v>8.5776181060035456E-2</v>
+        <v>7.6721472940914887E-2</v>
       </c>
       <c r="P64" s="7">
         <v>63</v>
@@ -3917,19 +4316,19 @@
       </c>
       <c r="I65" s="2">
         <f>(testdata[[#This Row],[ema]]-I64)*Multiplier+I64</f>
-        <v>222.59589022997841</v>
+        <v>222.64863397762284</v>
       </c>
       <c r="J65" s="12">
         <f>(testdata[[#This Row],[ema2]]-J64)*Multiplier+J64</f>
-        <v>221.08820111885296</v>
+        <v>221.29450340081488</v>
       </c>
       <c r="K65" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J64)/J64</f>
-        <v>7.1834734208988255E-2</v>
+        <v>6.4453445750077248E-2</v>
       </c>
       <c r="L65" s="18">
-        <f t="shared" ref="L65:L128" si="0">AVERAGE(K61:K65)</f>
-        <v>8.0915296603452161E-2</v>
+        <f t="shared" ref="L65:L128" si="1">AVERAGE(K61:K65)</f>
+        <v>7.2436861351244983E-2</v>
       </c>
       <c r="P65" s="7">
         <v>64</v>
@@ -3972,19 +4371,19 @@
       </c>
       <c r="I66" s="2">
         <f>(testdata[[#This Row],[ema]]-I65)*Multiplier+I65</f>
-        <v>222.65401705472223</v>
+        <v>222.70173758830526</v>
       </c>
       <c r="J66" s="12">
         <f>(testdata[[#This Row],[ema2]]-J65)*Multiplier+J65</f>
-        <v>221.23732644607861</v>
+        <v>221.42852570438538</v>
       </c>
       <c r="K66" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J65)/J65</f>
-        <v>6.745060408966834E-2</v>
+        <v>6.0562870523611118E-2</v>
       </c>
       <c r="L66" s="18">
-        <f t="shared" si="0"/>
-        <v>7.6316291083131885E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8386519879173185E-2</v>
       </c>
       <c r="P66" s="7">
         <v>65</v>
@@ -4027,19 +4426,19 @@
       </c>
       <c r="I67" s="2">
         <f>(testdata[[#This Row],[ema]]-I66)*Multiplier+I66</f>
-        <v>222.70836561597761</v>
+        <v>222.75154133683847</v>
       </c>
       <c r="J67" s="12">
         <f>(testdata[[#This Row],[ema2]]-J66)*Multiplier+J66</f>
-        <v>221.37742541464041</v>
+        <v>221.55452719319044</v>
       </c>
       <c r="K67" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J66)/J66</f>
-        <v>6.3325195080020685E-2</v>
+        <v>5.6903909920474928E-2</v>
       </c>
       <c r="L67" s="18">
-        <f t="shared" si="0"/>
-        <v>7.1898983842742362E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.449036188191079E-2</v>
       </c>
       <c r="P67" s="7">
         <v>66</v>
@@ -4082,19 +4481,19 @@
       </c>
       <c r="I68" s="2">
         <f>(testdata[[#This Row],[ema]]-I67)*Multiplier+I67</f>
-        <v>222.7570421877447</v>
+        <v>222.79610593519024</v>
       </c>
       <c r="J68" s="12">
         <f>(testdata[[#This Row],[ema2]]-J67)*Multiplier+J67</f>
-        <v>221.50881748826939</v>
+        <v>221.67277278766662</v>
       </c>
       <c r="K68" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J67)/J67</f>
-        <v>5.9352065091043245E-2</v>
+        <v>5.3370877126365832E-2</v>
       </c>
       <c r="L68" s="18">
-        <f t="shared" si="0"/>
-        <v>6.7626165789199902E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.0711446623381592E-2</v>
       </c>
       <c r="P68" s="7">
         <v>67</v>
@@ -4137,19 +4536,19 @@
       </c>
       <c r="I69" s="2">
         <f>(testdata[[#This Row],[ema]]-I68)*Multiplier+I68</f>
-        <v>222.80190403277177</v>
+        <v>222.83724742331773</v>
       </c>
       <c r="J69" s="16">
         <f>(testdata[[#This Row],[ema2]]-J68)*Multiplier+J68</f>
-        <v>221.6319685877458</v>
+        <v>221.7836751339191</v>
       </c>
       <c r="K69" s="19">
         <f>100*(testdata[[#This Row],[ema3]]-J68)/J68</f>
-        <v>5.5596477319887393E-2</v>
+        <v>5.0029755507554945E-2</v>
       </c>
       <c r="L69" s="19">
-        <f t="shared" si="0"/>
-        <v>6.3511815157921578E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.706417176561681E-2</v>
       </c>
       <c r="P69" s="7">
         <v>68</v>
@@ -4192,19 +4591,19 @@
       </c>
       <c r="I70" s="2">
         <f>(testdata[[#This Row],[ema]]-I69)*Multiplier+I69</f>
-        <v>222.8407872752291</v>
+        <v>222.87276462858023</v>
       </c>
       <c r="J70" s="12">
         <f>(testdata[[#This Row],[ema2]]-J69)*Multiplier+J69</f>
-        <v>221.74709417702994</v>
+        <v>221.88739794293446</v>
       </c>
       <c r="K70" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J69)/J69</f>
-        <v>5.1944487078160073E-2</v>
+        <v>4.6767558050754283E-2</v>
       </c>
       <c r="L70" s="18">
-        <f t="shared" si="0"/>
-        <v>5.953376573175595E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3526994225752224E-2</v>
       </c>
       <c r="P70" s="7">
         <v>69</v>
@@ -4247,19 +4646,19 @@
       </c>
       <c r="I71" s="2">
         <f>(testdata[[#This Row],[ema]]-I70)*Multiplier+I70</f>
-        <v>222.86553489751071</v>
+        <v>222.89446678863791</v>
       </c>
       <c r="J71" s="12">
         <f>(testdata[[#This Row],[ema2]]-J70)*Multiplier+J70</f>
-        <v>221.85361234088523</v>
+        <v>221.98330926157288</v>
       </c>
       <c r="K71" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J70)/J70</f>
-        <v>4.8035878102763621E-2</v>
+        <v>4.322522122824448E-2</v>
       </c>
       <c r="L71" s="18">
-        <f t="shared" si="0"/>
-        <v>5.5650820534374999E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0059464366678894E-2</v>
       </c>
       <c r="P71" s="7">
         <v>70</v>
@@ -4302,19 +4701,19 @@
       </c>
       <c r="I72" s="2">
         <f>(testdata[[#This Row],[ema]]-I71)*Multiplier+I71</f>
-        <v>222.8654254917366</v>
+        <v>222.89160196466119</v>
       </c>
       <c r="J72" s="12">
         <f>(testdata[[#This Row],[ema2]]-J71)*Multiplier+J71</f>
-        <v>221.94997549810918</v>
+        <v>222.06981332853368</v>
       </c>
       <c r="K72" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J71)/J71</f>
-        <v>4.3435469094766296E-2</v>
+        <v>3.896872573372967E-2</v>
       </c>
       <c r="L72" s="18">
-        <f t="shared" si="0"/>
-        <v>5.1672875337324134E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6472427529329841E-2</v>
       </c>
       <c r="P72" s="7">
         <v>71</v>
@@ -4357,19 +4756,19 @@
       </c>
       <c r="I73" s="2">
         <f>(testdata[[#This Row],[ema]]-I72)*Multiplier+I72</f>
-        <v>222.86274703946586</v>
+        <v>222.88643051496905</v>
       </c>
       <c r="J73" s="12">
         <f>(testdata[[#This Row],[ema2]]-J72)*Multiplier+J72</f>
-        <v>222.03690612109554</v>
+        <v>222.14758639390848</v>
       </c>
       <c r="K73" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J72)/J72</f>
-        <v>3.9166763948166691E-2</v>
+        <v>3.5021898838515572E-2</v>
       </c>
       <c r="L73" s="18">
-        <f t="shared" si="0"/>
-        <v>4.7635815108748827E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.280263187175979E-2</v>
       </c>
       <c r="P73" s="7">
         <v>72</v>
@@ -4412,19 +4811,19 @@
       </c>
       <c r="I74" s="2">
         <f>(testdata[[#This Row],[ema]]-I73)*Multiplier+I73</f>
-        <v>222.85191277772526</v>
+        <v>222.8733406841329</v>
       </c>
       <c r="J74" s="12">
         <f>(testdata[[#This Row],[ema2]]-J73)*Multiplier+J73</f>
-        <v>222.11452580267931</v>
+        <v>222.21670585012032</v>
       </c>
       <c r="K74" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J73)/J73</f>
-        <v>3.4958008981370296E-2</v>
+        <v>3.111420535052558E-2</v>
       </c>
       <c r="L74" s="18">
-        <f t="shared" si="0"/>
-        <v>4.3508121441045398E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9019521840353913E-2</v>
       </c>
       <c r="P74" s="7">
         <v>73</v>
@@ -4467,19 +4866,19 @@
       </c>
       <c r="I75" s="2">
         <f>(testdata[[#This Row],[ema]]-I74)*Multiplier+I74</f>
-        <v>222.83078166752287</v>
+        <v>222.8501688209393</v>
       </c>
       <c r="J75" s="12">
         <f>(testdata[[#This Row],[ema2]]-J74)*Multiplier+J74</f>
-        <v>222.18274064695012</v>
+        <v>222.277035656865</v>
       </c>
       <c r="K75" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J74)/J74</f>
-        <v>3.0711563786428295E-2</v>
+        <v>2.7149086975201034E-2</v>
       </c>
       <c r="L75" s="18">
-        <f t="shared" si="0"/>
-        <v>3.9261536782699044E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.509582762524327E-2</v>
       </c>
       <c r="P75" s="7">
         <v>74</v>
@@ -4522,19 +4921,19 @@
       </c>
       <c r="I76" s="2">
         <f>(testdata[[#This Row],[ema]]-I75)*Multiplier+I75</f>
-        <v>222.81783051683544</v>
+        <v>222.83537127468838</v>
       </c>
       <c r="J76" s="12">
         <f>(testdata[[#This Row],[ema2]]-J75)*Multiplier+J75</f>
-        <v>222.243225396463</v>
+        <v>222.33021047761008</v>
       </c>
       <c r="K76" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J75)/J75</f>
-        <v>2.7222973907316917E-2</v>
+        <v>2.3922768534295199E-2</v>
       </c>
       <c r="L76" s="18">
-        <f t="shared" si="0"/>
-        <v>3.5098955943609698E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1235337086453409E-2</v>
       </c>
       <c r="P76" s="7">
         <v>75</v>
@@ -4577,19 +4976,19 @@
       </c>
       <c r="I77" s="2">
         <f>(testdata[[#This Row],[ema]]-I76)*Multiplier+I76</f>
-        <v>222.80525299423792</v>
+        <v>222.82112320372391</v>
       </c>
       <c r="J77" s="12">
         <f>(testdata[[#This Row],[ema2]]-J76)*Multiplier+J76</f>
-        <v>222.29675183434634</v>
+        <v>222.37696407057331</v>
       </c>
       <c r="K77" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J76)/J76</f>
-        <v>2.4084620706817071E-2</v>
+        <v>2.102889790046595E-2</v>
       </c>
       <c r="L77" s="18">
-        <f t="shared" si="0"/>
-        <v>3.1228786266019853E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.7647371519800668E-2</v>
       </c>
       <c r="P77" s="7">
         <v>76</v>
@@ -4632,19 +5031,19 @@
       </c>
       <c r="I78" s="2">
         <f>(testdata[[#This Row],[ema]]-I77)*Multiplier+I77</f>
-        <v>222.815226922504</v>
+        <v>222.82958568346751</v>
       </c>
       <c r="J78" s="12">
         <f>(testdata[[#This Row],[ema2]]-J77)*Multiplier+J77</f>
-        <v>222.34613041417089</v>
+        <v>222.42007089084893</v>
       </c>
       <c r="K78" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J77)/J77</f>
-        <v>2.221291108263462E-2</v>
+        <v>1.9384570904540606E-2</v>
       </c>
       <c r="L78" s="18">
-        <f t="shared" si="0"/>
-        <v>2.7838015692913436E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.4519905933005671E-2</v>
       </c>
       <c r="P78" s="7">
         <v>77</v>
@@ -4687,19 +5086,19 @@
       </c>
       <c r="I79" s="2">
         <f>(testdata[[#This Row],[ema]]-I78)*Multiplier+I78</f>
-        <v>222.85545295518889</v>
+        <v>222.86844421510827</v>
       </c>
       <c r="J79" s="12">
         <f>(testdata[[#This Row],[ema2]]-J78)*Multiplier+J78</f>
-        <v>222.39463732283926</v>
+        <v>222.46277311220697</v>
       </c>
       <c r="K79" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J78)/J78</f>
-        <v>2.1815944616628575E-2</v>
+        <v>1.9198906459748987E-2</v>
       </c>
       <c r="L79" s="18">
-        <f t="shared" si="0"/>
-        <v>2.52096028199651E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2136846154850356E-2</v>
       </c>
       <c r="P79" s="7">
         <v>78</v>
@@ -4742,19 +5141,19 @@
       </c>
       <c r="I80" s="2">
         <f>(testdata[[#This Row],[ema]]-I79)*Multiplier+I79</f>
-        <v>222.91880847894964</v>
+        <v>222.93056247601956</v>
       </c>
       <c r="J80" s="12">
         <f>(testdata[[#This Row],[ema2]]-J79)*Multiplier+J79</f>
-        <v>222.44455838532596</v>
+        <v>222.50732448018911</v>
       </c>
       <c r="K80" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J79)/J79</f>
-        <v>2.244706216285032E-2</v>
+        <v>2.0026437393939334E-2</v>
       </c>
       <c r="L80" s="18">
-        <f t="shared" si="0"/>
-        <v>2.35567024952495E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0712316238598014E-2</v>
       </c>
       <c r="P80" s="7">
         <v>79</v>
@@ -4797,19 +5196,19 @@
       </c>
       <c r="I81" s="2">
         <f>(testdata[[#This Row],[ema]]-I80)*Multiplier+I80</f>
-        <v>223.00224637047307</v>
+        <v>223.01288093925061</v>
       </c>
       <c r="J81" s="12">
         <f>(testdata[[#This Row],[ema2]]-J80)*Multiplier+J80</f>
-        <v>222.49767152676856</v>
+        <v>222.55547271438544</v>
       </c>
       <c r="K81" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J80)/J80</f>
-        <v>2.387702438222377E-2</v>
+        <v>2.1638943485934422E-2</v>
       </c>
       <c r="L81" s="18">
-        <f t="shared" si="0"/>
-        <v>2.288751259023087E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0255551228925861E-2</v>
       </c>
       <c r="P81" s="7">
         <v>80</v>
@@ -4852,19 +5251,19 @@
       </c>
       <c r="I82" s="2">
         <f>(testdata[[#This Row],[ema]]-I81)*Multiplier+I81</f>
-        <v>223.09692231913081</v>
+        <v>223.10654407183429</v>
       </c>
       <c r="J82" s="12">
         <f>(testdata[[#This Row],[ema2]]-J81)*Multiplier+J81</f>
-        <v>222.55474303080305</v>
+        <v>222.60795570080916</v>
       </c>
       <c r="K82" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J81)/J81</f>
-        <v>2.5650382605298509E-2</v>
+        <v>2.3581979712116775E-2</v>
       </c>
       <c r="L82" s="18">
-        <f t="shared" si="0"/>
-        <v>2.3200664969927159E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0766167591256025E-2</v>
       </c>
       <c r="P82" s="7">
         <v>81</v>
@@ -4907,19 +5306,19 @@
       </c>
       <c r="I83" s="2">
         <f>(testdata[[#This Row],[ema]]-I82)*Multiplier+I82</f>
-        <v>223.20510900436648</v>
+        <v>223.21381439966962</v>
       </c>
       <c r="J83" s="12">
         <f>(testdata[[#This Row],[ema2]]-J82)*Multiplier+J82</f>
-        <v>222.61668264733291</v>
+        <v>222.66565652927207</v>
       </c>
       <c r="K83" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J82)/J82</f>
-        <v>2.7831182425657179E-2</v>
+        <v>2.5920380195425013E-2</v>
       </c>
       <c r="L83" s="18">
-        <f t="shared" si="0"/>
-        <v>2.4324319238531671E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.2073329449432907E-2</v>
       </c>
       <c r="P83" s="7">
         <v>82</v>
@@ -4962,19 +5361,19 @@
       </c>
       <c r="I84" s="2">
         <f>(testdata[[#This Row],[ema]]-I83)*Multiplier+I83</f>
-        <v>223.32409983736559</v>
+        <v>223.33197614740175</v>
       </c>
       <c r="J84" s="12">
         <f>(testdata[[#This Row],[ema2]]-J83)*Multiplier+J83</f>
-        <v>222.6840557130503</v>
+        <v>222.72911554052251</v>
       </c>
       <c r="K84" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J83)/J83</f>
-        <v>3.0264158515075114E-2</v>
+        <v>2.8499685240908096E-2</v>
       </c>
       <c r="L84" s="18">
-        <f t="shared" si="0"/>
-        <v>2.6013962018220975E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3933485205664729E-2</v>
       </c>
       <c r="P84" s="7">
         <v>83</v>
@@ -5017,19 +5416,19 @@
       </c>
       <c r="I85" s="2">
         <f>(testdata[[#This Row],[ema]]-I84)*Multiplier+I84</f>
-        <v>223.44840662050214</v>
+        <v>223.45553280577295</v>
       </c>
       <c r="J85" s="12">
         <f>(testdata[[#This Row],[ema2]]-J84)*Multiplier+J84</f>
-        <v>222.75685103756953</v>
+        <v>222.79829813721304</v>
       </c>
       <c r="K85" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J84)/J84</f>
-        <v>3.2689958105055178E-2</v>
+        <v>3.1061317027471134E-2</v>
       </c>
       <c r="L85" s="18">
-        <f t="shared" si="0"/>
-        <v>2.8062541206661951E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.614046113237109E-2</v>
       </c>
       <c r="P85" s="7">
         <v>84</v>
@@ -5072,19 +5471,19 @@
       </c>
       <c r="I86" s="2">
         <f>(testdata[[#This Row],[ema]]-I85)*Multiplier+I85</f>
-        <v>223.57829578655719</v>
+        <v>223.58474328751652</v>
       </c>
       <c r="J86" s="12">
         <f>(testdata[[#This Row],[ema2]]-J85)*Multiplier+J85</f>
-        <v>222.83508387080644</v>
+        <v>222.87319767533717</v>
       </c>
       <c r="K86" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J85)/J85</f>
-        <v>3.5120281541291813E-2</v>
+        <v>3.3617643738912607E-2</v>
       </c>
       <c r="L86" s="18">
-        <f t="shared" si="0"/>
-        <v>3.0311192638475558E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.8536201182966726E-2</v>
       </c>
       <c r="P86" s="7">
         <v>85</v>
@@ -5127,19 +5526,19 @@
       </c>
       <c r="I87" s="2">
         <f>(testdata[[#This Row],[ema]]-I86)*Multiplier+I86</f>
-        <v>223.71964908769019</v>
+        <v>223.72548254093908</v>
       </c>
       <c r="J87" s="12">
         <f>(testdata[[#This Row],[ema2]]-J86)*Multiplier+J86</f>
-        <v>222.91932817717631</v>
+        <v>222.95436766253735</v>
       </c>
       <c r="K87" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J86)/J86</f>
-        <v>3.7805674450577371E-2</v>
+        <v>3.6419806440084128E-2</v>
       </c>
       <c r="L87" s="18">
-        <f t="shared" si="0"/>
-        <v>3.274225100753133E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1103766528560194E-2</v>
       </c>
       <c r="P87" s="7">
         <v>86</v>
@@ -5182,19 +5581,19 @@
       </c>
       <c r="I88" s="2">
         <f>(testdata[[#This Row],[ema]]-I87)*Multiplier+I87</f>
-        <v>223.86883263725537</v>
+        <v>223.8741105235282</v>
       </c>
       <c r="J88" s="12">
         <f>(testdata[[#This Row],[ema2]]-J87)*Multiplier+J87</f>
-        <v>223.00975717337431</v>
+        <v>223.04196222072696</v>
       </c>
       <c r="K88" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J87)/J87</f>
-        <v>4.0565794333511915E-2</v>
+        <v>3.9288110436208314E-2</v>
       </c>
       <c r="L88" s="18">
-        <f t="shared" si="0"/>
-        <v>3.5289173389102278E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3777312576716859E-2</v>
       </c>
       <c r="P88" s="7">
         <v>87</v>
@@ -5237,19 +5636,19 @@
       </c>
       <c r="I89" s="2">
         <f>(testdata[[#This Row],[ema]]-I88)*Multiplier+I88</f>
-        <v>224.0211680813461</v>
+        <v>224.02594331178344</v>
       </c>
       <c r="J89" s="12">
         <f>(testdata[[#This Row],[ema2]]-J88)*Multiplier+J88</f>
-        <v>223.10608202175257</v>
+        <v>223.13567470558948</v>
       </c>
       <c r="K89" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J88)/J88</f>
-        <v>4.31931093953766E-2</v>
+        <v>4.2015629673210049E-2</v>
       </c>
       <c r="L89" s="18">
-        <f t="shared" si="0"/>
-        <v>3.7874963565162574E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6480501463177245E-2</v>
       </c>
       <c r="P89" s="7">
         <v>88</v>
@@ -5292,19 +5691,19 @@
       </c>
       <c r="I90" s="2">
         <f>(testdata[[#This Row],[ema]]-I89)*Multiplier+I89</f>
-        <v>224.17842074119048</v>
+        <v>224.18274118777663</v>
       </c>
       <c r="J90" s="12">
         <f>(testdata[[#This Row],[ema2]]-J89)*Multiplier+J89</f>
-        <v>223.2082095188419</v>
+        <v>223.23539532294063</v>
       </c>
       <c r="K90" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J89)/J89</f>
-        <v>4.5775308393148167E-2</v>
+        <v>4.4690575580407142E-2</v>
       </c>
       <c r="L90" s="18">
-        <f t="shared" si="0"/>
-        <v>4.0492033622781171E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.9206353173764447E-2</v>
       </c>
       <c r="P90" s="7">
         <v>89</v>
@@ -5347,19 +5746,19 @@
       </c>
       <c r="I91" s="2">
         <f>(testdata[[#This Row],[ema]]-I90)*Multiplier+I90</f>
-        <v>224.33400923833119</v>
+        <v>224.33791821381391</v>
       </c>
       <c r="J91" s="12">
         <f>(testdata[[#This Row],[ema2]]-J90)*Multiplier+J90</f>
-        <v>223.31542853974565</v>
+        <v>223.34039750302381</v>
       </c>
       <c r="K91" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J90)/J90</f>
-        <v>4.8035428954375001E-2</v>
+        <v>4.7036528383536884E-2</v>
       </c>
       <c r="L91" s="18">
-        <f t="shared" si="0"/>
-        <v>4.3075063105397812E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1890130102689306E-2</v>
       </c>
       <c r="P91" s="7">
         <v>90</v>
@@ -5402,19 +5801,19 @@
       </c>
       <c r="I92" s="2">
         <f>(testdata[[#This Row],[ema]]-I91)*Multiplier+I91</f>
-        <v>224.48337751614179</v>
+        <v>224.4869142082452</v>
       </c>
       <c r="J92" s="12">
         <f>(testdata[[#This Row],[ema2]]-J91)*Multiplier+J91</f>
-        <v>223.42666177559289</v>
+        <v>223.44958957018775</v>
       </c>
       <c r="K92" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J91)/J91</f>
-        <v>4.9809919795774406E-2</v>
+        <v>4.8890423937956562E-2</v>
       </c>
       <c r="L92" s="18">
-        <f t="shared" si="0"/>
-        <v>4.5475912174437222E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4384253602263793E-2</v>
       </c>
       <c r="P92" s="7">
         <v>91</v>
@@ -5457,19 +5856,19 @@
       </c>
       <c r="I93" s="2">
         <f>(testdata[[#This Row],[ema]]-I92)*Multiplier+I92</f>
-        <v>224.63763701325075</v>
+        <v>224.64083687753481</v>
       </c>
       <c r="J93" s="12">
         <f>(testdata[[#This Row],[ema2]]-J92)*Multiplier+J92</f>
-        <v>223.54199275060793</v>
+        <v>223.56304169469701</v>
       </c>
       <c r="K93" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J92)/J92</f>
-        <v>5.1619164023888241E-2</v>
+        <v>5.0773028819377182E-2</v>
       </c>
       <c r="L93" s="18">
-        <f t="shared" si="0"/>
-        <v>4.7686586112512488E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6681237278897565E-2</v>
       </c>
       <c r="P93" s="7">
         <v>92</v>
@@ -5512,19 +5911,19 @@
       </c>
       <c r="I94" s="2">
         <f>(testdata[[#This Row],[ema]]-I93)*Multiplier+I93</f>
-        <v>224.7925964926234</v>
+        <v>224.79549160792803</v>
       </c>
       <c r="J94" s="12">
         <f>(testdata[[#This Row],[ema2]]-J93)*Multiplier+J93</f>
-        <v>223.66109786889513</v>
+        <v>223.68041787690947</v>
       </c>
       <c r="K94" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J93)/J93</f>
-        <v>5.3280869881155962E-2</v>
+        <v>5.2502498321148797E-2</v>
       </c>
       <c r="L94" s="18">
-        <f t="shared" si="0"/>
-        <v>4.9704138209668361E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8778611008485309E-2</v>
       </c>
       <c r="P94" s="7">
         <v>93</v>
@@ -5567,19 +5966,19 @@
       </c>
       <c r="I95" s="2">
         <f>(testdata[[#This Row],[ema]]-I94)*Multiplier+I94</f>
-        <v>224.91007945426293</v>
+        <v>224.91269884430045</v>
       </c>
       <c r="J95" s="12">
         <f>(testdata[[#This Row],[ema2]]-J94)*Multiplier+J94</f>
-        <v>223.78004849607302</v>
+        <v>223.79777796904196</v>
       </c>
       <c r="K95" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J94)/J94</f>
-        <v>5.3183422737029279E-2</v>
+        <v>5.2467754328440613E-2</v>
       </c>
       <c r="L95" s="18">
-        <f t="shared" si="0"/>
-        <v>5.118576107844458E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0334046758092013E-2</v>
       </c>
       <c r="P95" s="7">
         <v>94</v>
@@ -5622,19 +6021,19 @@
       </c>
       <c r="I96" s="2">
         <f>(testdata[[#This Row],[ema]]-I95)*Multiplier+I95</f>
-        <v>225.00398201964799</v>
+        <v>225.00635194396767</v>
       </c>
       <c r="J96" s="12">
         <f>(testdata[[#This Row],[ema2]]-J95)*Multiplier+J95</f>
-        <v>223.89661359355634</v>
+        <v>223.91288025236821</v>
       </c>
       <c r="K96" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J95)/J95</f>
-        <v>5.2089137645066931E-2</v>
+        <v>5.1431378975609739E-2</v>
       </c>
       <c r="L96" s="18">
-        <f t="shared" si="0"/>
-        <v>5.1996502816582968E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1213016876506576E-2</v>
       </c>
       <c r="P96" s="7">
         <v>95</v>
@@ -5677,19 +6076,19 @@
       </c>
       <c r="I97" s="2">
         <f>(testdata[[#This Row],[ema]]-I96)*Multiplier+I96</f>
-        <v>225.09097271811834</v>
+        <v>225.09311693535994</v>
       </c>
       <c r="J97" s="12">
         <f>(testdata[[#This Row],[ema2]]-J96)*Multiplier+J96</f>
-        <v>224.01036208160986</v>
+        <v>224.02528374598648</v>
       </c>
       <c r="K97" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J96)/J96</f>
-        <v>5.0804023440929137E-2</v>
+        <v>5.0199655103174888E-2</v>
       </c>
       <c r="L97" s="18">
-        <f t="shared" si="0"/>
-        <v>5.2195323545613917E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.147486310955024E-2</v>
       </c>
       <c r="P97" s="7">
         <v>96</v>
@@ -5732,19 +6131,19 @@
       </c>
       <c r="I98" s="2">
         <f>(testdata[[#This Row],[ema]]-I97)*Multiplier+I97</f>
-        <v>225.18194721080613</v>
+        <v>225.18388721688189</v>
       </c>
       <c r="J98" s="12">
         <f>(testdata[[#This Row],[ema2]]-J97)*Multiplier+J97</f>
-        <v>224.12194161772379</v>
+        <v>224.13562693369082</v>
       </c>
       <c r="K98" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J97)/J97</f>
-        <v>4.9809988733149034E-2</v>
+        <v>4.9254792074917952E-2</v>
       </c>
       <c r="L98" s="18">
-        <f t="shared" si="0"/>
-        <v>5.1833488487466065E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1171215760658396E-2</v>
       </c>
       <c r="P98" s="7">
         <v>97</v>
@@ -5787,19 +6186,19 @@
       </c>
       <c r="I99" s="2">
         <f>(testdata[[#This Row],[ema]]-I98)*Multiplier+I98</f>
-        <v>225.27998349882671</v>
+        <v>225.28173874241904</v>
       </c>
       <c r="J99" s="12">
         <f>(testdata[[#This Row],[ema2]]-J98)*Multiplier+J98</f>
-        <v>224.23223132068597</v>
+        <v>224.24478043928397</v>
       </c>
       <c r="K99" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J98)/J98</f>
-        <v>4.9209685658664397E-2</v>
+        <v>4.869975696699403E-2</v>
       </c>
       <c r="L99" s="18">
-        <f t="shared" si="0"/>
-        <v>5.1019251642967757E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0410667489827442E-2</v>
       </c>
       <c r="P99" s="7">
         <v>98</v>
@@ -5842,19 +6241,19 @@
       </c>
       <c r="I100" s="2">
         <f>(testdata[[#This Row],[ema]]-I99)*Multiplier+I99</f>
-        <v>225.38771856907641</v>
+        <v>225.38930664661231</v>
       </c>
       <c r="J100" s="12">
         <f>(testdata[[#This Row],[ema2]]-J99)*Multiplier+J99</f>
-        <v>224.34227772529459</v>
+        <v>224.35378293522001</v>
       </c>
       <c r="K100" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J99)/J99</f>
-        <v>4.9076978791350243E-2</v>
+        <v>4.8608710411234053E-2</v>
       </c>
       <c r="L100" s="18">
-        <f t="shared" si="0"/>
-        <v>5.0197962853831948E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9638858706386131E-2</v>
       </c>
       <c r="P100" s="7">
         <v>99</v>
@@ -5897,19 +6296,19 @@
       </c>
       <c r="I101" s="2">
         <f>(testdata[[#This Row],[ema]]-I100)*Multiplier+I100</f>
-        <v>225.51230243774725</v>
+        <v>225.51373926980352</v>
       </c>
       <c r="J101" s="12">
         <f>(testdata[[#This Row],[ema2]]-J100)*Multiplier+J100</f>
-        <v>224.45370865029008</v>
+        <v>224.46425496708511</v>
       </c>
       <c r="K101" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J100)/J100</f>
-        <v>4.9670051550396971E-2</v>
+        <v>4.9240102136810501E-2</v>
       </c>
       <c r="L101" s="18">
-        <f t="shared" si="0"/>
-        <v>4.9714145634897962E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9200603338626282E-2</v>
       </c>
       <c r="P101" s="7">
         <v>100</v>
@@ -5952,19 +6351,19 @@
       </c>
       <c r="I102" s="2">
         <f>(testdata[[#This Row],[ema]]-I101)*Multiplier+I101</f>
-        <v>225.64909510631682</v>
+        <v>225.65039509722487</v>
       </c>
       <c r="J102" s="12">
         <f>(testdata[[#This Row],[ema2]]-J101)*Multiplier+J101</f>
-        <v>224.5675549794355</v>
+        <v>224.5772206937651</v>
       </c>
       <c r="K102" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J101)/J101</f>
-        <v>5.0721518405737478E-2</v>
+        <v>5.032682228025713E-2</v>
       </c>
       <c r="L102" s="18">
-        <f t="shared" si="0"/>
-        <v>4.9697644627859625E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9226036774042733E-2</v>
       </c>
       <c r="P102" s="7">
         <v>101</v>
@@ -6007,19 +6406,19 @@
       </c>
       <c r="I103" s="2">
         <f>(testdata[[#This Row],[ema]]-I102)*Multiplier+I102</f>
-        <v>225.79282701771896</v>
+        <v>225.7940031999691</v>
       </c>
       <c r="J103" s="12">
         <f>(testdata[[#This Row],[ema2]]-J102)*Multiplier+J102</f>
-        <v>224.68424755451011</v>
+        <v>224.69310474197499</v>
       </c>
       <c r="K103" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J102)/J102</f>
-        <v>5.1963238894993012E-2</v>
+        <v>5.1600980656855047E-2</v>
       </c>
       <c r="L103" s="18">
-        <f t="shared" si="0"/>
-        <v>5.012829466022841E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9695274490430152E-2</v>
       </c>
       <c r="P103" s="7">
         <v>102</v>
@@ -6062,19 +6461,19 @@
       </c>
       <c r="I104" s="2">
         <f>(testdata[[#This Row],[ema]]-I103)*Multiplier+I103</f>
-        <v>225.94039144389879</v>
+        <v>225.94145560879176</v>
       </c>
       <c r="J104" s="12">
         <f>(testdata[[#This Row],[ema2]]-J103)*Multiplier+J103</f>
-        <v>224.80388030588045</v>
+        <v>224.81199530071945</v>
       </c>
       <c r="K104" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J103)/J103</f>
-        <v>5.3244832547205051E-2</v>
+        <v>5.2912419756263117E-2</v>
       </c>
       <c r="L104" s="18">
-        <f t="shared" si="0"/>
-        <v>5.0935324037936547E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0537807048283964E-2</v>
       </c>
       <c r="P104" s="7">
         <v>103</v>
@@ -6117,19 +6516,19 @@
       </c>
       <c r="I105" s="2">
         <f>(testdata[[#This Row],[ema]]-I104)*Multiplier+I104</f>
-        <v>226.10635333069089</v>
+        <v>226.10731614654642</v>
       </c>
       <c r="J105" s="12">
         <f>(testdata[[#This Row],[ema2]]-J104)*Multiplier+J104</f>
-        <v>224.92792535586241</v>
+        <v>224.93535919079821</v>
       </c>
       <c r="K105" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J104)/J104</f>
-        <v>5.5179229919508632E-2</v>
+        <v>5.48742472187689E-2</v>
       </c>
       <c r="L105" s="18">
-        <f t="shared" si="0"/>
-        <v>5.2155774263568232E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1790914409790945E-2</v>
       </c>
       <c r="P105" s="7">
         <v>104</v>
@@ -6172,19 +6571,19 @@
       </c>
       <c r="I106" s="2">
         <f>(testdata[[#This Row],[ema]]-I105)*Multiplier+I105</f>
-        <v>226.29285407402239</v>
+        <v>226.29372519312977</v>
       </c>
       <c r="J106" s="12">
         <f>(testdata[[#This Row],[ema2]]-J105)*Multiplier+J105</f>
-        <v>225.05791856711573</v>
+        <v>225.06472738149645</v>
       </c>
       <c r="K106" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J105)/J105</f>
-        <v>5.7793273577594589E-2</v>
+        <v>5.751349683911168E-2</v>
       </c>
       <c r="L106" s="18">
-        <f t="shared" si="0"/>
-        <v>5.3780418669007755E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.3445593350251175E-2</v>
       </c>
       <c r="P106" s="7">
         <v>105</v>
@@ -6227,19 +6626,19 @@
       </c>
       <c r="I107" s="2">
         <f>(testdata[[#This Row],[ema]]-I106)*Multiplier+I106</f>
-        <v>226.49284353444546</v>
+        <v>226.49363168982833</v>
       </c>
       <c r="J107" s="12">
         <f>(testdata[[#This Row],[ema2]]-J106)*Multiplier+J106</f>
-        <v>225.1945780878138</v>
+        <v>225.20081350609948</v>
       </c>
       <c r="K107" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J106)/J106</f>
-        <v>6.0721933966214371E-2</v>
+        <v>6.0465327546573883E-2</v>
       </c>
       <c r="L107" s="18">
-        <f t="shared" si="0"/>
-        <v>5.578050178110313E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.547329440351452E-2</v>
       </c>
       <c r="P107" s="7">
         <v>106</v>
@@ -6282,19 +6681,19 @@
       </c>
       <c r="I108" s="2">
         <f>(testdata[[#This Row],[ema]]-I107)*Multiplier+I107</f>
-        <v>226.69534879765396</v>
+        <v>226.69606189061943</v>
       </c>
       <c r="J108" s="12">
         <f>(testdata[[#This Row],[ema2]]-J107)*Multiplier+J107</f>
-        <v>225.3375086316081</v>
+        <v>225.34321811414901</v>
       </c>
       <c r="K108" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J107)/J107</f>
-        <v>6.3469797988907131E-2</v>
+        <v>6.3234499837041935E-2</v>
       </c>
       <c r="L108" s="18">
-        <f t="shared" si="0"/>
-        <v>5.8081813599885956E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.7799998239551911E-2</v>
       </c>
       <c r="P108" s="7">
         <v>107</v>
@@ -6337,19 +6736,19 @@
       </c>
       <c r="I109" s="2">
         <f>(testdata[[#This Row],[ema]]-I108)*Multiplier+I108</f>
-        <v>226.90197692651486</v>
+        <v>226.90262210586457</v>
       </c>
       <c r="J109" s="12">
         <f>(testdata[[#This Row],[ema2]]-J108)*Multiplier+J108</f>
-        <v>225.4865056120754</v>
+        <v>225.49173278002669</v>
       </c>
       <c r="K109" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J108)/J108</f>
-        <v>6.6121695128390418E-2</v>
+        <v>6.5905984267275841E-2</v>
       </c>
       <c r="L109" s="18">
-        <f t="shared" si="0"/>
-        <v>6.065718611612303E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.0398711141754449E-2</v>
       </c>
       <c r="P109" s="7">
         <v>108</v>
@@ -6392,19 +6791,19 @@
       </c>
       <c r="I110" s="2">
         <f>(testdata[[#This Row],[ema]]-I109)*Multiplier+I109</f>
-        <v>227.11119426622625</v>
+        <v>227.11177799992359</v>
       </c>
       <c r="J110" s="12">
         <f>(testdata[[#This Row],[ema2]]-J109)*Multiplier+J109</f>
-        <v>225.64123786485169</v>
+        <v>225.64602280096926</v>
       </c>
       <c r="K110" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J109)/J109</f>
-        <v>6.8621513449893173E-2</v>
+        <v>6.8423803853191495E-2</v>
       </c>
       <c r="L110" s="18">
-        <f t="shared" si="0"/>
-        <v>6.3345642822199927E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.3108622468638978E-2</v>
       </c>
       <c r="P110" s="7">
         <v>109</v>
@@ -6447,19 +6846,19 @@
       </c>
       <c r="I111" s="2">
         <f>(testdata[[#This Row],[ema]]-I110)*Multiplier+I110</f>
-        <v>227.31736814960698</v>
+        <v>227.31789628961886</v>
       </c>
       <c r="J111" s="12">
         <f>(testdata[[#This Row],[ema2]]-J110)*Multiplier+J110</f>
-        <v>225.80086932054266</v>
+        <v>225.80524884750733</v>
       </c>
       <c r="K111" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J110)/J110</f>
-        <v>7.0745692233164389E-2</v>
+        <v>7.05645260490637E-2</v>
       </c>
       <c r="L111" s="18">
-        <f t="shared" si="0"/>
-        <v>6.5936126553313906E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5718828310629376E-2</v>
       </c>
       <c r="P111" s="7">
         <v>110</v>
@@ -6502,19 +6901,19 @@
       </c>
       <c r="I112" s="2">
         <f>(testdata[[#This Row],[ema]]-I111)*Multiplier+I111</f>
-        <v>227.51881780788821</v>
+        <v>227.51929564885134</v>
       </c>
       <c r="J112" s="12">
         <f>(testdata[[#This Row],[ema2]]-J111)*Multiplier+J111</f>
-        <v>225.96448346219461</v>
+        <v>225.96849140001629</v>
       </c>
       <c r="K112" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J111)/J111</f>
-        <v>7.2459482615934628E-2</v>
+        <v>7.2293515470583186E-2</v>
       </c>
       <c r="L112" s="18">
-        <f t="shared" si="0"/>
-        <v>6.8283636283257954E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.8084465895431226E-2</v>
       </c>
       <c r="P112" s="7">
         <v>111</v>
@@ -6557,19 +6956,19 @@
       </c>
       <c r="I113" s="2">
         <f>(testdata[[#This Row],[ema]]-I112)*Multiplier+I112</f>
-        <v>227.72482246867725</v>
+        <v>227.72525480097724</v>
       </c>
       <c r="J113" s="12">
         <f>(testdata[[#This Row],[ema2]]-J112)*Multiplier+J112</f>
-        <v>226.13213479614532</v>
+        <v>226.1358022001078</v>
       </c>
       <c r="K113" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J112)/J112</f>
-        <v>7.4193665916867199E-2</v>
+        <v>7.404165025615668E-2</v>
       </c>
       <c r="L113" s="18">
-        <f t="shared" si="0"/>
-        <v>7.0428409868849962E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.024589597925418E-2</v>
       </c>
       <c r="P113" s="7">
         <v>112</v>
@@ -6612,19 +7011,19 @@
       </c>
       <c r="I114" s="2">
         <f>(testdata[[#This Row],[ema]]-I113)*Multiplier+I113</f>
-        <v>227.92996621622856</v>
+        <v>227.9303573740238</v>
       </c>
       <c r="J114" s="12">
         <f>(testdata[[#This Row],[ema2]]-J113)*Multiplier+J113</f>
-        <v>226.30335683615326</v>
+        <v>226.30671221667123</v>
       </c>
       <c r="K114" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J113)/J113</f>
-        <v>7.571769494958655E-2</v>
+        <v>7.5578486423033081E-2</v>
       </c>
       <c r="L114" s="18">
-        <f t="shared" si="0"/>
-        <v>7.2347609833089188E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2180396410405634E-2</v>
       </c>
       <c r="P114" s="7">
         <v>113</v>
@@ -6667,19 +7066,19 @@
       </c>
       <c r="I115" s="2">
         <f>(testdata[[#This Row],[ema]]-I114)*Multiplier+I114</f>
-        <v>228.12855358131046</v>
+        <v>228.12890748598235</v>
       </c>
       <c r="J115" s="12">
         <f>(testdata[[#This Row],[ema2]]-J114)*Multiplier+J114</f>
-        <v>226.47718509759679</v>
+        <v>226.48025462327229</v>
       </c>
       <c r="K115" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J114)/J114</f>
-        <v>7.6812056115184393E-2</v>
+        <v>7.6684604226367151E-2</v>
       </c>
       <c r="L115" s="18">
-        <f t="shared" si="0"/>
-        <v>7.3985718366147424E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3832556485040751E-2</v>
       </c>
       <c r="P115" s="7">
         <v>114</v>
@@ -6722,19 +7121,19 @@
       </c>
       <c r="I116" s="2">
         <f>(testdata[[#This Row],[ema]]-I115)*Multiplier+I115</f>
-        <v>228.32042619915472</v>
+        <v>228.32074639861978</v>
       </c>
       <c r="J116" s="12">
         <f>(testdata[[#This Row],[ema2]]-J115)*Multiplier+J115</f>
-        <v>226.65273186917372</v>
+        <v>226.65553955425776</v>
       </c>
       <c r="K116" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J115)/J115</f>
-        <v>7.7511901033776823E-2</v>
+        <v>7.7395237512885573E-2</v>
       </c>
       <c r="L116" s="18">
-        <f t="shared" si="0"/>
-        <v>7.5338960126269922E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5198698777805134E-2</v>
       </c>
       <c r="P116" s="7">
         <v>115</v>
@@ -6777,19 +7176,19 @@
       </c>
       <c r="I117" s="2">
         <f>(testdata[[#This Row],[ema]]-I116)*Multiplier+I116</f>
-        <v>228.52247678927981</v>
+        <v>228.52276649355773</v>
       </c>
       <c r="J117" s="12">
         <f>(testdata[[#This Row],[ema2]]-J116)*Multiplier+J116</f>
-        <v>226.83080281394572</v>
+        <v>226.83337069133395</v>
       </c>
       <c r="K117" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J116)/J116</f>
-        <v>7.8565540906335593E-2</v>
+        <v>7.8458764972575021E-2</v>
       </c>
       <c r="L117" s="18">
-        <f t="shared" si="0"/>
-        <v>7.6560171784350109E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.6431748678203501E-2</v>
       </c>
       <c r="P117" s="7">
         <v>116</v>
@@ -6832,19 +7231,19 @@
       </c>
       <c r="I118" s="2">
         <f>(testdata[[#This Row],[ema]]-I117)*Multiplier+I117</f>
-        <v>228.71678598628216</v>
+        <v>228.71704809967648</v>
       </c>
       <c r="J118" s="12">
         <f>(testdata[[#This Row],[ema2]]-J117)*Multiplier+J117</f>
-        <v>227.01042025893014</v>
+        <v>227.01276853974753</v>
       </c>
       <c r="K118" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J117)/J117</f>
-        <v>7.9185649724893933E-2</v>
+        <v>7.9087943659616869E-2</v>
       </c>
       <c r="L118" s="18">
-        <f t="shared" si="0"/>
-        <v>7.755856854595547E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7441007358895544E-2</v>
       </c>
       <c r="P118" s="7">
         <v>117</v>
@@ -6887,19 +7286,19 @@
       </c>
       <c r="I119" s="2">
         <f>(testdata[[#This Row],[ema]]-I118)*Multiplier+I118</f>
-        <v>228.90245146513186</v>
+        <v>228.90268861534577</v>
       </c>
       <c r="J119" s="12">
         <f>(testdata[[#This Row],[ema2]]-J118)*Multiplier+J118</f>
-        <v>227.19061370713982</v>
+        <v>227.19276092789974</v>
       </c>
       <c r="K119" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J118)/J118</f>
-        <v>7.937672993343127E-2</v>
+        <v>7.9287341108612575E-2</v>
       </c>
       <c r="L119" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8290375542724402E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8182778296011432E-2</v>
       </c>
       <c r="P119" s="7">
         <v>118</v>
@@ -6942,19 +7341,19 @@
       </c>
       <c r="I120" s="2">
         <f>(testdata[[#This Row],[ema]]-I119)*Multiplier+I119</f>
-        <v>229.07845017715957</v>
+        <v>229.07866474163882</v>
       </c>
       <c r="J120" s="12">
         <f>(testdata[[#This Row],[ema2]]-J119)*Multiplier+J119</f>
-        <v>227.37040765666552</v>
+        <v>227.3723708149225</v>
       </c>
       <c r="K120" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J119)/J119</f>
-        <v>7.9137930300882092E-2</v>
+        <v>7.9056166353717372E-2</v>
       </c>
       <c r="L120" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8755550379863953E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8657090721481485E-2</v>
       </c>
       <c r="P120" s="7">
         <v>119</v>
@@ -6997,19 +7396,19 @@
       </c>
       <c r="I121" s="2">
         <f>(testdata[[#This Row],[ema]]-I120)*Multiplier+I120</f>
-        <v>229.2473883502511</v>
+        <v>229.24758248001802</v>
       </c>
       <c r="J121" s="12">
         <f>(testdata[[#This Row],[ema2]]-J120)*Multiplier+J120</f>
-        <v>227.54916772272128</v>
+        <v>227.55096240207445</v>
       </c>
       <c r="K121" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J120)/J120</f>
-        <v>7.8620638410294111E-2</v>
+        <v>7.8545861360311373E-2</v>
       </c>
       <c r="L121" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8977297855167411E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8887215490966639E-2</v>
       </c>
       <c r="P121" s="7">
         <v>120</v>
@@ -7052,19 +7451,19 @@
       </c>
       <c r="I122" s="2">
         <f>(testdata[[#This Row],[ema]]-I121)*Multiplier+I121</f>
-        <v>229.41046573593144</v>
+        <v>229.41064137714915</v>
       </c>
       <c r="J122" s="12">
         <f>(testdata[[#This Row],[ema2]]-J121)*Multiplier+J121</f>
-        <v>227.72643420016988</v>
+        <v>227.7280746854149</v>
       </c>
       <c r="K122" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J121)/J121</f>
-        <v>7.7902494314813095E-2</v>
+        <v>7.7834117452554627E-2</v>
       </c>
       <c r="L122" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8844688536862911E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8762285986962569E-2</v>
       </c>
       <c r="P122" s="7">
         <v>121</v>
@@ -7107,19 +7506,19 @@
       </c>
       <c r="I123" s="2">
         <f>(testdata[[#This Row],[ema]]-I122)*Multiplier+I122</f>
-        <v>229.55030490438241</v>
+        <v>229.55046381786511</v>
       </c>
       <c r="J123" s="12">
         <f>(testdata[[#This Row],[ema2]]-J122)*Multiplier+J122</f>
-        <v>227.90013617199963</v>
+        <v>227.90163555517205</v>
       </c>
       <c r="K123" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J122)/J122</f>
-        <v>7.6276595837387356E-2</v>
+        <v>7.621408559173555E-2</v>
       </c>
       <c r="L123" s="18">
-        <f t="shared" si="0"/>
-        <v>7.8262877759361582E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.8187514373386308E-2</v>
       </c>
       <c r="P123" s="7">
         <v>122</v>
@@ -7162,19 +7561,19 @@
       </c>
       <c r="I124" s="2">
         <f>(testdata[[#This Row],[ema]]-I123)*Multiplier+I123</f>
-        <v>229.68853782999074</v>
+        <v>229.68868160885603</v>
       </c>
       <c r="J124" s="12">
         <f>(testdata[[#This Row],[ema2]]-J123)*Multiplier+J123</f>
-        <v>228.07046013942735</v>
+        <v>228.07183041742766</v>
       </c>
       <c r="K124" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J123)/J123</f>
-        <v>7.4736228897719442E-2</v>
+        <v>7.4679087686674847E-2</v>
       </c>
       <c r="L124" s="18">
-        <f t="shared" si="0"/>
-        <v>7.7334777552219222E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.7265863688998765E-2</v>
       </c>
       <c r="P124" s="7">
         <v>123</v>
@@ -7217,19 +7616,19 @@
       </c>
       <c r="I125" s="2">
         <f>(testdata[[#This Row],[ema]]-I124)*Multiplier+I124</f>
-        <v>229.80569867993324</v>
+        <v>229.80582876557327</v>
       </c>
       <c r="J125" s="12">
         <f>(testdata[[#This Row],[ema2]]-J124)*Multiplier+J124</f>
-        <v>228.23572095280886</v>
+        <v>228.23697311725104</v>
       </c>
       <c r="K125" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J124)/J124</f>
-        <v>7.2460420030054859E-2</v>
+        <v>7.2408196804105762E-2</v>
       </c>
       <c r="L125" s="18">
-        <f t="shared" si="0"/>
-        <v>7.599927549805377E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5936269779076443E-2</v>
       </c>
       <c r="P125" s="7">
         <v>124</v>
@@ -7272,19 +7671,19 @@
       </c>
       <c r="I126" s="2">
         <f>(testdata[[#This Row],[ema]]-I125)*Multiplier+I125</f>
-        <v>229.90844759628135</v>
+        <v>229.9085652928128</v>
       </c>
       <c r="J126" s="12">
         <f>(testdata[[#This Row],[ema2]]-J125)*Multiplier+J125</f>
-        <v>228.39502825218719</v>
+        <v>228.39617237206645</v>
       </c>
       <c r="K126" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J125)/J125</f>
-        <v>6.9799459398060579E-2</v>
+        <v>6.9751737696600397E-2</v>
       </c>
       <c r="L126" s="18">
-        <f t="shared" si="0"/>
-        <v>7.4235039695607061E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.4177445046334237E-2</v>
       </c>
       <c r="P126" s="7">
         <v>125</v>
@@ -7327,19 +7726,19 @@
       </c>
       <c r="I127" s="2">
         <f>(testdata[[#This Row],[ema]]-I126)*Multiplier+I126</f>
-        <v>230.0020044407633</v>
+        <v>230.00211092810127</v>
       </c>
       <c r="J127" s="12">
         <f>(testdata[[#This Row],[ema2]]-J126)*Multiplier+J126</f>
-        <v>228.54807360348016</v>
+        <v>228.54911890121261</v>
       </c>
       <c r="K127" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J126)/J126</f>
-        <v>6.7009055522866137E-2</v>
+        <v>6.6965451985336849E-2</v>
       </c>
       <c r="L127" s="18">
-        <f t="shared" si="0"/>
-        <v>7.2056351937217683E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2003711952890681E-2</v>
       </c>
       <c r="P127" s="7">
         <v>126</v>
@@ -7382,19 +7781,19 @@
       </c>
       <c r="I128" s="2">
         <f>(testdata[[#This Row],[ema]]-I127)*Multiplier+I127</f>
-        <v>230.09199537748648</v>
+        <v>230.09209172317324</v>
       </c>
       <c r="J128" s="12">
         <f>(testdata[[#This Row],[ema2]]-J127)*Multiplier+J127</f>
-        <v>228.69511377243313</v>
+        <v>228.69606869378029</v>
       </c>
       <c r="K128" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J127)/J127</f>
-        <v>6.4336647705933864E-2</v>
+        <v>6.4296809926096918E-2</v>
       </c>
       <c r="L128" s="18">
-        <f t="shared" si="0"/>
-        <v>6.9668362310926962E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9620256819762957E-2</v>
       </c>
       <c r="P128" s="7">
         <v>127</v>
@@ -7437,19 +7836,19 @@
       </c>
       <c r="I129" s="2">
         <f>(testdata[[#This Row],[ema]]-I128)*Multiplier+I128</f>
-        <v>230.15902201387453</v>
+        <v>230.1591091837816</v>
       </c>
       <c r="J129" s="12">
         <f>(testdata[[#This Row],[ema2]]-J128)*Multiplier+J128</f>
-        <v>228.83453360495136</v>
+        <v>228.83540588330422</v>
       </c>
       <c r="K129" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J128)/J128</f>
-        <v>6.0963188158432095E-2</v>
+        <v>6.0926797001700207E-2</v>
       </c>
       <c r="L129" s="18">
-        <f t="shared" ref="L129:L192" si="1">AVERAGE(K125:K129)</f>
-        <v>6.6913754163069522E-2</v>
+        <f t="shared" ref="L129:L192" si="2">AVERAGE(K125:K129)</f>
+        <v>6.6869798682768031E-2</v>
       </c>
       <c r="P129" s="7">
         <v>128</v>
@@ -7492,19 +7891,19 @@
       </c>
       <c r="I130" s="2">
         <f>(testdata[[#This Row],[ema]]-I129)*Multiplier+I129</f>
-        <v>230.22015699727723</v>
+        <v>230.22023586528837</v>
       </c>
       <c r="J130" s="12">
         <f>(testdata[[#This Row],[ema2]]-J129)*Multiplier+J129</f>
-        <v>228.96649773755382</v>
+        <v>228.96729445301699</v>
       </c>
       <c r="K130" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J129)/J129</f>
-        <v>5.7667927355002577E-2</v>
+        <v>5.7634686906810409E-2</v>
       </c>
       <c r="L130" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3955255628059052E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.3915096703308957E-2</v>
       </c>
       <c r="P130" s="7">
         <v>129</v>
@@ -7547,19 +7946,19 @@
       </c>
       <c r="I131" s="2">
         <f>(testdata[[#This Row],[ema]]-I130)*Multiplier+I130</f>
-        <v>230.2781821696565</v>
+        <v>230.2782535264285</v>
       </c>
       <c r="J131" s="12">
         <f>(testdata[[#This Row],[ema2]]-J130)*Multiplier+J130</f>
-        <v>229.09142006442073</v>
+        <v>229.09214769810379</v>
       </c>
       <c r="K131" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J130)/J130</f>
-        <v>5.4559216348802689E-2</v>
+        <v>5.4528855479146286E-2</v>
       </c>
       <c r="L131" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0907207018207475E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.087052025981813E-2</v>
       </c>
       <c r="P131" s="7">
         <v>130</v>
@@ -7602,19 +8001,19 @@
       </c>
       <c r="I132" s="2">
         <f>(testdata[[#This Row],[ema]]-I131)*Multiplier+I131</f>
-        <v>230.33159341353473</v>
+        <v>230.33165797442368</v>
       </c>
       <c r="J132" s="12">
         <f>(testdata[[#This Row],[ema2]]-J131)*Multiplier+J131</f>
-        <v>229.2095318119554</v>
+        <v>229.21019629584853</v>
       </c>
       <c r="K132" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J131)/J131</f>
-        <v>5.1556600199805139E-2</v>
+        <v>5.1528871212255509E-2</v>
       </c>
       <c r="L132" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7816715953595263E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.7783204105201866E-2</v>
       </c>
       <c r="P132" s="7">
         <v>131</v>
@@ -7657,19 +8056,19 @@
       </c>
       <c r="I133" s="2">
         <f>(testdata[[#This Row],[ema]]-I132)*Multiplier+I132</f>
-        <v>230.39643487699482</v>
+        <v>230.39649328922766</v>
       </c>
       <c r="J133" s="12">
         <f>(testdata[[#This Row],[ema2]]-J132)*Multiplier+J132</f>
-        <v>229.32257019910202</v>
+        <v>229.32317696188463</v>
       </c>
       <c r="K133" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J132)/J132</f>
-        <v>4.9316617093984445E-2</v>
+        <v>4.9291291514041796E-2</v>
       </c>
       <c r="L133" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4812709831205383E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4782100422790837E-2</v>
       </c>
       <c r="P133" s="7">
         <v>132</v>
@@ -7712,19 +8111,19 @@
       </c>
       <c r="I134" s="2">
         <f>(testdata[[#This Row],[ema]]-I133)*Multiplier+I133</f>
-        <v>230.47358233459371</v>
+        <v>230.47363518375676</v>
       </c>
       <c r="J134" s="12">
         <f>(testdata[[#This Row],[ema2]]-J133)*Multiplier+J133</f>
-        <v>229.43219040248218</v>
+        <v>229.43274441158673</v>
       </c>
       <c r="K134" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J133)/J133</f>
-        <v>4.7801750732597348E-2</v>
+        <v>4.7778620178591441E-2</v>
       </c>
       <c r="L134" s="18">
-        <f t="shared" si="1"/>
-        <v>5.2180422346038438E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2152465058169083E-2</v>
       </c>
       <c r="P134" s="7">
         <v>133</v>
@@ -7767,19 +8166,19 @@
       </c>
       <c r="I135" s="2">
         <f>(testdata[[#This Row],[ema]]-I134)*Multiplier+I134</f>
-        <v>230.56999027757519</v>
+        <v>230.57003809348458</v>
       </c>
       <c r="J135" s="12">
         <f>(testdata[[#This Row],[ema2]]-J134)*Multiplier+J134</f>
-        <v>229.54055229534819</v>
+        <v>229.541058095577</v>
       </c>
       <c r="K135" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J134)/J134</f>
-        <v>4.7230466080596702E-2</v>
+        <v>4.7209339829875192E-2</v>
       </c>
       <c r="L135" s="18">
-        <f t="shared" si="1"/>
-        <v>5.0092930091157263E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.0067395642782044E-2</v>
       </c>
       <c r="P135" s="7">
         <v>134</v>
@@ -7822,19 +8221,19 @@
       </c>
       <c r="I136" s="2">
         <f>(testdata[[#This Row],[ema]]-I135)*Multiplier+I135</f>
-        <v>230.68101818303097</v>
+        <v>230.68106144504424</v>
       </c>
       <c r="J136" s="12">
         <f>(testdata[[#This Row],[ema2]]-J135)*Multiplier+J135</f>
-        <v>229.64916809417511</v>
+        <v>229.64962984314531</v>
       </c>
       <c r="K136" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J135)/J135</f>
-        <v>4.7318784302288634E-2</v>
+        <v>4.7299489019127033E-2</v>
       </c>
       <c r="L136" s="18">
-        <f t="shared" si="1"/>
-        <v>4.8644843681854455E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8621522350778199E-2</v>
       </c>
       <c r="P136" s="7">
         <v>135</v>
@@ -7877,19 +8276,19 @@
       </c>
       <c r="I137" s="2">
         <f>(testdata[[#This Row],[ema]]-I136)*Multiplier+I136</f>
-        <v>230.80418598606366</v>
+        <v>230.80422512788519</v>
       </c>
       <c r="J137" s="12">
         <f>(testdata[[#This Row],[ema2]]-J136)*Multiplier+J136</f>
-        <v>229.75916979816449</v>
+        <v>229.75959129883481</v>
       </c>
       <c r="K137" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J136)/J136</f>
-        <v>4.7899892214838341E-2</v>
+        <v>4.7882269945136051E-2</v>
       </c>
       <c r="L137" s="18">
-        <f t="shared" si="1"/>
-        <v>4.7913502084861094E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.78922020973543E-2</v>
       </c>
       <c r="P137" s="7">
         <v>136</v>
@@ -7932,19 +8331,19 @@
       </c>
       <c r="I138" s="2">
         <f>(testdata[[#This Row],[ema]]-I137)*Multiplier+I137</f>
-        <v>230.94760284082682</v>
+        <v>230.9476382548558</v>
       </c>
       <c r="J138" s="12">
         <f>(testdata[[#This Row],[ema2]]-J137)*Multiplier+J137</f>
-        <v>229.87235389746567</v>
+        <v>229.87273862797966</v>
       </c>
       <c r="K138" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J137)/J137</f>
-        <v>4.9262059660385944E-2</v>
+        <v>4.9245965535204751E-2</v>
       </c>
       <c r="L138" s="18">
-        <f t="shared" si="1"/>
-        <v>4.7902590598141392E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7883136901586895E-2</v>
       </c>
       <c r="P138" s="7">
         <v>137</v>
@@ -7987,19 +8386,19 @@
       </c>
       <c r="I139" s="2">
         <f>(testdata[[#This Row],[ema]]-I138)*Multiplier+I138</f>
-        <v>231.10729234923087</v>
+        <v>231.10732439049519</v>
       </c>
       <c r="J139" s="12">
         <f>(testdata[[#This Row],[ema2]]-J138)*Multiplier+J138</f>
-        <v>229.98996708334806</v>
+        <v>229.99031822440972</v>
       </c>
       <c r="K139" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J138)/J138</f>
-        <v>5.1164563240541756E-2</v>
+        <v>5.1149865413292785E-2</v>
       </c>
       <c r="L139" s="18">
-        <f t="shared" si="1"/>
-        <v>4.8575153099730276E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8557385948527161E-2</v>
       </c>
       <c r="P139" s="7">
         <v>138</v>
@@ -8042,19 +8441,19 @@
       </c>
       <c r="I140" s="2">
         <f>(testdata[[#This Row],[ema]]-I139)*Multiplier+I139</f>
-        <v>231.27694936314685</v>
+        <v>231.27697835286219</v>
       </c>
       <c r="J140" s="12">
         <f>(testdata[[#This Row],[ema2]]-J139)*Multiplier+J139</f>
-        <v>230.11253682428128</v>
+        <v>230.11285728426233</v>
       </c>
       <c r="K140" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J139)/J139</f>
-        <v>5.329351644665286E-2</v>
+        <v>5.3280094918190232E-2</v>
       </c>
       <c r="L140" s="18">
-        <f t="shared" si="1"/>
-        <v>4.9787763172941507E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9771536966190168E-2</v>
       </c>
       <c r="P140" s="7">
         <v>139</v>
@@ -8097,19 +8496,19 @@
       </c>
       <c r="I141" s="2">
         <f>(testdata[[#This Row],[ema]]-I140)*Multiplier+I140</f>
-        <v>231.45268266149395</v>
+        <v>231.45270889028401</v>
       </c>
       <c r="J141" s="12">
         <f>(testdata[[#This Row],[ema2]]-J140)*Multiplier+J140</f>
-        <v>230.24016976115868</v>
+        <v>230.24046219912154</v>
       </c>
       <c r="K141" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J140)/J140</f>
-        <v>5.5465442534696603E-2</v>
+        <v>5.5453187781494793E-2</v>
       </c>
       <c r="L141" s="18">
-        <f t="shared" si="1"/>
-        <v>5.1417094819423102E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.1402276718663722E-2</v>
       </c>
       <c r="P141" s="7">
         <v>140</v>
@@ -8152,19 +8551,19 @@
       </c>
       <c r="I142" s="2">
         <f>(testdata[[#This Row],[ema]]-I141)*Multiplier+I141</f>
-        <v>231.63696608566025</v>
+        <v>231.6369898164703</v>
       </c>
       <c r="J142" s="12">
         <f>(testdata[[#This Row],[ema2]]-J141)*Multiplier+J141</f>
-        <v>230.37319798253978</v>
+        <v>230.37346482934524</v>
       </c>
       <c r="K142" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J141)/J141</f>
-        <v>5.7778024364338265E-2</v>
+        <v>5.7766836008465779E-2</v>
       </c>
       <c r="L142" s="18">
-        <f t="shared" si="1"/>
-        <v>5.339272124932308E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.3379189931329674E-2</v>
       </c>
       <c r="P142" s="7">
         <v>141</v>
@@ -8207,19 +8606,19 @@
       </c>
       <c r="I143" s="2">
         <f>(testdata[[#This Row],[ema]]-I142)*Multiplier+I142</f>
-        <v>231.82666779037996</v>
+        <v>231.82668926111285</v>
       </c>
       <c r="J143" s="12">
         <f>(testdata[[#This Row],[ema2]]-J142)*Multiplier+J142</f>
-        <v>230.51162367852456</v>
+        <v>230.51186715618024</v>
       </c>
       <c r="K143" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J142)/J142</f>
-        <v>6.0087587096512143E-2</v>
+        <v>6.0077373467265945E-2</v>
       </c>
       <c r="L143" s="18">
-        <f t="shared" si="1"/>
-        <v>5.555782673654832E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.5545471517741904E-2</v>
       </c>
       <c r="P143" s="7">
         <v>142</v>
@@ -8262,19 +8661,19 @@
       </c>
       <c r="I144" s="2">
         <f>(testdata[[#This Row],[ema]]-I143)*Multiplier+I143</f>
-        <v>232.01708875238063</v>
+        <v>232.0171081782818</v>
       </c>
       <c r="J144" s="12">
         <f>(testdata[[#This Row],[ema2]]-J143)*Multiplier+J143</f>
-        <v>230.65500130460609</v>
+        <v>230.65522344399943</v>
       </c>
       <c r="K144" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J143)/J143</f>
-        <v>6.2199738040753898E-2</v>
+        <v>6.2190415438376848E-2</v>
       </c>
       <c r="L144" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7764861696590751E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.775358152275871E-2</v>
       </c>
       <c r="P144" s="7">
         <v>143</v>
@@ -8317,19 +8716,19 @@
       </c>
       <c r="I145" s="2">
         <f>(testdata[[#This Row],[ema]]-I144)*Multiplier+I144</f>
-        <v>232.20392234030061</v>
+        <v>232.20393991611596</v>
       </c>
       <c r="J145" s="12">
         <f>(testdata[[#This Row],[ema2]]-J144)*Multiplier+J144</f>
-        <v>230.80251759371984</v>
+        <v>230.80272025086768</v>
       </c>
       <c r="K145" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J144)/J144</f>
-        <v>6.3955382835571353E-2</v>
+        <v>6.394687476221747E-2</v>
       </c>
       <c r="L145" s="18">
-        <f t="shared" si="1"/>
-        <v>5.989723497437445E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.9886937491564173E-2</v>
       </c>
       <c r="P145" s="7">
         <v>144</v>
@@ -8372,19 +8771,19 @@
       </c>
       <c r="I146" s="2">
         <f>(testdata[[#This Row],[ema]]-I145)*Multiplier+I145</f>
-        <v>232.38485484796027</v>
+        <v>232.38487074988845</v>
       </c>
       <c r="J146" s="12">
         <f>(testdata[[#This Row],[ema2]]-J145)*Multiplier+J145</f>
-        <v>230.95321637983798</v>
+        <v>230.95340125077442</v>
       </c>
       <c r="K146" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J145)/J145</f>
-        <v>6.5293389209651317E-2</v>
+        <v>6.5285625638623085E-2</v>
       </c>
       <c r="L146" s="18">
-        <f t="shared" si="1"/>
-        <v>6.1862824309365391E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.1853425062989832E-2</v>
       </c>
       <c r="P146" s="7">
         <v>145</v>
@@ -8427,19 +8826,19 @@
       </c>
       <c r="I147" s="2">
         <f>(testdata[[#This Row],[ema]]-I146)*Multiplier+I146</f>
-        <v>232.56412291116504</v>
+        <v>232.56413729862388</v>
       </c>
       <c r="J147" s="12">
         <f>(testdata[[#This Row],[ema2]]-J146)*Multiplier+J146</f>
-        <v>231.10663604948817</v>
+        <v>231.10680468390294</v>
       </c>
       <c r="K147" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J146)/J146</f>
-        <v>6.6428895018231154E-2</v>
+        <v>6.6421811628549307E-2</v>
       </c>
       <c r="L147" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3592998440143961E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.3584420187006538E-2</v>
       </c>
       <c r="P147" s="7">
         <v>146</v>
@@ -8482,19 +8881,19 @@
       </c>
       <c r="I148" s="2">
         <f>(testdata[[#This Row],[ema]]-I147)*Multiplier+I147</f>
-        <v>232.74140018819963</v>
+        <v>232.74141320542429</v>
       </c>
       <c r="J148" s="12">
         <f>(testdata[[#This Row],[ema2]]-J147)*Multiplier+J147</f>
-        <v>231.26232787222258</v>
+        <v>231.26248168595259</v>
       </c>
       <c r="K148" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J147)/J147</f>
-        <v>6.7367958530222441E-2</v>
+        <v>6.7361496457270006E-2</v>
       </c>
       <c r="L148" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5049072726886037E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.5041244785007349E-2</v>
       </c>
       <c r="P148" s="7">
         <v>147</v>
@@ -8537,19 +8936,19 @@
       </c>
       <c r="I149" s="2">
         <f>(testdata[[#This Row],[ema]]-I148)*Multiplier+I148</f>
-        <v>232.91135822959802</v>
+        <v>232.91137000708702</v>
       </c>
       <c r="J149" s="12">
         <f>(testdata[[#This Row],[ema2]]-J148)*Multiplier+J148</f>
-        <v>231.41937838244883</v>
+        <v>231.41951866891779</v>
       </c>
       <c r="K149" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J148)/J148</f>
-        <v>6.7910113882886883E-2</v>
+        <v>6.7904219404878063E-2</v>
       </c>
       <c r="L149" s="18">
-        <f t="shared" si="1"/>
-        <v>6.6191147895312635E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6184005578307586E-2</v>
       </c>
       <c r="P149" s="7">
         <v>148</v>
@@ -8592,19 +8991,19 @@
       </c>
       <c r="I150" s="2">
         <f>(testdata[[#This Row],[ema]]-I149)*Multiplier+I149</f>
-        <v>233.07759274212961</v>
+        <v>233.07760339795297</v>
       </c>
       <c r="J150" s="12">
         <f>(testdata[[#This Row],[ema2]]-J149)*Multiplier+J149</f>
-        <v>231.57730355956127</v>
+        <v>231.57743150025448</v>
       </c>
       <c r="K150" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J149)/J149</f>
-        <v>6.8241984839945188E-2</v>
+        <v>6.8236608668522575E-2</v>
       </c>
       <c r="L150" s="18">
-        <f t="shared" si="1"/>
-        <v>6.7048468296187394E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7041952359568599E-2</v>
       </c>
       <c r="P150" s="7">
         <v>149</v>
@@ -8647,19 +9046,19 @@
       </c>
       <c r="I151" s="2">
         <f>(testdata[[#This Row],[ema]]-I150)*Multiplier+I150</f>
-        <v>233.24326232955679</v>
+        <v>233.24327197053984</v>
       </c>
       <c r="J151" s="12">
         <f>(testdata[[#This Row],[ema2]]-J150)*Multiplier+J150</f>
-        <v>231.73596629956086</v>
+        <v>231.736082973615</v>
       </c>
       <c r="K151" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J150)/J150</f>
-        <v>6.8513942239066192E-2</v>
+        <v>6.8509039215398235E-2</v>
       </c>
       <c r="L151" s="18">
-        <f t="shared" si="1"/>
-        <v>6.769257890207038E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7686635074923646E-2</v>
       </c>
       <c r="P151" s="7">
         <v>150</v>
@@ -8702,19 +9101,19 @@
       </c>
       <c r="I152" s="2">
         <f>(testdata[[#This Row],[ema]]-I151)*Multiplier+I151</f>
-        <v>233.40170602965426</v>
+        <v>233.40171475244844</v>
       </c>
       <c r="J152" s="12">
         <f>(testdata[[#This Row],[ema2]]-J151)*Multiplier+J151</f>
-        <v>231.89460817861737</v>
+        <v>231.89471457159914</v>
       </c>
       <c r="K152" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J151)/J151</f>
-        <v>6.845803074497471E-2</v>
+        <v>6.8453559734243732E-2</v>
       </c>
       <c r="L152" s="18">
-        <f t="shared" si="1"/>
-        <v>6.8098406047419083E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.8092984696062522E-2</v>
       </c>
       <c r="P152" s="7">
         <v>151</v>
@@ -8757,19 +9156,19 @@
       </c>
       <c r="I153" s="2">
         <f>(testdata[[#This Row],[ema]]-I152)*Multiplier+I152</f>
-        <v>233.55270682697073</v>
+        <v>233.55271471902262</v>
       </c>
       <c r="J153" s="12">
         <f>(testdata[[#This Row],[ema2]]-J152)*Multiplier+J152</f>
-        <v>232.05252233560341</v>
+        <v>232.05261934754424</v>
       </c>
       <c r="K153" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J152)/J152</f>
-        <v>6.8097381921189179E-2</v>
+        <v>6.8093305290209377E-2</v>
       </c>
       <c r="L153" s="18">
-        <f t="shared" si="1"/>
-        <v>6.824429072561243E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.8239346462650396E-2</v>
       </c>
       <c r="P153" s="7">
         <v>152</v>
@@ -8812,19 +9211,19 @@
       </c>
       <c r="I154" s="2">
         <f>(testdata[[#This Row],[ema]]-I153)*Multiplier+I153</f>
-        <v>233.66604120457475</v>
+        <v>233.66604834500265</v>
       </c>
       <c r="J154" s="12">
         <f>(testdata[[#This Row],[ema2]]-J153)*Multiplier+J153</f>
-        <v>232.20619079931498</v>
+        <v>232.20627925206409</v>
       </c>
       <c r="K154" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J153)/J153</f>
-        <v>6.6221414947313983E-2</v>
+        <v>6.6217698792582852E-2</v>
       </c>
       <c r="L154" s="18">
-        <f t="shared" si="1"/>
-        <v>6.7906550938497859E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7902042340191343E-2</v>
       </c>
       <c r="P154" s="7">
         <v>153</v>
@@ -8867,19 +9266,19 @@
       </c>
       <c r="I155" s="2">
         <f>(testdata[[#This Row],[ema]]-I154)*Multiplier+I154</f>
-        <v>233.75068870003224</v>
+        <v>233.75069516041938</v>
       </c>
       <c r="J155" s="12">
         <f>(testdata[[#This Row],[ema2]]-J154)*Multiplier+J154</f>
-        <v>232.35328583747852</v>
+        <v>232.35336648143127</v>
       </c>
       <c r="K155" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J154)/J154</f>
-        <v>6.3346734063033344E-2</v>
+        <v>6.3343347062336491E-2</v>
       </c>
       <c r="L155" s="18">
-        <f t="shared" si="1"/>
-        <v>6.692750078311549E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.6923390018954129E-2</v>
       </c>
       <c r="P155" s="7">
         <v>154</v>
@@ -8922,19 +9321,19 @@
       </c>
       <c r="I156" s="2">
         <f>(testdata[[#This Row],[ema]]-I155)*Multiplier+I155</f>
-        <v>233.83194718316153</v>
+        <v>233.83195302827372</v>
       </c>
       <c r="J156" s="12">
         <f>(testdata[[#This Row],[ema2]]-J155)*Multiplier+J155</f>
-        <v>232.49411072754359</v>
+        <v>232.49418424779722</v>
       </c>
       <c r="K156" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J155)/J155</f>
-        <v>6.0608090631248099E-2</v>
+        <v>6.0605003705513069E-2</v>
       </c>
       <c r="L156" s="18">
-        <f t="shared" si="1"/>
-        <v>6.534633046155186E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.5342582916977116E-2</v>
       </c>
       <c r="P156" s="7">
         <v>155</v>
@@ -8977,19 +9376,19 @@
       </c>
       <c r="I157" s="2">
         <f>(testdata[[#This Row],[ema]]-I156)*Multiplier+I156</f>
-        <v>233.90951299648813</v>
+        <v>233.90951828492297</v>
       </c>
       <c r="J157" s="12">
         <f>(testdata[[#This Row],[ema2]]-J156)*Multiplier+J156</f>
-        <v>232.62891094363354</v>
+        <v>232.62897796561873</v>
       </c>
       <c r="K157" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J156)/J156</f>
-        <v>5.7980056212231214E-2</v>
+        <v>5.7977242853456956E-2</v>
       </c>
       <c r="L157" s="18">
-        <f t="shared" si="1"/>
-        <v>6.3250735555003171E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.3247319540819746E-2</v>
       </c>
       <c r="P157" s="7">
         <v>156</v>
@@ -9032,19 +9431,19 @@
       </c>
       <c r="I158" s="2">
         <f>(testdata[[#This Row],[ema]]-I157)*Multiplier+I157</f>
-        <v>233.98707128815468</v>
+        <v>233.98707607292906</v>
       </c>
       <c r="J158" s="12">
         <f>(testdata[[#This Row],[ema2]]-J157)*Multiplier+J157</f>
-        <v>232.75825954787365</v>
+        <v>232.75832064250542</v>
       </c>
       <c r="K158" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J157)/J157</f>
-        <v>5.5602978888315613E-2</v>
+        <v>5.5600414882882643E-2</v>
       </c>
       <c r="L158" s="18">
-        <f t="shared" si="1"/>
-        <v>6.0751854948428455E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.0748741459354404E-2</v>
       </c>
       <c r="P158" s="7">
         <v>157</v>
@@ -9087,19 +9486,19 @@
       </c>
       <c r="I159" s="2">
         <f>(testdata[[#This Row],[ema]]-I158)*Multiplier+I158</f>
-        <v>234.03063196420686</v>
+        <v>234.03063629328844</v>
       </c>
       <c r="J159" s="12">
         <f>(testdata[[#This Row],[ema2]]-J158)*Multiplier+J158</f>
-        <v>232.87943787323871</v>
+        <v>232.87949356162761</v>
       </c>
       <c r="K159" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J158)/J158</f>
-        <v>5.2061879823491808E-2</v>
+        <v>5.2059543473119398E-2</v>
       </c>
       <c r="L159" s="18">
-        <f t="shared" si="1"/>
-        <v>5.791994792366402E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.7917110395461713E-2</v>
       </c>
       <c r="P159" s="7">
         <v>158</v>
@@ -9142,19 +9541,19 @@
       </c>
       <c r="I160" s="2">
         <f>(testdata[[#This Row],[ema]]-I159)*Multiplier+I159</f>
-        <v>234.04261127531345</v>
+        <v>234.04261519210155</v>
       </c>
       <c r="J160" s="12">
         <f>(testdata[[#This Row],[ema2]]-J159)*Multiplier+J159</f>
-        <v>232.99021629248392</v>
+        <v>232.99026705024417</v>
       </c>
       <c r="K160" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J159)/J159</f>
-        <v>4.7568999760943399E-2</v>
+        <v>4.7566871141122805E-2</v>
       </c>
       <c r="L160" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4764401063246024E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4761815211218978E-2</v>
       </c>
       <c r="P160" s="7">
         <v>159</v>
@@ -9197,19 +9596,19 @@
       </c>
       <c r="I161" s="2">
         <f>(testdata[[#This Row],[ema]]-I160)*Multiplier+I160</f>
-        <v>234.03026226444774</v>
+        <v>234.03026580820841</v>
       </c>
       <c r="J161" s="12">
         <f>(testdata[[#This Row],[ema2]]-J160)*Multiplier+J160</f>
-        <v>233.08926828981382</v>
+        <v>233.08931455100267</v>
       </c>
       <c r="K161" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J160)/J160</f>
-        <v>4.2513371980199235E-2</v>
+        <v>4.2511432778924781E-2</v>
       </c>
       <c r="L161" s="18">
-        <f t="shared" si="1"/>
-        <v>5.114545733303625E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.1143101025901319E-2</v>
       </c>
       <c r="P161" s="7">
         <v>160</v>
@@ -9252,19 +9651,19 @@
       </c>
       <c r="I162" s="2">
         <f>(testdata[[#This Row],[ema]]-I161)*Multiplier+I161</f>
-        <v>234.02015105814317</v>
+        <v>234.02015426440283</v>
       </c>
       <c r="J162" s="12">
         <f>(testdata[[#This Row],[ema2]]-J161)*Multiplier+J161</f>
-        <v>233.17792379155946</v>
+        <v>233.17796595227887</v>
       </c>
       <c r="K162" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J161)/J161</f>
-        <v>3.8034999378614917E-2</v>
+        <v>3.8033232646019474E-2</v>
       </c>
       <c r="L162" s="18">
-        <f t="shared" si="1"/>
-        <v>4.7156445966313E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7154298984413826E-2</v>
       </c>
       <c r="P162" s="7">
         <v>161</v>
@@ -9307,19 +9706,19 @@
       </c>
       <c r="I163" s="2">
         <f>(testdata[[#This Row],[ema]]-I162)*Multiplier+I162</f>
-        <v>234.00434436946173</v>
+        <v>234.00434727036333</v>
       </c>
       <c r="J163" s="12">
         <f>(testdata[[#This Row],[ema2]]-J162)*Multiplier+J162</f>
-        <v>233.25663051326444</v>
+        <v>233.25666893495358</v>
       </c>
       <c r="K163" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J162)/J162</f>
-        <v>3.3753933659402574E-2</v>
+        <v>3.375232404712715E-2</v>
       </c>
       <c r="L163" s="18">
-        <f t="shared" si="1"/>
-        <v>4.2786636920530391E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2784680817262721E-2</v>
       </c>
       <c r="P163" s="7">
         <v>162</v>
@@ -9362,19 +9761,19 @@
       </c>
       <c r="I164" s="2">
         <f>(testdata[[#This Row],[ema]]-I163)*Multiplier+I163</f>
-        <v>233.97903010167977</v>
+        <v>233.97903272630501</v>
       </c>
       <c r="J164" s="12">
         <f>(testdata[[#This Row],[ema2]]-J163)*Multiplier+J163</f>
-        <v>233.32543047406591</v>
+        <v>233.32546548651086</v>
       </c>
       <c r="K164" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J163)/J163</f>
-        <v>2.9495393399999518E-2</v>
+        <v>2.949392695669031E-2</v>
       </c>
       <c r="L164" s="18">
-        <f t="shared" si="1"/>
-        <v>3.8273339635831932E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.82715575139769E-2</v>
       </c>
       <c r="P164" s="7">
         <v>163</v>
@@ -9417,19 +9816,19 @@
       </c>
       <c r="I165" s="2">
         <f>(testdata[[#This Row],[ema]]-I164)*Multiplier+I164</f>
-        <v>233.95115125570243</v>
+        <v>233.95115363036334</v>
       </c>
       <c r="J165" s="12">
         <f>(testdata[[#This Row],[ema2]]-J164)*Multiplier+J164</f>
-        <v>233.38502292945986</v>
+        <v>233.38505483354444</v>
       </c>
       <c r="K165" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J164)/J164</f>
-        <v>2.5540488781216526E-2</v>
+        <v>2.5539152749284692E-2</v>
       </c>
       <c r="L165" s="18">
-        <f t="shared" si="1"/>
-        <v>3.3867637439886557E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3866013835609284E-2</v>
       </c>
       <c r="P165" s="7">
         <v>164</v>
@@ -9472,19 +9871,19 @@
       </c>
       <c r="I166" s="2">
         <f>(testdata[[#This Row],[ema]]-I165)*Multiplier+I165</f>
-        <v>233.92151663343341</v>
+        <v>233.92151878193616</v>
       </c>
       <c r="J166" s="12">
         <f>(testdata[[#This Row],[ema2]]-J165)*Multiplier+J165</f>
-        <v>233.43611756793354</v>
+        <v>233.43614663815319</v>
       </c>
       <c r="K166" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J165)/J165</f>
-        <v>2.1892852348590716E-2</v>
+        <v>2.18916351114193E-2</v>
       </c>
       <c r="L166" s="18">
-        <f t="shared" si="1"/>
-        <v>2.9743533513564846E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.974205430210819E-2</v>
       </c>
       <c r="P166" s="7">
         <v>165</v>
@@ -9527,19 +9926,19 @@
       </c>
       <c r="I167" s="2">
         <f>(testdata[[#This Row],[ema]]-I166)*Multiplier+I166</f>
-        <v>233.89307181444738</v>
+        <v>233.89307375833081</v>
       </c>
       <c r="J167" s="12">
         <f>(testdata[[#This Row],[ema2]]-J166)*Multiplier+J166</f>
-        <v>233.47963701998248</v>
+        <v>233.47966350674153</v>
       </c>
       <c r="K167" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J166)/J166</f>
-        <v>1.864298142993041E-2</v>
+        <v>1.8641872398534817E-2</v>
       </c>
       <c r="L167" s="18">
-        <f t="shared" si="1"/>
-        <v>2.5865129923827945E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.586378225261125E-2</v>
       </c>
       <c r="P167" s="7">
         <v>166</v>
@@ -9582,19 +9981,19 @@
       </c>
       <c r="I168" s="2">
         <f>(testdata[[#This Row],[ema]]-I167)*Multiplier+I167</f>
-        <v>233.87592699151824</v>
+        <v>233.87592875026991</v>
       </c>
       <c r="J168" s="12">
         <f>(testdata[[#This Row],[ema2]]-J167)*Multiplier+J167</f>
-        <v>233.51737892203352</v>
+        <v>233.51740305374423</v>
       </c>
       <c r="K168" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J167)/J167</f>
-        <v>1.6164965190436979E-2</v>
+        <v>1.6163954682764652E-2</v>
       </c>
       <c r="L168" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2347336230034827E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2346108379738754E-2</v>
       </c>
       <c r="P168" s="7">
         <v>167</v>
@@ -9637,19 +10036,19 @@
       </c>
       <c r="I169" s="2">
         <f>(testdata[[#This Row],[ema]]-I168)*Multiplier+I168</f>
-        <v>233.88097690298423</v>
+        <v>233.88097849423576</v>
       </c>
       <c r="J169" s="12">
         <f>(testdata[[#This Row],[ema2]]-J168)*Multiplier+J168</f>
-        <v>233.55200730117167</v>
+        <v>233.552029286172</v>
       </c>
       <c r="K169" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J168)/J168</f>
-        <v>1.4829037263953222E-2</v>
+        <v>1.4828116437985393E-2</v>
       </c>
       <c r="L169" s="18">
-        <f t="shared" si="1"/>
-        <v>1.9414065002825571E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9412946275997774E-2</v>
       </c>
       <c r="P169" s="7">
         <v>168</v>
@@ -9692,19 +10091,19 @@
       </c>
       <c r="I170" s="2">
         <f>(testdata[[#This Row],[ema]]-I169)*Multiplier+I169</f>
-        <v>233.90714268626607</v>
+        <v>233.90714412596984</v>
       </c>
       <c r="J170" s="12">
         <f>(testdata[[#This Row],[ema2]]-J169)*Multiplier+J169</f>
-        <v>233.58582971879972</v>
+        <v>233.58584974710513</v>
       </c>
       <c r="K170" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J169)/J169</f>
-        <v>1.4481749918950558E-2</v>
+        <v>1.4480910757443346E-2</v>
       </c>
       <c r="L170" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7202317230372376E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7201297877629501E-2</v>
       </c>
       <c r="P170" s="7">
         <v>169</v>
@@ -9747,19 +10146,19 @@
       </c>
       <c r="I171" s="2">
         <f>(testdata[[#This Row],[ema]]-I170)*Multiplier+I170</f>
-        <v>233.93502766817011</v>
+        <v>233.93502897075922</v>
       </c>
       <c r="J171" s="12">
         <f>(testdata[[#This Row],[ema2]]-J170)*Multiplier+J170</f>
-        <v>233.61908666635881</v>
+        <v>233.61910491126267</v>
       </c>
       <c r="K171" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J170)/J170</f>
-        <v>1.4237570660485654E-2</v>
+        <v>1.4236805951020566E-2</v>
       </c>
       <c r="L171" s="18">
-        <f t="shared" si="1"/>
-        <v>1.5671260892751365E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5670332045549757E-2</v>
       </c>
       <c r="P171" s="7">
         <v>170</v>
@@ -9802,19 +10201,19 @@
       </c>
       <c r="I172" s="2">
         <f>(testdata[[#This Row],[ema]]-I171)*Multiplier+I171</f>
-        <v>233.97132328675215</v>
+        <v>233.97132446528514</v>
       </c>
       <c r="J172" s="12">
         <f>(testdata[[#This Row],[ema2]]-J171)*Multiplier+J171</f>
-        <v>233.65263301115817</v>
+        <v>233.65264963069339</v>
       </c>
       <c r="K172" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J171)/J171</f>
-        <v>1.4359419548314023E-2</v>
+        <v>1.4358722692420072E-2</v>
       </c>
       <c r="L172" s="18">
-        <f t="shared" si="1"/>
-        <v>1.4814548516428086E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4813702104326806E-2</v>
       </c>
       <c r="P172" s="7">
         <v>171</v>
@@ -9857,19 +10256,19 @@
       </c>
       <c r="I173" s="2">
         <f>(testdata[[#This Row],[ema]]-I172)*Multiplier+I172</f>
-        <v>234.0139024821288</v>
+        <v>234.01390354842056</v>
       </c>
       <c r="J173" s="12">
         <f>(testdata[[#This Row],[ema2]]-J172)*Multiplier+J172</f>
-        <v>233.6870396274411</v>
+        <v>233.68705476571503</v>
       </c>
       <c r="K173" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J172)/J172</f>
-        <v>1.4725541860801151E-2</v>
+        <v>1.4724906854693612E-2</v>
       </c>
       <c r="L173" s="18">
-        <f t="shared" si="1"/>
-        <v>1.4526663850500924E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4525892538712597E-2</v>
       </c>
       <c r="P173" s="7">
         <v>172</v>
@@ -9912,19 +10311,19 @@
       </c>
       <c r="I174" s="2">
         <f>(testdata[[#This Row],[ema]]-I173)*Multiplier+I173</f>
-        <v>234.05869948803007</v>
+        <v>234.05870045277024</v>
       </c>
       <c r="J174" s="12">
         <f>(testdata[[#This Row],[ema2]]-J173)*Multiplier+J173</f>
-        <v>233.72243580464004</v>
+        <v>233.72244959305362</v>
       </c>
       <c r="K174" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J173)/J173</f>
-        <v>1.5146829390015963E-2</v>
+        <v>1.5146250772888484E-2</v>
       </c>
       <c r="L174" s="18">
-        <f t="shared" si="1"/>
-        <v>1.4590222275713471E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4589519405693216E-2</v>
       </c>
       <c r="P174" s="7">
         <v>173</v>
@@ -9967,19 +10366,19 @@
       </c>
       <c r="I175" s="2">
         <f>(testdata[[#This Row],[ema]]-I174)*Multiplier+I174</f>
-        <v>234.12767209841155</v>
+        <v>234.12767297127172</v>
       </c>
       <c r="J175" s="12">
         <f>(testdata[[#This Row],[ema2]]-J174)*Multiplier+J174</f>
-        <v>233.7610297373802</v>
+        <v>233.76104229574105</v>
       </c>
       <c r="K175" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J174)/J174</f>
-        <v>1.6512720572711779E-2</v>
+        <v>1.6512193310749556E-2</v>
       </c>
       <c r="L175" s="18">
-        <f t="shared" si="1"/>
-        <v>1.4996416406465712E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4995775916354457E-2</v>
       </c>
       <c r="P175" s="7">
         <v>174</v>
@@ -10022,19 +10421,19 @@
       </c>
       <c r="I176" s="2">
         <f>(testdata[[#This Row],[ema]]-I175)*Multiplier+I175</f>
-        <v>234.22306535000808</v>
+        <v>234.22306613973871</v>
       </c>
       <c r="J176" s="12">
         <f>(testdata[[#This Row],[ema2]]-J175)*Multiplier+J175</f>
-        <v>233.80503312905904</v>
+        <v>233.80504456659796</v>
       </c>
       <c r="K176" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J175)/J175</f>
-        <v>1.8824092162957211E-2</v>
+        <v>1.8823611678304503E-2</v>
       </c>
       <c r="L176" s="18">
-        <f t="shared" si="1"/>
-        <v>1.5913720706960028E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.5913137061811244E-2</v>
       </c>
       <c r="P176" s="7">
         <v>175</v>
@@ -10077,19 +10476,19 @@
       </c>
       <c r="I177" s="2">
         <f>(testdata[[#This Row],[ema]]-I176)*Multiplier+I176</f>
-        <v>234.340309573197</v>
+        <v>234.3403102877152</v>
       </c>
       <c r="J177" s="12">
         <f>(testdata[[#This Row],[ema2]]-J176)*Multiplier+J176</f>
-        <v>233.85601183802456</v>
+        <v>233.85602225432342</v>
       </c>
       <c r="K177" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J176)/J176</f>
-        <v>2.1803939925183861E-2</v>
+        <v>2.1803502067271715E-2</v>
       </c>
       <c r="L177" s="18">
-        <f t="shared" si="1"/>
-        <v>1.7402624782333991E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7402092936781573E-2</v>
       </c>
       <c r="P177" s="7">
         <v>176</v>
@@ -10132,19 +10531,19 @@
       </c>
       <c r="I178" s="2">
         <f>(testdata[[#This Row],[ema]]-I177)*Multiplier+I177</f>
-        <v>234.47365180965599</v>
+        <v>234.47365245612482</v>
       </c>
       <c r="J178" s="12">
         <f>(testdata[[#This Row],[ema2]]-J177)*Multiplier+J177</f>
-        <v>233.91483469246563</v>
+        <v>233.91484417830452</v>
       </c>
       <c r="K178" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J177)/J177</f>
-        <v>2.5153449756860555E-2</v>
+        <v>2.5153050759210104E-2</v>
       </c>
       <c r="L178" s="18">
-        <f t="shared" si="1"/>
-        <v>1.9488206361545874E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9487721717684876E-2</v>
       </c>
       <c r="P178" s="7">
         <v>177</v>
@@ -10187,19 +10586,19 @@
       </c>
       <c r="I179" s="2">
         <f>(testdata[[#This Row],[ema]]-I178)*Multiplier+I178</f>
-        <v>234.62186482580807</v>
+        <v>234.62186541070847</v>
       </c>
       <c r="J179" s="12">
         <f>(testdata[[#This Row],[ema2]]-J178)*Multiplier+J178</f>
-        <v>233.9821708956411</v>
+        <v>233.98217953377156</v>
       </c>
       <c r="K179" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J178)/J178</f>
-        <v>2.8786632221937038E-2</v>
+        <v>2.8786268654121771E-2</v>
       </c>
       <c r="L179" s="18">
-        <f t="shared" si="1"/>
-        <v>2.2216166927930086E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2215725293931531E-2</v>
       </c>
       <c r="P179" s="7">
         <v>178</v>
@@ -10242,19 +10641,19 @@
       </c>
       <c r="I180" s="2">
         <f>(testdata[[#This Row],[ema]]-I179)*Multiplier+I179</f>
-        <v>234.78553248913613</v>
+        <v>234.78553301833173</v>
       </c>
       <c r="J180" s="12">
         <f>(testdata[[#This Row],[ema2]]-J179)*Multiplier+J179</f>
-        <v>234.05868152359301</v>
+        <v>234.05868938944394</v>
       </c>
       <c r="K180" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J179)/J179</f>
-        <v>3.2699341004930341E-2</v>
+        <v>3.2699009738620395E-2</v>
       </c>
       <c r="L180" s="18">
-        <f t="shared" si="1"/>
-        <v>2.5453491014373796E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5453088579505699E-2</v>
       </c>
       <c r="P180" s="7">
         <v>179</v>
@@ -10297,19 +10696,19 @@
       </c>
       <c r="I181" s="2">
         <f>(testdata[[#This Row],[ema]]-I180)*Multiplier+I180</f>
-        <v>234.96254359232179</v>
+        <v>234.96254407111783</v>
       </c>
       <c r="J181" s="12">
         <f>(testdata[[#This Row],[ema2]]-J180)*Multiplier+J180</f>
-        <v>234.1447636253767</v>
+        <v>234.1447707876986</v>
       </c>
       <c r="K181" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J180)/J180</f>
-        <v>3.6777999954259899E-2</v>
+        <v>3.6777698140244897E-2</v>
       </c>
       <c r="L181" s="18">
-        <f t="shared" si="1"/>
-        <v>2.9044272572634339E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9043905871893778E-2</v>
       </c>
       <c r="P181" s="7">
         <v>180</v>
@@ -10352,19 +10751,19 @@
       </c>
       <c r="I182" s="2">
         <f>(testdata[[#This Row],[ema]]-I181)*Multiplier+I181</f>
-        <v>235.14959763740285</v>
+        <v>235.14959807059927</v>
       </c>
       <c r="J182" s="12">
         <f>(testdata[[#This Row],[ema2]]-J181)*Multiplier+J181</f>
-        <v>234.24046210271251</v>
+        <v>234.24046862416535</v>
       </c>
       <c r="K182" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J181)/J181</f>
-        <v>4.0871500115599417E-2</v>
+        <v>4.087122515903243E-2</v>
       </c>
       <c r="L182" s="18">
-        <f t="shared" si="1"/>
-        <v>3.285778461071745E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.2857450490245924E-2</v>
       </c>
       <c r="P182" s="7">
         <v>181</v>
@@ -10407,19 +10806,19 @@
       </c>
       <c r="I183" s="2">
         <f>(testdata[[#This Row],[ema]]-I182)*Multiplier+I182</f>
-        <v>235.33737115151769</v>
+        <v>235.33737154345732</v>
       </c>
       <c r="J183" s="12">
         <f>(testdata[[#This Row],[ema2]]-J182)*Multiplier+J182</f>
-        <v>234.34492963117015</v>
+        <v>234.34493556885982</v>
       </c>
       <c r="K183" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J182)/J182</f>
-        <v>4.459841289581503E-2</v>
+        <v>4.4598162438828977E-2</v>
       </c>
       <c r="L183" s="18">
-        <f t="shared" si="1"/>
-        <v>3.6746777238508346E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.674647282616969E-2</v>
       </c>
       <c r="P183" s="7">
         <v>182</v>
@@ -10462,19 +10861,19 @@
       </c>
       <c r="I184" s="2">
         <f>(testdata[[#This Row],[ema]]-I183)*Multiplier+I183</f>
-        <v>235.52448397235531</v>
+        <v>235.52448432696735</v>
       </c>
       <c r="J184" s="12">
         <f>(testdata[[#This Row],[ema2]]-J183)*Multiplier+J183</f>
-        <v>234.45726813985445</v>
+        <v>234.45727354582246</v>
       </c>
       <c r="K184" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J183)/J183</f>
-        <v>4.7937247398998489E-2</v>
+        <v>4.7937019287376925E-2</v>
       </c>
       <c r="L184" s="18">
-        <f t="shared" si="1"/>
-        <v>4.0576900273920635E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.0576622952820725E-2</v>
       </c>
       <c r="P184" s="7">
         <v>183</v>
@@ -10517,19 +10916,19 @@
       </c>
       <c r="I185" s="2">
         <f>(testdata[[#This Row],[ema]]-I184)*Multiplier+I184</f>
-        <v>235.70491434068401</v>
+        <v>235.70491466152347</v>
       </c>
       <c r="J185" s="12">
         <f>(testdata[[#This Row],[ema2]]-J184)*Multiplier+J184</f>
-        <v>234.5760915875525</v>
+        <v>234.57609650922257</v>
       </c>
       <c r="K185" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J184)/J184</f>
-        <v>5.0680215051883047E-2</v>
+        <v>5.0680007322051919E-2</v>
       </c>
       <c r="L185" s="18">
-        <f t="shared" si="1"/>
-        <v>4.4173075083311183E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.4172822469507031E-2</v>
       </c>
       <c r="P185" s="7">
         <v>184</v>
@@ -10572,19 +10971,19 @@
       </c>
       <c r="I186" s="2">
         <f>(testdata[[#This Row],[ema]]-I185)*Multiplier+I185</f>
-        <v>235.87959848037545</v>
+        <v>235.87959877065879</v>
       </c>
       <c r="J186" s="12">
         <f>(testdata[[#This Row],[ema2]]-J185)*Multiplier+J185</f>
-        <v>234.70023510115468</v>
+        <v>234.70023958174031</v>
       </c>
       <c r="K186" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J185)/J185</f>
-        <v>5.2922492126970588E-2</v>
+        <v>5.2922302981906214E-2</v>
       </c>
       <c r="L186" s="18">
-        <f t="shared" si="1"/>
-        <v>4.7401973517853316E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.7401743437839296E-2</v>
       </c>
       <c r="P186" s="7">
         <v>185</v>
@@ -10627,19 +11026,19 @@
       </c>
       <c r="I187" s="2">
         <f>(testdata[[#This Row],[ema]]-I186)*Multiplier+I186</f>
-        <v>236.05633902574306</v>
+        <v>236.05633928838034</v>
       </c>
       <c r="J187" s="12">
         <f>(testdata[[#This Row],[ema2]]-J186)*Multiplier+J186</f>
-        <v>234.82938785587737</v>
+        <v>234.82939193475363</v>
       </c>
       <c r="K187" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J186)/J186</f>
-        <v>5.5028813527618348E-2</v>
+        <v>5.5028641318597436E-2</v>
       </c>
       <c r="L187" s="18">
-        <f t="shared" si="1"/>
-        <v>5.0233436200257109E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.0233226669752287E-2</v>
       </c>
       <c r="P187" s="7">
         <v>186</v>
@@ -10682,19 +11081,19 @@
       </c>
       <c r="I188" s="2">
         <f>(testdata[[#This Row],[ema]]-I187)*Multiplier+I187</f>
-        <v>236.23579022931386</v>
+        <v>236.23579046693808</v>
       </c>
       <c r="J188" s="12">
         <f>(testdata[[#This Row],[ema2]]-J187)*Multiplier+J187</f>
-        <v>234.96333093906179</v>
+        <v>234.96333465210452</v>
       </c>
       <c r="K188" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J187)/J187</f>
-        <v>5.7038467121766315E-2</v>
+        <v>5.7038310344092846E-2</v>
       </c>
       <c r="L188" s="18">
-        <f t="shared" si="1"/>
-        <v>5.2721447045447359E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2721256250805058E-2</v>
       </c>
       <c r="P188" s="7">
         <v>187</v>
@@ -10737,19 +11136,19 @@
       </c>
       <c r="I189" s="2">
         <f>(testdata[[#This Row],[ema]]-I188)*Multiplier+I188</f>
-        <v>236.42354243695968</v>
+        <v>236.42354265195303</v>
       </c>
       <c r="J189" s="12">
         <f>(testdata[[#This Row],[ema2]]-J188)*Multiplier+J188</f>
-        <v>235.10239870076634</v>
+        <v>235.10240208066153</v>
       </c>
       <c r="K189" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J188)/J188</f>
-        <v>5.9187006393189114E-2</v>
+        <v>5.918686367084517E-2</v>
       </c>
       <c r="L189" s="18">
-        <f t="shared" si="1"/>
-        <v>5.4971398844285493E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.4971225127498725E-2</v>
       </c>
       <c r="P189" s="7">
         <v>188</v>
@@ -10792,19 +11191,19 @@
       </c>
       <c r="I190" s="2">
         <f>(testdata[[#This Row],[ema]]-I189)*Multiplier+I189</f>
-        <v>236.62581993630732</v>
+        <v>236.6258201308251</v>
       </c>
       <c r="J190" s="12">
         <f>(testdata[[#This Row],[ema2]]-J189)*Multiplier+J189</f>
-        <v>235.24748643748453</v>
+        <v>235.24748951401045</v>
       </c>
       <c r="K190" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J189)/J189</f>
-        <v>6.171257184953121E-2</v>
+        <v>6.1712441925260042E-2</v>
       </c>
       <c r="L190" s="18">
-        <f t="shared" si="1"/>
-        <v>5.7177870203815109E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.7177712048140338E-2</v>
       </c>
       <c r="P190" s="7">
         <v>189</v>
@@ -10847,19 +11246,19 @@
       </c>
       <c r="I191" s="2">
         <f>(testdata[[#This Row],[ema]]-I190)*Multiplier+I190</f>
-        <v>236.84286959054603</v>
+        <v>236.84286976653829</v>
       </c>
       <c r="J191" s="12">
         <f>(testdata[[#This Row],[ema2]]-J190)*Multiplier+J190</f>
-        <v>235.39942769015704</v>
+        <v>235.39943049044169</v>
       </c>
       <c r="K191" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J190)/J190</f>
-        <v>6.4587832573034604E-2</v>
+        <v>6.4587714302551669E-2</v>
       </c>
       <c r="L191" s="18">
-        <f t="shared" si="1"/>
-        <v>5.9510938293027914E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.9510794312269431E-2</v>
       </c>
       <c r="P191" s="7">
         <v>190</v>
@@ -10902,19 +11301,19 @@
       </c>
       <c r="I192" s="2">
         <f>(testdata[[#This Row],[ema]]-I191)*Multiplier+I191</f>
-        <v>237.07258262187932</v>
+        <v>237.07258278111041</v>
       </c>
       <c r="J192" s="12">
         <f>(testdata[[#This Row],[ema2]]-J191)*Multiplier+J191</f>
-        <v>235.55877577889248</v>
+        <v>235.55877832764824</v>
       </c>
       <c r="K192" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J191)/J191</f>
-        <v>6.7692640674208687E-2</v>
+        <v>6.7692533016991976E-2</v>
       </c>
       <c r="L192" s="18">
-        <f t="shared" si="1"/>
-        <v>6.2043703722345987E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.2043572651948341E-2</v>
       </c>
       <c r="P192" s="7">
         <v>191</v>
@@ -10957,19 +11356,19 @@
       </c>
       <c r="I193" s="2">
         <f>(testdata[[#This Row],[ema]]-I192)*Multiplier+I192</f>
-        <v>237.32363947862265</v>
+        <v>237.32363962268886</v>
       </c>
       <c r="J193" s="12">
         <f>(testdata[[#This Row],[ema2]]-J192)*Multiplier+J192</f>
-        <v>235.72685803600965</v>
+        <v>235.72686035574733</v>
       </c>
       <c r="K193" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J192)/J192</f>
-        <v>7.1354699718313097E-2</v>
+        <v>7.1354601722929969E-2</v>
       </c>
       <c r="L193" s="18">
-        <f t="shared" ref="L193:L256" si="2">AVERAGE(K189:K193)</f>
-        <v>6.490695024165534E-2</v>
+        <f t="shared" ref="L193:L256" si="3">AVERAGE(K189:K193)</f>
+        <v>6.4906830927715764E-2</v>
       </c>
       <c r="P193" s="7">
         <v>192</v>
@@ -11012,19 +11411,19 @@
       </c>
       <c r="I194" s="2">
         <f>(testdata[[#This Row],[ema]]-I193)*Multiplier+I193</f>
-        <v>237.58735142277197</v>
+        <v>237.58735155311757</v>
       </c>
       <c r="J194" s="12">
         <f>(testdata[[#This Row],[ema2]]-J193)*Multiplier+J193</f>
-        <v>235.90404788236796</v>
+        <v>235.90404999359211</v>
       </c>
       <c r="K194" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J193)/J193</f>
-        <v>7.5167440755202153E-2</v>
+        <v>7.5167351559924281E-2</v>
       </c>
       <c r="L194" s="18">
-        <f t="shared" si="2"/>
-        <v>6.8103037114057949E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.8102928505531582E-2</v>
       </c>
       <c r="P194" s="7">
         <v>193</v>
@@ -11067,19 +11466,19 @@
       </c>
       <c r="I195" s="2">
         <f>(testdata[[#This Row],[ema]]-I194)*Multiplier+I194</f>
-        <v>237.85540268387587</v>
+        <v>237.8554028018076</v>
       </c>
       <c r="J195" s="12">
         <f>(testdata[[#This Row],[ema2]]-J194)*Multiplier+J194</f>
-        <v>236.08989119679728</v>
+        <v>236.08989311818405</v>
       </c>
       <c r="K195" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J194)/J194</f>
-        <v>7.8779196922466418E-2</v>
+        <v>7.8779115745146636E-2</v>
       </c>
       <c r="L195" s="18">
-        <f t="shared" si="2"/>
-        <v>7.1516362128644997E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.1516263269508898E-2</v>
       </c>
       <c r="P195" s="7">
         <v>194</v>
@@ -11122,19 +11521,19 @@
       </c>
       <c r="I196" s="2">
         <f>(testdata[[#This Row],[ema]]-I195)*Multiplier+I195</f>
-        <v>238.13037976896203</v>
+        <v>238.13037987566219</v>
       </c>
       <c r="J196" s="12">
         <f>(testdata[[#This Row],[ema2]]-J195)*Multiplier+J195</f>
-        <v>236.28422344176536</v>
+        <v>236.28422519032483</v>
       </c>
       <c r="K196" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J195)/J195</f>
-        <v>8.2312819063519865E-2</v>
+        <v>8.2312745189604949E-2</v>
       </c>
       <c r="L196" s="18">
-        <f t="shared" si="2"/>
-        <v>7.5061359426742039E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.5061269446919571E-2</v>
       </c>
       <c r="P196" s="7">
         <v>195</v>
@@ -11177,19 +11576,19 @@
       </c>
       <c r="I197" s="2">
         <f>(testdata[[#This Row],[ema]]-I196)*Multiplier+I196</f>
-        <v>238.41206958447282</v>
+        <v>238.41206968101105</v>
       </c>
       <c r="J197" s="12">
         <f>(testdata[[#This Row],[ema2]]-J196)*Multiplier+J196</f>
-        <v>236.48687545535654</v>
+        <v>236.48687704658067</v>
       </c>
       <c r="K197" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J196)/J196</f>
-        <v>8.5766205902072137E-2</v>
+        <v>8.5766138680060652E-2</v>
       </c>
       <c r="L197" s="18">
-        <f t="shared" si="2"/>
-        <v>7.8676072472314729E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.8675990579533311E-2</v>
       </c>
       <c r="P197" s="7">
         <v>196</v>
@@ -11232,19 +11631,19 @@
       </c>
       <c r="I198" s="2">
         <f>(testdata[[#This Row],[ema]]-I197)*Multiplier+I197</f>
-        <v>238.69334338279822</v>
+        <v>238.69334347014234</v>
       </c>
       <c r="J198" s="12">
         <f>(testdata[[#This Row],[ema2]]-J197)*Multiplier+J197</f>
-        <v>236.69701525797004</v>
+        <v>236.69701670596748</v>
       </c>
       <c r="K198" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J197)/J197</f>
-        <v>8.8858970380014599E-2</v>
+        <v>8.8858909217791646E-2</v>
       </c>
       <c r="L198" s="18">
-        <f t="shared" si="2"/>
-        <v>8.2176926604655046E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.2176852078505641E-2</v>
       </c>
       <c r="P198" s="7">
         <v>197</v>
@@ -11287,19 +11686,19 @@
       </c>
       <c r="I199" s="2">
         <f>(testdata[[#This Row],[ema]]-I198)*Multiplier+I198</f>
-        <v>238.97444648407776</v>
+        <v>238.97444656310338</v>
       </c>
       <c r="J199" s="12">
         <f>(testdata[[#This Row],[ema2]]-J198)*Multiplier+J198</f>
-        <v>236.91391346998029</v>
+        <v>236.91391478759948</v>
       </c>
       <c r="K199" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J198)/J198</f>
-        <v>9.1635381111104419E-2</v>
+        <v>9.16353254681843E-2</v>
       </c>
       <c r="L199" s="18">
-        <f t="shared" si="2"/>
-        <v>8.5470514675835482E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5470446860157645E-2</v>
       </c>
       <c r="P199" s="7">
         <v>198</v>
@@ -11342,19 +11741,19 @@
       </c>
       <c r="I200" s="2">
         <f>(testdata[[#This Row],[ema]]-I199)*Multiplier+I199</f>
-        <v>239.25585336304738</v>
+        <v>239.25585343454676</v>
       </c>
       <c r="J200" s="12">
         <f>(testdata[[#This Row],[ema2]]-J199)*Multiplier+J199</f>
-        <v>237.1369553645581</v>
+        <v>237.13695656349921</v>
       </c>
       <c r="K200" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J199)/J199</f>
-        <v>9.4144700626069514E-2</v>
+        <v>9.4144650009136965E-2</v>
       </c>
       <c r="L200" s="18">
-        <f t="shared" si="2"/>
-        <v>8.8543615416556115E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.8543553712955705E-2</v>
       </c>
       <c r="P200" s="7">
         <v>199</v>
@@ -11397,19 +11796,19 @@
       </c>
       <c r="I201" s="2">
         <f>(testdata[[#This Row],[ema]]-I200)*Multiplier+I200</f>
-        <v>239.53649841940984</v>
+        <v>239.53649848409975</v>
       </c>
       <c r="J201" s="12">
         <f>(testdata[[#This Row],[ema2]]-J200)*Multiplier+J200</f>
-        <v>237.36548327454398</v>
+        <v>237.36548436546116</v>
       </c>
       <c r="K201" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J200)/J200</f>
-        <v>9.6369589309497586E-2</v>
+        <v>9.6369543268871108E-2</v>
       </c>
       <c r="L201" s="18">
-        <f t="shared" si="2"/>
-        <v>9.135496946575164E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.1354913328808934E-2</v>
       </c>
       <c r="P201" s="7">
         <v>200</v>
@@ -11452,19 +11851,19 @@
       </c>
       <c r="I202" s="2">
         <f>(testdata[[#This Row],[ema]]-I201)*Multiplier+I201</f>
-        <v>239.81615118963481</v>
+        <v>239.81615124816378</v>
       </c>
       <c r="J202" s="12">
         <f>(testdata[[#This Row],[ema2]]-J201)*Multiplier+J201</f>
-        <v>237.59888021883833</v>
+        <v>237.59888121143283</v>
       </c>
       <c r="K202" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J201)/J201</f>
-        <v>9.8328089271683058E-2</v>
+        <v>9.832804739728622E-2</v>
       </c>
       <c r="L202" s="18">
-        <f t="shared" si="2"/>
-        <v>9.3867346139673832E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.3867295072254039E-2</v>
       </c>
       <c r="P202" s="7">
         <v>201</v>
@@ -11507,19 +11906,19 @@
       </c>
       <c r="I203" s="2">
         <f>(testdata[[#This Row],[ema]]-I202)*Multiplier+I202</f>
-        <v>240.09299936490163</v>
+        <v>240.09299941785642</v>
       </c>
       <c r="J203" s="12">
         <f>(testdata[[#This Row],[ema2]]-J202)*Multiplier+J202</f>
-        <v>237.83641537560626</v>
+        <v>237.83641627871125</v>
       </c>
       <c r="K203" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J202)/J202</f>
-        <v>9.9973180239382231E-2</v>
+        <v>9.9973142157623748E-2</v>
       </c>
       <c r="L203" s="18">
-        <f t="shared" si="2"/>
-        <v>9.6090188111547362E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.6090141660220479E-2</v>
       </c>
       <c r="P203" s="7">
         <v>202</v>
@@ -11562,19 +11961,19 @@
       </c>
       <c r="I204" s="2">
         <f>(testdata[[#This Row],[ema]]-I203)*Multiplier+I203</f>
-        <v>240.37655989508693</v>
+        <v>240.3765599429984</v>
       </c>
       <c r="J204" s="12">
         <f>(testdata[[#This Row],[ema2]]-J203)*Multiplier+J203</f>
-        <v>238.07833390127109</v>
+        <v>238.07833472292907</v>
       </c>
       <c r="K204" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J203)/J203</f>
-        <v>0.10171635209132129</v>
+        <v>0.10171631746011577</v>
       </c>
       <c r="L204" s="18">
-        <f t="shared" si="2"/>
-        <v>9.8106382307590737E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.8106340058606772E-2</v>
       </c>
       <c r="P204" s="7">
         <v>203</v>
@@ -11617,19 +12016,19 @@
       </c>
       <c r="I205" s="2">
         <f>(testdata[[#This Row],[ema]]-I204)*Multiplier+I204</f>
-        <v>240.65433565884328</v>
+        <v>240.65433570219176</v>
       </c>
       <c r="J205" s="12">
         <f>(testdata[[#This Row],[ema2]]-J204)*Multiplier+J204</f>
-        <v>238.32366740199225</v>
+        <v>238.32366814952553</v>
       </c>
       <c r="K205" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J204)/J204</f>
-        <v>0.10304738642151989</v>
+        <v>0.10304735493129781</v>
       </c>
       <c r="L205" s="18">
-        <f t="shared" si="2"/>
-        <v>9.988691946668081E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.988688104303893E-2</v>
       </c>
       <c r="P205" s="7">
         <v>204</v>
@@ -11672,19 +12071,19 @@
       </c>
       <c r="I206" s="2">
         <f>(testdata[[#This Row],[ema]]-I205)*Multiplier+I205</f>
-        <v>240.92875676560217</v>
+        <v>240.92875680482223</v>
       </c>
       <c r="J206" s="12">
         <f>(testdata[[#This Row],[ema2]]-J205)*Multiplier+J205</f>
-        <v>238.57177115090749</v>
+        <v>238.57177183098236</v>
       </c>
       <c r="K206" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J205)/J205</f>
-        <v>0.10410369713585875</v>
+        <v>0.10410366850394566</v>
       </c>
       <c r="L206" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10143374103195305</v>
+        <f t="shared" si="3"/>
+        <v>0.10143370609005384</v>
       </c>
       <c r="P206" s="7">
         <v>205</v>
@@ -11727,19 +12126,19 @@
       </c>
       <c r="I207" s="2">
         <f>(testdata[[#This Row],[ema]]-I206)*Multiplier+I206</f>
-        <v>241.18696763289819</v>
+        <v>241.18696766838301</v>
       </c>
       <c r="J207" s="12">
         <f>(testdata[[#This Row],[ema2]]-J206)*Multiplier+J206</f>
-        <v>238.82083748252566</v>
+        <v>238.820838101211</v>
       </c>
       <c r="K207" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J206)/J206</f>
-        <v>0.10439891124445773</v>
+        <v>0.10439888521475672</v>
       </c>
       <c r="L207" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10264790542650799</v>
+        <f t="shared" si="3"/>
+        <v>0.10264787365354795</v>
       </c>
       <c r="P207" s="7">
         <v>206</v>
@@ -11782,19 +12181,19 @@
       </c>
       <c r="I208" s="2">
         <f>(testdata[[#This Row],[ema]]-I207)*Multiplier+I207</f>
-        <v>241.43237863644075</v>
+        <v>241.43237866854608</v>
       </c>
       <c r="J208" s="12">
         <f>(testdata[[#This Row],[ema2]]-J207)*Multiplier+J207</f>
-        <v>239.06955568766043</v>
+        <v>239.06955625048101</v>
       </c>
       <c r="K208" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J207)/J207</f>
-        <v>0.10414426469506163</v>
+        <v>0.10414424103336131</v>
       </c>
       <c r="L208" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10348212231764387</v>
+        <f t="shared" si="3"/>
+        <v>0.10348209342869545</v>
       </c>
       <c r="P208" s="7">
         <v>207</v>
@@ -11837,19 +12236,19 @@
       </c>
       <c r="I209" s="2">
         <f>(testdata[[#This Row],[ema]]-I208)*Multiplier+I208</f>
-        <v>241.68322638640242</v>
+        <v>241.68322641545012</v>
       </c>
       <c r="J209" s="12">
         <f>(testdata[[#This Row],[ema2]]-J208)*Multiplier+J208</f>
-        <v>239.31847670658823</v>
+        <v>239.31847721857332</v>
       </c>
       <c r="K209" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J208)/J208</f>
-        <v>0.10412075189239609</v>
+        <v>0.1041207303833802</v>
       </c>
       <c r="L209" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10396300227785882</v>
+        <f t="shared" si="3"/>
+        <v>0.10396297601334833</v>
       </c>
       <c r="P209" s="7">
         <v>208</v>
@@ -11892,19 +12291,19 @@
       </c>
       <c r="I210" s="2">
         <f>(testdata[[#This Row],[ema]]-I209)*Multiplier+I209</f>
-        <v>241.92790469068942</v>
+        <v>241.92790471697066</v>
       </c>
       <c r="J210" s="12">
         <f>(testdata[[#This Row],[ema2]]-J209)*Multiplier+J209</f>
-        <v>239.56699365745501</v>
+        <v>239.56699412318258</v>
       </c>
       <c r="K210" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J209)/J209</f>
-        <v>0.1038436121969287</v>
+        <v>0.10384359264591442</v>
       </c>
       <c r="L210" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10412224743294059</v>
+        <f t="shared" si="3"/>
+        <v>0.10412222355627168</v>
       </c>
       <c r="P210" s="7">
         <v>209</v>
@@ -11947,19 +12346,19 @@
       </c>
       <c r="I211" s="2">
         <f>(testdata[[#This Row],[ema]]-I210)*Multiplier+I210</f>
-        <v>242.16885083373896</v>
+        <v>242.16885085751721</v>
       </c>
       <c r="J211" s="12">
         <f>(testdata[[#This Row],[ema2]]-J210)*Multiplier+J210</f>
-        <v>239.81478957900586</v>
+        <v>239.81479000264304</v>
       </c>
       <c r="K211" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J210)/J210</f>
-        <v>0.1034349172094873</v>
+        <v>0.10343489943904413</v>
       </c>
       <c r="L211" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10398849144766628</v>
+        <f t="shared" si="3"/>
+        <v>0.10398846974329137</v>
       </c>
       <c r="P211" s="7">
         <v>210</v>
@@ -12002,19 +12401,19 @@
       </c>
       <c r="I212" s="2">
         <f>(testdata[[#This Row],[ema]]-I211)*Multiplier+I211</f>
-        <v>242.40745889338959</v>
+        <v>242.40745891490323</v>
       </c>
       <c r="J212" s="12">
         <f>(testdata[[#This Row],[ema2]]-J211)*Multiplier+J211</f>
-        <v>240.06171046609003</v>
+        <v>240.06171085142972</v>
       </c>
       <c r="K212" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J211)/J211</f>
-        <v>0.1029631606614594</v>
+        <v>0.10296314450996336</v>
       </c>
       <c r="L212" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10370134133106661</v>
+        <f t="shared" si="3"/>
+        <v>0.10370132160233267</v>
       </c>
       <c r="P212" s="7">
         <v>211</v>
@@ -12057,19 +12456,19 @@
       </c>
       <c r="I213" s="2">
         <f>(testdata[[#This Row],[ema]]-I212)*Multiplier+I212</f>
-        <v>242.64289579579395</v>
+        <v>242.64289581525867</v>
       </c>
       <c r="J213" s="12">
         <f>(testdata[[#This Row],[ema2]]-J212)*Multiplier+J212</f>
-        <v>240.30753764034756</v>
+        <v>240.30753799084201</v>
       </c>
       <c r="K213" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J212)/J212</f>
-        <v>0.10240165904851875</v>
+        <v>0.1024016443690277</v>
       </c>
       <c r="L213" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10335282020175804</v>
+        <f t="shared" si="3"/>
+        <v>0.10335280226946594</v>
       </c>
       <c r="P213" s="7">
         <v>212</v>
@@ -12112,19 +12511,19 @@
       </c>
       <c r="I214" s="2">
         <f>(testdata[[#This Row],[ema]]-I213)*Multiplier+I213</f>
-        <v>242.88103896718803</v>
+        <v>242.88103898479898</v>
       </c>
       <c r="J214" s="12">
         <f>(testdata[[#This Row],[ema2]]-J213)*Multiplier+J213</f>
-        <v>240.55263300480857</v>
+        <v>240.55263332359982</v>
       </c>
       <c r="K214" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J213)/J213</f>
-        <v>0.10199237479925667</v>
+        <v>0.10199236145773913</v>
       </c>
       <c r="L214" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10292714478313017</v>
+        <f t="shared" si="3"/>
+        <v>0.10292712848433774</v>
       </c>
       <c r="P214" s="7">
         <v>213</v>
@@ -12167,19 +12566,19 @@
       </c>
       <c r="I215" s="2">
         <f>(testdata[[#This Row],[ema]]-I214)*Multiplier+I214</f>
-        <v>243.12277486062231</v>
+        <v>243.12277487655601</v>
       </c>
       <c r="J215" s="12">
         <f>(testdata[[#This Row],[ema2]]-J214)*Multiplier+J214</f>
-        <v>240.79740841964798</v>
+        <v>240.79740870959566</v>
       </c>
       <c r="K215" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J214)/J214</f>
-        <v>0.10175545026543804</v>
+        <v>0.10175543814004165</v>
       </c>
       <c r="L215" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10250951239683204</v>
+        <f t="shared" si="3"/>
+        <v>0.10250949758316319</v>
       </c>
       <c r="P215" s="7">
         <v>214</v>
@@ -12222,19 +12621,19 @@
       </c>
       <c r="I216" s="2">
         <f>(testdata[[#This Row],[ema]]-I215)*Multiplier+I215</f>
-        <v>243.36362646626242</v>
+        <v>243.36362648067862</v>
       </c>
       <c r="J216" s="12">
         <f>(testdata[[#This Row],[ema2]]-J215)*Multiplier+J215</f>
-        <v>241.04181013837317</v>
+        <v>241.04181040207976</v>
       </c>
       <c r="K216" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J215)/J215</f>
-        <v>0.10149682271466001</v>
+        <v>0.10149681169486954</v>
       </c>
       <c r="L216" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10212189349786657</v>
+        <f t="shared" si="3"/>
+        <v>0.10212188003432827</v>
       </c>
       <c r="P216" s="7">
         <v>215</v>
@@ -12277,19 +12676,19 @@
       </c>
       <c r="I217" s="2">
         <f>(testdata[[#This Row],[ema]]-I216)*Multiplier+I216</f>
-        <v>243.60546983082256</v>
+        <v>243.60546984386579</v>
       </c>
       <c r="J217" s="12">
         <f>(testdata[[#This Row],[ema2]]-J216)*Multiplier+J216</f>
-        <v>241.28596820432074</v>
+        <v>241.28596844415463</v>
       </c>
       <c r="K217" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J216)/J216</f>
-        <v>0.1012928279153775</v>
+        <v>0.10129281790059334</v>
       </c>
       <c r="L217" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10178782694865021</v>
+        <f t="shared" si="3"/>
+        <v>0.10178781471245427</v>
       </c>
       <c r="P217" s="7">
         <v>216</v>
@@ -12332,19 +12731,19 @@
       </c>
       <c r="I218" s="2">
         <f>(testdata[[#This Row],[ema]]-I217)*Multiplier+I217</f>
-        <v>243.83776818747319</v>
+        <v>243.83776819927419</v>
       </c>
       <c r="J218" s="12">
         <f>(testdata[[#This Row],[ema2]]-J217)*Multiplier+J217</f>
-        <v>241.52899677414479</v>
+        <v>241.52899699226126</v>
       </c>
       <c r="K218" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J217)/J217</f>
-        <v>0.10072221423926808</v>
+        <v>0.10072220513845205</v>
       </c>
       <c r="L218" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10145193798680005</v>
+        <f t="shared" si="3"/>
+        <v>0.10145192686633915</v>
       </c>
       <c r="P218" s="7">
         <v>217</v>
@@ -12387,19 +12786,19 @@
       </c>
       <c r="I219" s="2">
         <f>(testdata[[#This Row],[ema]]-I218)*Multiplier+I218</f>
-        <v>244.05942041876793</v>
+        <v>244.05942042944503</v>
       </c>
       <c r="J219" s="12">
         <f>(testdata[[#This Row],[ema2]]-J218)*Multiplier+J218</f>
-        <v>241.76998950220414</v>
+        <v>241.76998970056448</v>
       </c>
       <c r="K219" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J218)/J218</f>
-        <v>9.977796922027847E-2</v>
+        <v>9.977796095056278E-2</v>
       </c>
       <c r="L219" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10100905687100444</v>
+        <f t="shared" si="3"/>
+        <v>0.10100904676490388</v>
       </c>
       <c r="P219" s="7">
         <v>218</v>
@@ -12442,19 +12841,19 @@
       </c>
       <c r="I220" s="2">
         <f>(testdata[[#This Row],[ema]]-I219)*Multiplier+I219</f>
-        <v>244.27243351133558</v>
+        <v>244.2724335209958</v>
       </c>
       <c r="J220" s="12">
         <f>(testdata[[#This Row],[ema2]]-J219)*Multiplier+J219</f>
-        <v>242.00831750307381</v>
+        <v>242.00831768346271</v>
       </c>
       <c r="K220" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J219)/J219</f>
-        <v>9.8576337518308396E-2</v>
+        <v>9.8576330004149532E-2</v>
       </c>
       <c r="L220" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10037323432157849</v>
+        <f t="shared" si="3"/>
+        <v>0.10037322513772544</v>
       </c>
       <c r="P220" s="7">
         <v>219</v>
@@ -12497,19 +12896,19 @@
       </c>
       <c r="I221" s="2">
         <f>(testdata[[#This Row],[ema]]-I220)*Multiplier+I220</f>
-        <v>244.47118179335729</v>
+        <v>244.4711818020975</v>
       </c>
       <c r="J221" s="12">
         <f>(testdata[[#This Row],[ema2]]-J220)*Multiplier+J220</f>
-        <v>242.24287600691034</v>
+        <v>242.24287617095175</v>
       </c>
       <c r="K221" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J220)/J220</f>
-        <v>9.6921670402317944E-2</v>
+        <v>9.6921663575147199E-2</v>
       </c>
       <c r="L221" s="18">
-        <f t="shared" si="2"/>
-        <v>9.9458203859110084E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.9458195513780989E-2</v>
       </c>
       <c r="P221" s="7">
         <v>220</v>
@@ -12552,19 +12951,19 @@
       </c>
       <c r="I222" s="2">
         <f>(testdata[[#This Row],[ema]]-I221)*Multiplier+I221</f>
-        <v>244.64529381747613</v>
+        <v>244.64529382538393</v>
       </c>
       <c r="J222" s="12">
         <f>(testdata[[#This Row],[ema2]]-J221)*Multiplier+J221</f>
-        <v>242.47167770315471</v>
+        <v>242.47167785232625</v>
       </c>
       <c r="K222" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J221)/J221</f>
-        <v>9.445136220965604E-2</v>
+        <v>9.4451356007282425E-2</v>
       </c>
       <c r="L222" s="18">
-        <f t="shared" si="2"/>
-        <v>9.8089910717965786E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.8089903135118797E-2</v>
       </c>
       <c r="P222" s="7">
         <v>221</v>
@@ -12607,19 +13006,19 @@
       </c>
       <c r="I223" s="2">
         <f>(testdata[[#This Row],[ema]]-I222)*Multiplier+I222</f>
-        <v>244.81661641483893</v>
+        <v>244.81661642199361</v>
       </c>
       <c r="J223" s="12">
         <f>(testdata[[#This Row],[ema2]]-J222)*Multiplier+J222</f>
-        <v>242.6950051995056</v>
+        <v>242.69500533515171</v>
       </c>
       <c r="K223" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J222)/J222</f>
-        <v>9.2104570095109625E-2</v>
+        <v>9.2104564460294594E-2</v>
       </c>
       <c r="L223" s="18">
-        <f t="shared" si="2"/>
-        <v>9.6366381889134101E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.6366374999487303E-2</v>
       </c>
       <c r="P223" s="7">
         <v>222</v>
@@ -12662,19 +13061,19 @@
       </c>
       <c r="I224" s="2">
         <f>(testdata[[#This Row],[ema]]-I223)*Multiplier+I223</f>
-        <v>244.97748034225077</v>
+        <v>244.97748034872404</v>
       </c>
       <c r="J224" s="12">
         <f>(testdata[[#This Row],[ema2]]-J223)*Multiplier+J223</f>
-        <v>242.91238378452894</v>
+        <v>242.91238390787288</v>
       </c>
       <c r="K224" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J223)/J223</f>
-        <v>8.956862744029101E-2</v>
+        <v>8.9568622321247571E-2</v>
       </c>
       <c r="L224" s="18">
-        <f t="shared" si="2"/>
-        <v>9.4324513533136603E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.4324507273624264E-2</v>
       </c>
       <c r="P224" s="7">
         <v>223</v>
@@ -12717,19 +13116,19 @@
       </c>
       <c r="I225" s="2">
         <f>(testdata[[#This Row],[ema]]-I224)*Multiplier+I224</f>
-        <v>245.13213330466951</v>
+        <v>245.13213331052629</v>
       </c>
       <c r="J225" s="12">
         <f>(testdata[[#This Row],[ema2]]-J224)*Multiplier+J224</f>
-        <v>243.12378850073281</v>
+        <v>243.12378861288749</v>
       </c>
       <c r="K225" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J224)/J224</f>
-        <v>8.7029204896937565E-2</v>
+        <v>8.7029200246453053E-2</v>
       </c>
       <c r="L225" s="18">
-        <f t="shared" si="2"/>
-        <v>9.2015087008862434E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.2015081322084968E-2</v>
       </c>
       <c r="P225" s="7">
         <v>224</v>
@@ -12772,19 +13171,19 @@
       </c>
       <c r="I226" s="2">
         <f>(testdata[[#This Row],[ema]]-I225)*Multiplier+I225</f>
-        <v>245.29499313735542</v>
+        <v>245.29499314265442</v>
       </c>
       <c r="J226" s="12">
         <f>(testdata[[#This Row],[ema2]]-J225)*Multiplier+J225</f>
-        <v>243.33056989469688</v>
+        <v>243.33056999667483</v>
       </c>
       <c r="K226" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J225)/J225</f>
-        <v>8.5051896911947422E-2</v>
+        <v>8.50518926868883E-2</v>
       </c>
       <c r="L226" s="18">
-        <f t="shared" si="2"/>
-        <v>8.9641132310788324E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.9641127144433189E-2</v>
       </c>
       <c r="P226" s="7">
         <v>225</v>
@@ -12827,19 +13226,19 @@
       </c>
       <c r="I227" s="2">
         <f>(testdata[[#This Row],[ema]]-I226)*Multiplier+I226</f>
-        <v>245.46109841411322</v>
+        <v>245.46109841890757</v>
       </c>
       <c r="J227" s="12">
         <f>(testdata[[#This Row],[ema2]]-J226)*Multiplier+J226</f>
-        <v>243.53347737273654</v>
+        <v>243.5334774654589</v>
       </c>
       <c r="K227" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J226)/J226</f>
-        <v>8.3387581809993061E-2</v>
+        <v>8.3387577971337085E-2</v>
       </c>
       <c r="L227" s="18">
-        <f t="shared" si="2"/>
-        <v>8.7428376230855726E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.7428371537244115E-2</v>
       </c>
       <c r="P227" s="7">
         <v>226</v>
@@ -12882,19 +13281,19 @@
       </c>
       <c r="I228" s="2">
         <f>(testdata[[#This Row],[ema]]-I227)*Multiplier+I227</f>
-        <v>245.63352383645588</v>
+        <v>245.63352384079363</v>
       </c>
       <c r="J228" s="12">
         <f>(testdata[[#This Row],[ema2]]-J227)*Multiplier+J227</f>
-        <v>243.73348179785268</v>
+        <v>243.73348188215743</v>
       </c>
       <c r="K228" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J227)/J227</f>
-        <v>8.212604988595483E-2</v>
+        <v>8.2126046398241309E-2</v>
       </c>
       <c r="L228" s="18">
-        <f t="shared" si="2"/>
-        <v>8.5432672189024783E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5432667924833464E-2</v>
       </c>
       <c r="P228" s="7">
         <v>227</v>
@@ -12937,19 +13336,19 @@
       </c>
       <c r="I229" s="2">
         <f>(testdata[[#This Row],[ema]]-I228)*Multiplier+I228</f>
-        <v>245.80847050792954</v>
+        <v>245.80847051185415</v>
       </c>
       <c r="J229" s="12">
         <f>(testdata[[#This Row],[ema2]]-J228)*Multiplier+J228</f>
-        <v>243.93109977024096</v>
+        <v>243.93109984689045</v>
       </c>
       <c r="K229" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J228)/J228</f>
-        <v>8.1079534469616535E-2</v>
+        <v>8.1079531300734031E-2</v>
       </c>
       <c r="L229" s="18">
-        <f t="shared" si="2"/>
-        <v>8.3734853594889885E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3734849720730739E-2</v>
       </c>
       <c r="P229" s="7">
         <v>228</v>
@@ -12992,19 +13391,19 @@
       </c>
       <c r="I230" s="2">
         <f>(testdata[[#This Row],[ema]]-I229)*Multiplier+I229</f>
-        <v>246.00684208700045</v>
+        <v>246.00684209055129</v>
       </c>
       <c r="J230" s="12">
         <f>(testdata[[#This Row],[ema2]]-J229)*Multiplier+J229</f>
-        <v>244.12878951469423</v>
+        <v>244.12878958438196</v>
       </c>
       <c r="K230" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J229)/J229</f>
-        <v>8.1043271907303038E-2</v>
+        <v>8.1043269027852707E-2</v>
       </c>
       <c r="L230" s="18">
-        <f t="shared" si="2"/>
-        <v>8.253766699696298E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.2537663477010678E-2</v>
       </c>
       <c r="P230" s="7">
         <v>229</v>
@@ -13047,19 +13446,19 @@
       </c>
       <c r="I231" s="2">
         <f>(testdata[[#This Row],[ema]]-I230)*Multiplier+I230</f>
-        <v>246.22122932440769</v>
+        <v>246.22122932762036</v>
       </c>
       <c r="J231" s="12">
         <f>(testdata[[#This Row],[ema2]]-J230)*Multiplier+J230</f>
-        <v>244.32806949657171</v>
+        <v>244.32806955992848</v>
       </c>
       <c r="K231" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J230)/J230</f>
-        <v>8.1629037801576668E-2</v>
+        <v>8.1629035184986626E-2</v>
       </c>
       <c r="L231" s="18">
-        <f t="shared" si="2"/>
-        <v>8.1853095174888826E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.1853091976630349E-2</v>
       </c>
       <c r="P231" s="7">
         <v>230</v>
@@ -13102,19 +13501,19 @@
       </c>
       <c r="I232" s="2">
         <f>(testdata[[#This Row],[ema]]-I231)*Multiplier+I231</f>
-        <v>246.46673697839043</v>
+        <v>246.46673698129712</v>
       </c>
       <c r="J232" s="12">
         <f>(testdata[[#This Row],[ema2]]-J231)*Multiplier+J231</f>
-        <v>244.53175211388779</v>
+        <v>244.5317521714874</v>
       </c>
       <c r="K232" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J231)/J231</f>
-        <v>8.3364395149421885E-2</v>
+        <v>8.3364392771481735E-2</v>
       </c>
       <c r="L232" s="18">
-        <f t="shared" si="2"/>
-        <v>8.1848457842774586E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.1848454936659279E-2</v>
       </c>
       <c r="P232" s="7">
         <v>231</v>
@@ -13157,19 +13556,19 @@
       </c>
       <c r="I233" s="2">
         <f>(testdata[[#This Row],[ema]]-I232)*Multiplier+I232</f>
-        <v>246.73068553887614</v>
+        <v>246.73068554150601</v>
       </c>
       <c r="J233" s="12">
         <f>(testdata[[#This Row],[ema2]]-J232)*Multiplier+J232</f>
-        <v>244.74117434483907</v>
+        <v>244.74117439720345</v>
       </c>
       <c r="K233" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J232)/J232</f>
-        <v>8.5642142233430668E-2</v>
+        <v>8.5642140072340528E-2</v>
       </c>
       <c r="L233" s="18">
-        <f t="shared" si="2"/>
-        <v>8.2551676312269756E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.2551673671479128E-2</v>
       </c>
       <c r="P233" s="7">
         <v>232</v>
@@ -13212,19 +13611,19 @@
       </c>
       <c r="I234" s="2">
         <f>(testdata[[#This Row],[ema]]-I233)*Multiplier+I233</f>
-        <v>247.00461453701638</v>
+        <v>247.00461453939579</v>
       </c>
       <c r="J234" s="12">
         <f>(testdata[[#This Row],[ema2]]-J233)*Multiplier+J233</f>
-        <v>244.95674007742738</v>
+        <v>244.9567401250313</v>
       </c>
       <c r="K234" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J233)/J233</f>
-        <v>8.8079062775348896E-2</v>
+        <v>8.807906081140153E-2</v>
       </c>
       <c r="L234" s="18">
-        <f t="shared" si="2"/>
-        <v>8.395158197341622E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3951579573612628E-2</v>
       </c>
       <c r="P234" s="7">
         <v>233</v>
@@ -13267,19 +13666,19 @@
       </c>
       <c r="I235" s="2">
         <f>(testdata[[#This Row],[ema]]-I234)*Multiplier+I234</f>
-        <v>247.27597487756185</v>
+        <v>247.27597487971465</v>
       </c>
       <c r="J235" s="12">
         <f>(testdata[[#This Row],[ema2]]-J234)*Multiplier+J234</f>
-        <v>245.17761958220208</v>
+        <v>245.17761962547735</v>
       </c>
       <c r="K235" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J234)/J234</f>
-        <v>9.0170821470306722E-2</v>
+        <v>9.0170819685673392E-2</v>
       </c>
       <c r="L235" s="18">
-        <f t="shared" si="2"/>
-        <v>8.5777091886016968E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5777089705176765E-2</v>
       </c>
       <c r="P235" s="7">
         <v>234</v>
@@ -13322,19 +13721,19 @@
       </c>
       <c r="I236" s="2">
         <f>(testdata[[#This Row],[ema]]-I235)*Multiplier+I235</f>
-        <v>247.54313402365409</v>
+        <v>247.54313402560186</v>
       </c>
       <c r="J236" s="12">
         <f>(testdata[[#This Row],[ema2]]-J235)*Multiplier+J235</f>
-        <v>245.40290667186417</v>
+        <v>245.40290671120349</v>
       </c>
       <c r="K236" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J235)/J235</f>
-        <v>9.1887297888768274E-2</v>
+        <v>9.1887296267202462E-2</v>
       </c>
       <c r="L236" s="18">
-        <f t="shared" si="2"/>
-        <v>8.782874390345527E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.7828741921619935E-2</v>
       </c>
       <c r="P236" s="7">
         <v>235</v>
@@ -13377,19 +13776,19 @@
       </c>
       <c r="I237" s="2">
         <f>(testdata[[#This Row],[ema]]-I236)*Multiplier+I236</f>
-        <v>247.81168712035404</v>
+        <v>247.8116871221163</v>
       </c>
       <c r="J237" s="12">
         <f>(testdata[[#This Row],[ema2]]-J236)*Multiplier+J236</f>
-        <v>245.63231433362512</v>
+        <v>245.63231436938565</v>
       </c>
       <c r="K237" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J236)/J236</f>
-        <v>9.3482047491675782E-2</v>
+        <v>9.3482046018363324E-2</v>
       </c>
       <c r="L237" s="18">
-        <f t="shared" si="2"/>
-        <v>8.9852274371906057E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.9852272570996233E-2</v>
       </c>
       <c r="P237" s="7">
         <v>236</v>
@@ -13432,19 +13831,19 @@
       </c>
       <c r="I238" s="2">
         <f>(testdata[[#This Row],[ema]]-I237)*Multiplier+I237</f>
-        <v>248.0914624478535</v>
+        <v>248.09146244944793</v>
       </c>
       <c r="J238" s="12">
         <f>(testdata[[#This Row],[ema2]]-J237)*Multiplier+J237</f>
-        <v>245.86651891593257</v>
+        <v>245.86651894843919</v>
       </c>
       <c r="K238" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J237)/J237</f>
-        <v>9.5347626774118996E-2</v>
+        <v>9.5347625435527578E-2</v>
       </c>
       <c r="L238" s="18">
-        <f t="shared" si="2"/>
-        <v>9.1793371280043737E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.1793369643633646E-2</v>
       </c>
       <c r="P238" s="7">
         <v>237</v>
@@ -13487,19 +13886,19 @@
       </c>
       <c r="I239" s="2">
         <f>(testdata[[#This Row],[ema]]-I238)*Multiplier+I238</f>
-        <v>248.3848707096129</v>
+        <v>248.38487071105547</v>
       </c>
       <c r="J239" s="12">
         <f>(testdata[[#This Row],[ema2]]-J238)*Multiplier+J238</f>
-        <v>246.10636194390213</v>
+        <v>246.10636197345028</v>
       </c>
       <c r="K239" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J238)/J238</f>
-        <v>9.755009711247585E-2</v>
+        <v>9.7550095896294473E-2</v>
       </c>
       <c r="L239" s="18">
-        <f t="shared" si="2"/>
-        <v>9.3687578147469128E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.3687576660612254E-2</v>
       </c>
       <c r="P239" s="7">
         <v>238</v>
@@ -13542,19 +13941,19 @@
       </c>
       <c r="I240" s="2">
         <f>(testdata[[#This Row],[ema]]-I239)*Multiplier+I239</f>
-        <v>248.69085914420856</v>
+        <v>248.69085914551374</v>
       </c>
       <c r="J240" s="12">
         <f>(testdata[[#This Row],[ema2]]-J239)*Multiplier+J239</f>
-        <v>246.3525045344075</v>
+        <v>246.35250456126585</v>
       </c>
       <c r="K240" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J239)/J239</f>
-        <v>0.10001472069278636</v>
+        <v>0.10001471958783538</v>
       </c>
       <c r="L240" s="18">
-        <f t="shared" si="2"/>
-        <v>9.5656357991965063E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.5656356641044632E-2</v>
       </c>
       <c r="P240" s="7">
         <v>239</v>
@@ -13597,19 +13996,19 @@
       </c>
       <c r="I241" s="2">
         <f>(testdata[[#This Row],[ema]]-I240)*Multiplier+I240</f>
-        <v>249.00409811997321</v>
+        <v>249.00409812115407</v>
       </c>
       <c r="J241" s="12">
         <f>(testdata[[#This Row],[ema2]]-J240)*Multiplier+J240</f>
-        <v>246.60503725684234</v>
+        <v>246.60503728125519</v>
       </c>
       <c r="K241" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J240)/J240</f>
-        <v>0.10250868888550928</v>
+        <v>0.10250868788165454</v>
       </c>
       <c r="L241" s="18">
-        <f t="shared" si="2"/>
-        <v>9.7780636191313261E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.7780634963935048E-2</v>
       </c>
       <c r="P241" s="7">
         <v>240</v>
@@ -13652,19 +14051,19 @@
       </c>
       <c r="I242" s="2">
         <f>(testdata[[#This Row],[ema]]-I241)*Multiplier+I241</f>
-        <v>249.31090736661977</v>
+        <v>249.31090736768817</v>
       </c>
       <c r="J242" s="12">
         <f>(testdata[[#This Row],[ema2]]-J241)*Multiplier+J241</f>
-        <v>246.86273917205924</v>
+        <v>246.8627391942488</v>
       </c>
       <c r="K242" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J241)/J241</f>
-        <v>0.10449985859311495</v>
+        <v>0.10449985768121159</v>
       </c>
       <c r="L242" s="18">
-        <f t="shared" si="2"/>
-        <v>9.9984198411601083E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.998419729650472E-2</v>
       </c>
       <c r="P242" s="7">
         <v>241</v>
@@ -13707,19 +14106,19 @@
       </c>
       <c r="I243" s="2">
         <f>(testdata[[#This Row],[ema]]-I242)*Multiplier+I242</f>
-        <v>249.6288994495516</v>
+        <v>249.62889945051825</v>
       </c>
       <c r="J243" s="12">
         <f>(testdata[[#This Row],[ema2]]-J242)*Multiplier+J242</f>
-        <v>247.12618300801088</v>
+        <v>247.12618302817921</v>
       </c>
       <c r="K243" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J242)/J242</f>
-        <v>0.10671672721253896</v>
+        <v>0.10671672638417649</v>
       </c>
       <c r="L243" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10225801849928509</v>
+        <f t="shared" si="3"/>
+        <v>0.1022580174862345</v>
       </c>
       <c r="P243" s="7">
         <v>242</v>
@@ -13762,19 +14161,19 @@
       </c>
       <c r="I244" s="2">
         <f>(testdata[[#This Row],[ema]]-I243)*Multiplier+I243</f>
-        <v>249.96794603490349</v>
+        <v>249.96794603577808</v>
       </c>
       <c r="J244" s="12">
         <f>(testdata[[#This Row],[ema2]]-J243)*Multiplier+J243</f>
-        <v>247.39682710581019</v>
+        <v>247.396827124141</v>
       </c>
       <c r="K244" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J243)/J243</f>
-        <v>0.10951656133924595</v>
+        <v>0.10951656058675262</v>
       </c>
       <c r="L244" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10465131134463909</v>
+        <f t="shared" si="3"/>
+        <v>0.10465131042432614</v>
       </c>
       <c r="P244" s="7">
         <v>243</v>
@@ -13817,19 +14216,19 @@
       </c>
       <c r="I245" s="2">
         <f>(testdata[[#This Row],[ema]]-I244)*Multiplier+I244</f>
-        <v>250.31217286749401</v>
+        <v>250.3121728682853</v>
       </c>
       <c r="J245" s="12">
         <f>(testdata[[#This Row],[ema2]]-J244)*Multiplier+J244</f>
-        <v>247.6744790831134</v>
+        <v>247.67447909977378</v>
       </c>
       <c r="K245" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J244)/J244</f>
-        <v>0.11222940106036916</v>
+        <v>0.11222940037685122</v>
       </c>
       <c r="L245" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10709424741815565</v>
+        <f t="shared" si="3"/>
+        <v>0.10709424658212929</v>
       </c>
       <c r="P245" s="7">
         <v>244</v>
@@ -13872,19 +14271,19 @@
       </c>
       <c r="I246" s="2">
         <f>(testdata[[#This Row],[ema]]-I245)*Multiplier+I245</f>
-        <v>250.65624813981873</v>
+        <v>250.65624814053464</v>
       </c>
       <c r="J246" s="12">
         <f>(testdata[[#This Row],[ema2]]-J245)*Multiplier+J245</f>
-        <v>247.95845708851391</v>
+        <v>247.95845710365577</v>
       </c>
       <c r="K246" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J245)/J245</f>
-        <v>0.11465775822030386</v>
+        <v>0.11465775759948192</v>
       </c>
       <c r="L246" s="18">
-        <f t="shared" si="2"/>
-        <v>0.10952406128511458</v>
+        <f t="shared" si="3"/>
+        <v>0.10952406052569477</v>
       </c>
       <c r="P246" s="7">
         <v>245</v>
@@ -13927,19 +14326,19 @@
       </c>
       <c r="I247" s="2">
         <f>(testdata[[#This Row],[ema]]-I246)*Multiplier+I246</f>
-        <v>251.00188573789117</v>
+        <v>251.0018857385389</v>
       </c>
       <c r="J247" s="12">
         <f>(testdata[[#This Row],[ema2]]-J246)*Multiplier+J246</f>
-        <v>248.24830743607365</v>
+        <v>248.24830744983512</v>
       </c>
       <c r="K247" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J246)/J246</f>
-        <v>0.11689472138321423</v>
+        <v>0.11689472081937557</v>
       </c>
       <c r="L247" s="18">
-        <f t="shared" si="2"/>
-        <v>0.11200303384313444</v>
+        <f t="shared" si="3"/>
+        <v>0.11200303315332757</v>
       </c>
       <c r="P247" s="7">
         <v>246</v>
@@ -13982,19 +14381,19 @@
       </c>
       <c r="I248" s="2">
         <f>(testdata[[#This Row],[ema]]-I247)*Multiplier+I247</f>
-        <v>251.34512299401948</v>
+        <v>251.34512299460553</v>
       </c>
       <c r="J248" s="12">
         <f>(testdata[[#This Row],[ema2]]-J247)*Multiplier+J247</f>
-        <v>248.54324225111611</v>
+        <v>248.54324226362277</v>
       </c>
       <c r="K248" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J247)/J247</f>
-        <v>0.11880637499146514</v>
+        <v>0.11880637447941009</v>
       </c>
       <c r="L248" s="18">
-        <f t="shared" si="2"/>
-        <v>0.11442096339891968</v>
+        <f t="shared" si="3"/>
+        <v>0.11442096277237428</v>
       </c>
       <c r="P248" s="7">
         <v>247</v>
@@ -14037,19 +14436,19 @@
       </c>
       <c r="I249" s="2">
         <f>(testdata[[#This Row],[ema]]-I248)*Multiplier+I248</f>
-        <v>251.68047028990665</v>
+        <v>251.68047029043689</v>
       </c>
       <c r="J249" s="12">
         <f>(testdata[[#This Row],[ema2]]-J248)*Multiplier+J248</f>
-        <v>248.84202587385806</v>
+        <v>248.8420258852241</v>
       </c>
       <c r="K249" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J248)/J248</f>
-        <v>0.12021393944803943</v>
+        <v>0.12021393898306812</v>
       </c>
       <c r="L249" s="18">
-        <f t="shared" si="2"/>
-        <v>0.11656043902067836</v>
+        <f t="shared" si="3"/>
+        <v>0.11656043845163737</v>
       </c>
       <c r="P249" s="7">
         <v>248</v>
@@ -14092,19 +14491,19 @@
       </c>
       <c r="I250" s="2">
         <f>(testdata[[#This Row],[ema]]-I249)*Multiplier+I249</f>
-        <v>252.00740564740244</v>
+        <v>252.00740564788217</v>
       </c>
       <c r="J250" s="12">
         <f>(testdata[[#This Row],[ema2]]-J249)*Multiplier+J249</f>
-        <v>249.14349061419563</v>
+        <v>249.14349062452487</v>
       </c>
       <c r="K250" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J249)/J249</f>
-        <v>0.12114703667071976</v>
+        <v>0.12114703624853819</v>
       </c>
       <c r="L250" s="18">
-        <f t="shared" si="2"/>
-        <v>0.11834396614274849</v>
+        <f t="shared" si="3"/>
+        <v>0.11834396562597478</v>
       </c>
       <c r="P250" s="7">
         <v>249</v>
@@ -14147,19 +14546,19 @@
       </c>
       <c r="I251" s="2">
         <f>(testdata[[#This Row],[ema]]-I250)*Multiplier+I250</f>
-        <v>252.32929689789307</v>
+        <v>252.3292968983271</v>
       </c>
       <c r="J251" s="16">
         <f>(testdata[[#This Row],[ema2]]-J250)*Multiplier+J250</f>
-        <v>249.44690073645253</v>
+        <v>249.44690074583937</v>
       </c>
       <c r="K251" s="19">
         <f>100*(testdata[[#This Row],[ema3]]-J250)/J250</f>
-        <v>0.12178127612683401</v>
+        <v>0.12178127574352632</v>
       </c>
       <c r="L251" s="19">
-        <f t="shared" si="2"/>
-        <v>0.11976866972405451</v>
+        <f t="shared" si="3"/>
+        <v>0.11976866925478365</v>
       </c>
       <c r="P251" s="7">
         <v>250</v>
@@ -14202,19 +14601,19 @@
       </c>
       <c r="I252" s="2">
         <f>(testdata[[#This Row],[ema]]-I251)*Multiplier+I251</f>
-        <v>252.63534123765621</v>
+        <v>252.63534123804891</v>
       </c>
       <c r="J252" s="12">
         <f>(testdata[[#This Row],[ema2]]-J251)*Multiplier+J251</f>
-        <v>249.75056173656716</v>
+        <v>249.75056174509743</v>
       </c>
       <c r="K252" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J251)/J251</f>
-        <v>0.12173372337684651</v>
+        <v>0.1217337230288765</v>
       </c>
       <c r="L252" s="18">
-        <f t="shared" si="2"/>
-        <v>0.12073647012278096</v>
+        <f t="shared" si="3"/>
+        <v>0.12073646969668383</v>
       </c>
       <c r="P252" s="7">
         <v>251</v>
@@ -14257,19 +14656,19 @@
       </c>
       <c r="I253" s="2">
         <f>(testdata[[#This Row],[ema]]-I252)*Multiplier+I252</f>
-        <v>252.94232681975114</v>
+        <v>252.94232682010644</v>
       </c>
       <c r="J253" s="12">
         <f>(testdata[[#This Row],[ema2]]-J252)*Multiplier+J252</f>
-        <v>250.05453936353706</v>
+        <v>250.05453937128877</v>
       </c>
       <c r="K253" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J252)/J252</f>
-        <v>0.12171248979633</v>
+        <v>0.1217124894804395</v>
       </c>
       <c r="L253" s="18">
-        <f t="shared" si="2"/>
-        <v>0.12131769308375392</v>
+        <f t="shared" si="3"/>
+        <v>0.12131769269688975</v>
       </c>
       <c r="P253" s="7">
         <v>252</v>
@@ -14312,19 +14711,19 @@
       </c>
       <c r="I254" s="2">
         <f>(testdata[[#This Row],[ema]]-I253)*Multiplier+I253</f>
-        <v>253.26217373099212</v>
+        <v>253.2621737313136</v>
       </c>
       <c r="J254" s="12">
         <f>(testdata[[#This Row],[ema2]]-J253)*Multiplier+J253</f>
-        <v>250.36002835091372</v>
+        <v>250.36002835795779</v>
       </c>
       <c r="K254" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J253)/J253</f>
-        <v>0.12216894288510925</v>
+        <v>0.12216894259832627</v>
       </c>
       <c r="L254" s="18">
-        <f t="shared" si="2"/>
-        <v>0.12170869377116791</v>
+        <f t="shared" si="3"/>
+        <v>0.12170869341994135</v>
       </c>
       <c r="P254" s="7">
         <v>253</v>
@@ -14367,19 +14766,19 @@
       </c>
       <c r="I255" s="2">
         <f>(testdata[[#This Row],[ema]]-I254)*Multiplier+I254</f>
-        <v>253.59953436598991</v>
+        <v>253.59953436628075</v>
       </c>
       <c r="J255" s="12">
         <f>(testdata[[#This Row],[ema2]]-J254)*Multiplier+J254</f>
-        <v>250.66855273330194</v>
+        <v>250.66855273970282</v>
       </c>
       <c r="K255" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J254)/J254</f>
-        <v>0.12323228449062755</v>
+        <v>0.12323228423025698</v>
       </c>
       <c r="L255" s="18">
-        <f t="shared" si="2"/>
-        <v>0.12212574333514947</v>
+        <f t="shared" si="3"/>
+        <v>0.12212574301628512</v>
       </c>
       <c r="P255" s="7">
         <v>254</v>
@@ -14422,19 +14821,19 @@
       </c>
       <c r="I256" s="2">
         <f>(testdata[[#This Row],[ema]]-I255)*Multiplier+I255</f>
-        <v>253.96404468746437</v>
+        <v>253.96404468772752</v>
       </c>
       <c r="J256" s="12">
         <f>(testdata[[#This Row],[ema2]]-J255)*Multiplier+J255</f>
-        <v>250.98240910988883</v>
+        <v>250.98240911570517</v>
       </c>
       <c r="K256" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J255)/J255</f>
-        <v>0.12520771878426432</v>
+        <v>0.12520771854787102</v>
       </c>
       <c r="L256" s="18">
-        <f t="shared" si="2"/>
-        <v>0.12281103186663553</v>
+        <f t="shared" si="3"/>
+        <v>0.12281103157715405</v>
       </c>
       <c r="P256" s="7">
         <v>255</v>
@@ -14477,19 +14876,19 @@
       </c>
       <c r="I257" s="2">
         <f>(testdata[[#This Row],[ema]]-I256)*Multiplier+I256</f>
-        <v>254.35182710765127</v>
+        <v>254.35182710788936</v>
       </c>
       <c r="J257" s="12">
         <f>(testdata[[#This Row],[ema2]]-J256)*Multiplier+J256</f>
-        <v>251.30330606205669</v>
+        <v>251.30330606734177</v>
       </c>
       <c r="K257" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J256)/J256</f>
-        <v>0.12785635188773609</v>
+        <v>0.12785635167310147</v>
       </c>
       <c r="L257" s="18">
-        <f t="shared" ref="L257:L320" si="3">AVERAGE(K253:K257)</f>
-        <v>0.12403555756881346</v>
+        <f t="shared" ref="L257:L320" si="4">AVERAGE(K253:K257)</f>
+        <v>0.12403555730599906</v>
       </c>
       <c r="P257" s="7">
         <v>256</v>
@@ -14532,19 +14931,19 @@
       </c>
       <c r="I258" s="2">
         <f>(testdata[[#This Row],[ema]]-I257)*Multiplier+I257</f>
-        <v>254.76058480664645</v>
+        <v>254.76058480686186</v>
       </c>
       <c r="J258" s="12">
         <f>(testdata[[#This Row],[ema2]]-J257)*Multiplier+J257</f>
-        <v>251.63257070439857</v>
+        <v>251.63257070920082</v>
       </c>
       <c r="K258" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J257)/J257</f>
-        <v>0.13102280566916799</v>
+        <v>0.13102280547428291</v>
       </c>
       <c r="L258" s="18">
-        <f t="shared" si="3"/>
-        <v>0.12589762074338104</v>
+        <f t="shared" si="4"/>
+        <v>0.12589762050476774</v>
       </c>
       <c r="P258" s="7">
         <v>257</v>
@@ -14587,19 +14986,19 @@
       </c>
       <c r="I259" s="2">
         <f>(testdata[[#This Row],[ema]]-I258)*Multiplier+I258</f>
-        <v>255.17908637152325</v>
+        <v>255.17908637171814</v>
       </c>
       <c r="J259" s="12">
         <f>(testdata[[#This Row],[ema2]]-J258)*Multiplier+J258</f>
-        <v>251.97033410126758</v>
+        <v>251.97033410563105</v>
       </c>
       <c r="K259" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J258)/J258</f>
-        <v>0.13422880667772932</v>
+        <v>0.1342288065007966</v>
       </c>
       <c r="L259" s="18">
-        <f t="shared" si="3"/>
-        <v>0.12830959350190504</v>
+        <f t="shared" si="4"/>
+        <v>0.12830959328526179</v>
       </c>
       <c r="P259" s="7">
         <v>258</v>
@@ -14642,19 +15041,19 @@
       </c>
       <c r="I260" s="2">
         <f>(testdata[[#This Row],[ema]]-I259)*Multiplier+I259</f>
-        <v>255.61927394393695</v>
+        <v>255.61927394411327</v>
       </c>
       <c r="J260" s="12">
         <f>(testdata[[#This Row],[ema2]]-J259)*Multiplier+J259</f>
-        <v>252.3178521815218</v>
+        <v>252.31785218548652</v>
       </c>
       <c r="K260" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J259)/J259</f>
-        <v>0.13792023632216557</v>
+        <v>0.13792023616152177</v>
       </c>
       <c r="L260" s="18">
-        <f t="shared" si="3"/>
-        <v>0.13124718386821266</v>
+        <f t="shared" si="4"/>
+        <v>0.13124718367151472</v>
       </c>
       <c r="P260" s="7">
         <v>259</v>
@@ -14697,19 +15096,19 @@
       </c>
       <c r="I261" s="2">
         <f>(testdata[[#This Row],[ema]]-I260)*Multiplier+I260</f>
-        <v>256.08891253320132</v>
+        <v>256.08891253336088</v>
       </c>
       <c r="J261" s="12">
         <f>(testdata[[#This Row],[ema2]]-J260)*Multiplier+J260</f>
-        <v>252.67700078644367</v>
+        <v>252.67700079004598</v>
       </c>
       <c r="K261" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J260)/J260</f>
-        <v>0.14233975195044563</v>
+        <v>0.14233975180457858</v>
       </c>
       <c r="L261" s="18">
-        <f t="shared" si="3"/>
-        <v>0.13467359050144889</v>
+        <f t="shared" si="4"/>
+        <v>0.13467359032285628</v>
       </c>
       <c r="P261" s="7">
         <v>260</v>
@@ -14752,19 +15151,19 @@
       </c>
       <c r="I262" s="2">
         <f>(testdata[[#This Row],[ema]]-I261)*Multiplier+I261</f>
-        <v>256.57014582252475</v>
+        <v>256.57014582266913</v>
       </c>
       <c r="J262" s="12">
         <f>(testdata[[#This Row],[ema2]]-J261)*Multiplier+J261</f>
-        <v>253.04777650416568</v>
+        <v>253.04777650743867</v>
       </c>
       <c r="K262" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J261)/J261</f>
-        <v>0.14673900535782522</v>
+        <v>0.1467390052253999</v>
       </c>
       <c r="L262" s="18">
-        <f t="shared" si="3"/>
-        <v>0.13845012119546674</v>
+        <f t="shared" si="4"/>
+        <v>0.13845012103331594</v>
       </c>
       <c r="P262" s="7">
         <v>261</v>
@@ -14807,19 +15206,19 @@
       </c>
       <c r="I263" s="2">
         <f>(testdata[[#This Row],[ema]]-I262)*Multiplier+I262</f>
-        <v>257.07954408591627</v>
+        <v>257.07954408604689</v>
       </c>
       <c r="J263" s="12">
         <f>(testdata[[#This Row],[ema2]]-J262)*Multiplier+J262</f>
-        <v>253.43175436909431</v>
+        <v>253.43175437206801</v>
       </c>
       <c r="K263" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J262)/J262</f>
-        <v>0.15174125227782961</v>
+        <v>0.15174125215759657</v>
       </c>
       <c r="L263" s="18">
-        <f t="shared" si="3"/>
-        <v>0.14259381051719908</v>
+        <f t="shared" si="4"/>
+        <v>0.1425938103699787</v>
       </c>
       <c r="P263" s="7">
         <v>262</v>
@@ -14862,19 +15261,19 @@
       </c>
       <c r="I264" s="2">
         <f>(testdata[[#This Row],[ema]]-I263)*Multiplier+I263</f>
-        <v>257.60329600596316</v>
+        <v>257.60329600608134</v>
       </c>
       <c r="J264" s="12">
         <f>(testdata[[#This Row],[ema2]]-J263)*Multiplier+J263</f>
-        <v>253.82904404879611</v>
+        <v>253.82904405149785</v>
       </c>
       <c r="K264" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J263)/J263</f>
-        <v>0.15676397012317272</v>
+        <v>0.15676397001401948</v>
       </c>
       <c r="L264" s="18">
-        <f t="shared" si="3"/>
-        <v>0.14710084320628777</v>
+        <f t="shared" si="4"/>
+        <v>0.14710084307262328</v>
       </c>
       <c r="P264" s="7">
         <v>263</v>
@@ -14917,19 +15316,19 @@
       </c>
       <c r="I265" s="2">
         <f>(testdata[[#This Row],[ema]]-I264)*Multiplier+I264</f>
-        <v>258.14511292005176</v>
+        <v>258.14511292015868</v>
       </c>
       <c r="J265" s="12">
         <f>(testdata[[#This Row],[ema2]]-J264)*Multiplier+J264</f>
-        <v>254.24009822701092</v>
+        <v>254.24009822946553</v>
       </c>
       <c r="K265" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J264)/J264</f>
-        <v>0.16194134905058019</v>
+        <v>0.16194134895149695</v>
       </c>
       <c r="L265" s="18">
-        <f t="shared" si="3"/>
-        <v>0.15190506575197069</v>
+        <f t="shared" si="4"/>
+        <v>0.15190506563061829</v>
       </c>
       <c r="P265" s="7">
         <v>264</v>
@@ -14972,19 +15371,19 @@
       </c>
       <c r="I266" s="2">
         <f>(testdata[[#This Row],[ema]]-I265)*Multiplier+I265</f>
-        <v>258.71675794115328</v>
+        <v>258.71675794125002</v>
       </c>
       <c r="J266" s="12">
         <f>(testdata[[#This Row],[ema2]]-J265)*Multiplier+J265</f>
-        <v>254.66644677121496</v>
+        <v>254.66644677344502</v>
       </c>
       <c r="K266" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J265)/J265</f>
-        <v>0.1676952405136973</v>
+        <v>0.16769524042375233</v>
       </c>
       <c r="L266" s="18">
-        <f t="shared" si="3"/>
-        <v>0.15697616346462101</v>
+        <f t="shared" si="4"/>
+        <v>0.15697616335445302</v>
       </c>
       <c r="P266" s="7">
         <v>265</v>
@@ -15027,19 +15426,19 @@
       </c>
       <c r="I267" s="2">
         <f>(testdata[[#This Row],[ema]]-I266)*Multiplier+I266</f>
-        <v>259.31280515397196</v>
+        <v>259.3128051540595</v>
       </c>
       <c r="J267" s="12">
         <f>(testdata[[#This Row],[ema2]]-J266)*Multiplier+J266</f>
-        <v>255.10895709338229</v>
+        <v>255.1089570954083</v>
       </c>
       <c r="K267" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J266)/J266</f>
-        <v>0.17376074774579989</v>
+        <v>0.17376074766415803</v>
       </c>
       <c r="L267" s="18">
-        <f t="shared" si="3"/>
-        <v>0.16238051194221595</v>
+        <f t="shared" si="4"/>
+        <v>0.16238051184220467</v>
       </c>
       <c r="P267" s="7">
         <v>266</v>
@@ -15082,19 +15481,19 @@
       </c>
       <c r="I268" s="2">
         <f>(testdata[[#This Row],[ema]]-I267)*Multiplier+I267</f>
-        <v>259.92251450365825</v>
+        <v>259.92251450373749</v>
       </c>
       <c r="J268" s="12">
         <f>(testdata[[#This Row],[ema2]]-J267)*Multiplier+J267</f>
-        <v>255.56739113245618</v>
+        <v>255.5673911342968</v>
       </c>
       <c r="K268" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J267)/J267</f>
-        <v>0.17970127129095034</v>
+        <v>0.17970127121685039</v>
       </c>
       <c r="L268" s="18">
-        <f t="shared" si="3"/>
-        <v>0.1679725157448401</v>
+        <f t="shared" si="4"/>
+        <v>0.16797251565405544</v>
       </c>
       <c r="P268" s="7">
         <v>267</v>
@@ -15137,19 +15536,19 @@
       </c>
       <c r="I269" s="2">
         <f>(testdata[[#This Row],[ema]]-I268)*Multiplier+I268</f>
-        <v>260.53887508692839</v>
+        <v>260.53887508700006</v>
       </c>
       <c r="J269" s="12">
         <f>(testdata[[#This Row],[ema2]]-J268)*Multiplier+J268</f>
-        <v>256.04086579478684</v>
+        <v>256.040865796459</v>
       </c>
       <c r="K269" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J268)/J268</f>
-        <v>0.18526411379504415</v>
+        <v>0.18526411372779555</v>
       </c>
       <c r="L269" s="18">
-        <f t="shared" si="3"/>
-        <v>0.17367254447921437</v>
+        <f t="shared" si="4"/>
+        <v>0.17367254439681065</v>
       </c>
       <c r="P269" s="7">
         <v>268</v>
@@ -15192,19 +15591,19 @@
       </c>
       <c r="I270" s="2">
         <f>(testdata[[#This Row],[ema]]-I269)*Multiplier+I269</f>
-        <v>261.18375189013199</v>
+        <v>261.18375189019685</v>
       </c>
       <c r="J270" s="12">
         <f>(testdata[[#This Row],[ema2]]-J269)*Multiplier+J269</f>
-        <v>256.53066447053402</v>
+        <v>256.5306644720531</v>
       </c>
       <c r="K270" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J269)/J269</f>
-        <v>0.19129707057768974</v>
+        <v>0.19129707051665334</v>
       </c>
       <c r="L270" s="18">
-        <f t="shared" si="3"/>
-        <v>0.17954368878463628</v>
+        <f t="shared" si="4"/>
+        <v>0.17954368870984194</v>
       </c>
       <c r="P270" s="7">
         <v>269</v>
@@ -15247,19 +15646,19 @@
       </c>
       <c r="I271" s="2">
         <f>(testdata[[#This Row],[ema]]-I270)*Multiplier+I270</f>
-        <v>261.82952404068976</v>
+        <v>261.82952404074842</v>
       </c>
       <c r="J271" s="12">
         <f>(testdata[[#This Row],[ema2]]-J270)*Multiplier+J270</f>
-        <v>257.03531776292982</v>
+        <v>257.03531776430981</v>
       </c>
       <c r="K271" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J270)/J270</f>
-        <v>0.1967224048779429</v>
+        <v>0.19672240482255607</v>
       </c>
       <c r="L271" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18534912165748541</v>
+        <f t="shared" si="4"/>
+        <v>0.18534912158960268</v>
       </c>
       <c r="P271" s="7">
         <v>270</v>
@@ -15302,19 +15701,19 @@
       </c>
       <c r="I272" s="2">
         <f>(testdata[[#This Row],[ema]]-I271)*Multiplier+I271</f>
-        <v>262.44468424519908</v>
+        <v>262.44468424525212</v>
       </c>
       <c r="J272" s="12">
         <f>(testdata[[#This Row],[ema2]]-J271)*Multiplier+J271</f>
-        <v>257.55049552314597</v>
+        <v>257.55049552439954</v>
       </c>
       <c r="K272" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J271)/J271</f>
-        <v>0.2004307286251257</v>
+        <v>0.2004307285748658</v>
       </c>
       <c r="L272" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19068311783335057</v>
+        <f t="shared" si="4"/>
+        <v>0.19068311777174424</v>
       </c>
       <c r="P272" s="7">
         <v>271</v>
@@ -15357,19 +15756,19 @@
       </c>
       <c r="I273" s="2">
         <f>(testdata[[#This Row],[ema]]-I272)*Multiplier+I272</f>
-        <v>263.03047584802687</v>
+        <v>263.03047584807484</v>
       </c>
       <c r="J273" s="12">
         <f>(testdata[[#This Row],[ema2]]-J272)*Multiplier+J272</f>
-        <v>258.07239841122987</v>
+        <v>258.07239841236861</v>
       </c>
       <c r="K273" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J272)/J272</f>
-        <v>0.20264099551576956</v>
+        <v>0.20264099547020026</v>
       </c>
       <c r="L273" s="18">
-        <f t="shared" si="3"/>
-        <v>0.1952710626783144</v>
+        <f t="shared" si="4"/>
+        <v>0.1952710626224142</v>
       </c>
       <c r="P273" s="7">
         <v>272</v>
@@ -15412,19 +15811,19 @@
       </c>
       <c r="I274" s="2">
         <f>(testdata[[#This Row],[ema]]-I273)*Multiplier+I273</f>
-        <v>263.58410139276322</v>
+        <v>263.58410139280664</v>
       </c>
       <c r="J274" s="12">
         <f>(testdata[[#This Row],[ema2]]-J273)*Multiplier+J273</f>
-        <v>258.59732250470921</v>
+        <v>258.59732250574365</v>
       </c>
       <c r="K274" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J273)/J273</f>
-        <v>0.20340187354824857</v>
+        <v>0.20340187350693306</v>
       </c>
       <c r="L274" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19889861462895528</v>
+        <f t="shared" si="4"/>
+        <v>0.19889861457824171</v>
       </c>
       <c r="P274" s="7">
         <v>273</v>
@@ -15467,19 +15866,19 @@
       </c>
       <c r="I275" s="2">
         <f>(testdata[[#This Row],[ema]]-I274)*Multiplier+I274</f>
-        <v>264.05276900291915</v>
+        <v>264.05276900295843</v>
       </c>
       <c r="J275" s="12">
         <f>(testdata[[#This Row],[ema2]]-J274)*Multiplier+J274</f>
-        <v>259.11688883787207</v>
+        <v>259.11688883881175</v>
       </c>
       <c r="K275" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J274)/J274</f>
-        <v>0.20091713561860061</v>
+        <v>0.20091713558115384</v>
       </c>
       <c r="L275" s="18">
-        <f t="shared" si="3"/>
-        <v>0.20082262763713749</v>
+        <f t="shared" si="4"/>
+        <v>0.20082262759114178</v>
       </c>
       <c r="P275" s="7">
         <v>274</v>
@@ -15522,19 +15921,19 @@
       </c>
       <c r="I276" s="2">
         <f>(testdata[[#This Row],[ema]]-I275)*Multiplier+I275</f>
-        <v>264.34705002617227</v>
+        <v>264.3470500262078</v>
       </c>
       <c r="J276" s="12">
         <f>(testdata[[#This Row],[ema2]]-J275)*Multiplier+J275</f>
-        <v>259.61499942723401</v>
+        <v>259.61499942808757</v>
       </c>
       <c r="K276" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J275)/J275</f>
-        <v>0.19223393411210946</v>
+        <v>0.19223393407817721</v>
       </c>
       <c r="L276" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19992493348397075</v>
+        <f t="shared" si="4"/>
+        <v>0.19992493344226606</v>
       </c>
       <c r="P276" s="7">
         <v>275</v>
@@ -15577,19 +15976,19 @@
       </c>
       <c r="I277" s="2">
         <f>(testdata[[#This Row],[ema]]-I276)*Multiplier+I276</f>
-        <v>264.5413521787566</v>
+        <v>264.54135217878871</v>
       </c>
       <c r="J277" s="12">
         <f>(testdata[[#This Row],[ema2]]-J276)*Multiplier+J276</f>
-        <v>260.08417587975998</v>
+        <v>260.08417588053533</v>
       </c>
       <c r="K277" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J276)/J276</f>
-        <v>0.18072008688291299</v>
+        <v>0.18072008685219093</v>
       </c>
       <c r="L277" s="18">
-        <f t="shared" si="3"/>
-        <v>0.19598280513552821</v>
+        <f t="shared" si="4"/>
+        <v>0.19598280509773108</v>
       </c>
       <c r="P277" s="7">
         <v>276</v>
@@ -15632,19 +16031,19 @@
       </c>
       <c r="I278" s="2">
         <f>(testdata[[#This Row],[ema]]-I277)*Multiplier+I277</f>
-        <v>264.63926072380855</v>
+        <v>264.63926072383759</v>
       </c>
       <c r="J278" s="12">
         <f>(testdata[[#This Row],[ema2]]-J277)*Multiplier+J277</f>
-        <v>260.51799348395508</v>
+        <v>260.51799348465937</v>
       </c>
       <c r="K278" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J277)/J277</f>
-        <v>0.1667989229747133</v>
+        <v>0.16679892294689633</v>
       </c>
       <c r="L278" s="18">
-        <f t="shared" si="3"/>
-        <v>0.18881439062731697</v>
+        <f t="shared" si="4"/>
+        <v>0.18881439059307031</v>
       </c>
       <c r="P278" s="7">
         <v>277</v>
@@ -15687,19 +16086,19 @@
       </c>
       <c r="I279" s="2">
         <f>(testdata[[#This Row],[ema]]-I278)*Multiplier+I278</f>
-        <v>264.56966422010902</v>
+        <v>264.56966422013534</v>
       </c>
       <c r="J279" s="12">
         <f>(testdata[[#This Row],[ema2]]-J278)*Multiplier+J278</f>
-        <v>260.90386688739829</v>
+        <v>260.90386688803801</v>
       </c>
       <c r="K279" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J278)/J278</f>
-        <v>0.14811775504749486</v>
+        <v>0.14811775502230762</v>
       </c>
       <c r="L279" s="18">
-        <f t="shared" si="3"/>
-        <v>0.17775756692716627</v>
+        <f t="shared" si="4"/>
+        <v>0.17775756689614519</v>
       </c>
       <c r="P279" s="7">
         <v>278</v>
@@ -15742,19 +16141,19 @@
       </c>
       <c r="I280" s="2">
         <f>(testdata[[#This Row],[ema]]-I279)*Multiplier+I279</f>
-        <v>264.39741253141068</v>
+        <v>264.3974125314345</v>
       </c>
       <c r="J280" s="12">
         <f>(testdata[[#This Row],[ema2]]-J279)*Multiplier+J279</f>
-        <v>261.23658552016138</v>
+        <v>261.23658552074244</v>
       </c>
       <c r="K280" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J279)/J279</f>
-        <v>0.12752537428151095</v>
+        <v>0.12752537425871396</v>
       </c>
       <c r="L280" s="18">
-        <f t="shared" si="3"/>
-        <v>0.16307921465974831</v>
+        <f t="shared" si="4"/>
+        <v>0.16307921463165723</v>
       </c>
       <c r="P280" s="7">
         <v>279</v>
@@ -15797,19 +16196,19 @@
       </c>
       <c r="I281" s="2">
         <f>(testdata[[#This Row],[ema]]-I280)*Multiplier+I280</f>
-        <v>264.17625037779226</v>
+        <v>264.1762503778138</v>
       </c>
       <c r="J281" s="12">
         <f>(testdata[[#This Row],[ema2]]-J280)*Multiplier+J280</f>
-        <v>261.51655360184054</v>
+        <v>261.51655360236828</v>
       </c>
       <c r="K281" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J280)/J280</f>
-        <v>0.10717031885932028</v>
+        <v>0.10717031883867163</v>
       </c>
       <c r="L281" s="18">
-        <f t="shared" si="3"/>
-        <v>0.14606649160919047</v>
+        <f t="shared" si="4"/>
+        <v>0.14606649158375609</v>
       </c>
       <c r="P281" s="7">
         <v>280</v>
@@ -15852,19 +16251,19 @@
       </c>
       <c r="I282" s="2">
         <f>(testdata[[#This Row],[ema]]-I281)*Multiplier+I281</f>
-        <v>263.92277069759399</v>
+        <v>263.92277069761349</v>
       </c>
       <c r="J282" s="12">
         <f>(testdata[[#This Row],[ema2]]-J281)*Multiplier+J281</f>
-        <v>261.74571713476945</v>
+        <v>261.74571713524875</v>
       </c>
       <c r="K282" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J281)/J281</f>
-        <v>8.7628691099153069E-2</v>
+        <v>8.7628691080457108E-2</v>
       </c>
       <c r="L282" s="18">
-        <f t="shared" si="3"/>
-        <v>0.12744821245243848</v>
+        <f t="shared" si="4"/>
+        <v>0.12744821242940935</v>
       </c>
       <c r="P282" s="7">
         <v>281</v>
@@ -15907,19 +16306,19 @@
       </c>
       <c r="I283" s="2">
         <f>(testdata[[#This Row],[ema]]-I282)*Multiplier+I282</f>
-        <v>263.67651843604762</v>
+        <v>263.67651843606529</v>
       </c>
       <c r="J283" s="12">
         <f>(testdata[[#This Row],[ema2]]-J282)*Multiplier+J282</f>
-        <v>261.9296029729864</v>
+        <v>261.92960297342177</v>
       </c>
       <c r="K283" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J282)/J282</f>
-        <v>7.0253618752535885E-2</v>
+        <v>7.0253618735619972E-2</v>
       </c>
       <c r="L283" s="18">
-        <f t="shared" si="3"/>
-        <v>0.108139151608003</v>
+        <f t="shared" si="4"/>
+        <v>0.10813915158715406</v>
       </c>
       <c r="P283" s="7">
         <v>282</v>
@@ -15962,19 +16361,19 @@
       </c>
       <c r="I284" s="2">
         <f>(testdata[[#This Row],[ema]]-I283)*Multiplier+I283</f>
-        <v>263.46843875313965</v>
+        <v>263.46843875315562</v>
       </c>
       <c r="J284" s="12">
         <f>(testdata[[#This Row],[ema2]]-J283)*Multiplier+J283</f>
-        <v>262.0761587615724</v>
+        <v>262.07615876196786</v>
       </c>
       <c r="K284" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J283)/J283</f>
-        <v>5.595235777954969E-2</v>
+        <v>5.5952357764222034E-2</v>
       </c>
       <c r="L284" s="18">
-        <f t="shared" si="3"/>
-        <v>8.9706072154413979E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.9706072135536941E-2</v>
       </c>
       <c r="P284" s="7">
         <v>283</v>
@@ -16017,19 +16416,19 @@
       </c>
       <c r="I285" s="2">
         <f>(testdata[[#This Row],[ema]]-I284)*Multiplier+I284</f>
-        <v>263.29421988569669</v>
+        <v>263.29421988571113</v>
       </c>
       <c r="J285" s="12">
         <f>(testdata[[#This Row],[ema2]]-J284)*Multiplier+J284</f>
-        <v>262.1921645829176</v>
+        <v>262.19216458327674</v>
       </c>
       <c r="K285" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J284)/J284</f>
-        <v>4.4264164238890395E-2</v>
+        <v>4.426416422496391E-2</v>
       </c>
       <c r="L285" s="18">
-        <f t="shared" si="3"/>
-        <v>7.305383014588987E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.305383012878694E-2</v>
       </c>
       <c r="P285" s="7">
         <v>284</v>
@@ -16072,19 +16471,19 @@
       </c>
       <c r="I286" s="2">
         <f>(testdata[[#This Row],[ema]]-I285)*Multiplier+I285</f>
-        <v>263.13433351225069</v>
+        <v>263.13433351226371</v>
       </c>
       <c r="J286" s="12">
         <f>(testdata[[#This Row],[ema2]]-J285)*Multiplier+J285</f>
-        <v>262.2818949571398</v>
+        <v>262.28189495746597</v>
       </c>
       <c r="K286" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J285)/J285</f>
-        <v>3.4223133389564855E-2</v>
+        <v>3.4223133376943549E-2</v>
       </c>
       <c r="L286" s="18">
-        <f t="shared" si="3"/>
-        <v>5.8464393051938769E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.8464393036441319E-2</v>
       </c>
       <c r="P286" s="7">
         <v>285</v>
@@ -16127,19 +16526,19 @@
       </c>
       <c r="I287" s="2">
         <f>(testdata[[#This Row],[ema]]-I286)*Multiplier+I286</f>
-        <v>262.97583846720983</v>
+        <v>262.97583846722159</v>
       </c>
       <c r="J287" s="12">
         <f>(testdata[[#This Row],[ema2]]-J286)*Multiplier+J286</f>
-        <v>262.34798481524172</v>
+        <v>262.34798481553793</v>
       </c>
       <c r="K287" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J286)/J286</f>
-        <v>2.5198025244067335E-2</v>
+        <v>2.5198025232614513E-2</v>
       </c>
       <c r="L287" s="18">
-        <f t="shared" si="3"/>
-        <v>4.5978259880921635E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.5978259866872796E-2</v>
       </c>
       <c r="P287" s="7">
         <v>286</v>
@@ -16182,19 +16581,19 @@
       </c>
       <c r="I288" s="2">
         <f>(testdata[[#This Row],[ema]]-I287)*Multiplier+I287</f>
-        <v>262.82300385240575</v>
+        <v>262.82300385241643</v>
       </c>
       <c r="J288" s="12">
         <f>(testdata[[#This Row],[ema2]]-J287)*Multiplier+J287</f>
-        <v>262.39322472354303</v>
+        <v>262.39322472381207</v>
       </c>
       <c r="K288" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J287)/J287</f>
-        <v>1.7244237013359233E-2</v>
+        <v>1.7244237002982849E-2</v>
       </c>
       <c r="L288" s="18">
-        <f t="shared" si="3"/>
-        <v>3.5376383533086302E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.5376383520345375E-2</v>
       </c>
       <c r="P288" s="7">
         <v>287</v>
@@ -16237,19 +16636,19 @@
       </c>
       <c r="I289" s="2">
         <f>(testdata[[#This Row],[ema]]-I288)*Multiplier+I288</f>
-        <v>262.71383081078699</v>
+        <v>262.71383081079665</v>
       </c>
       <c r="J289" s="12">
         <f>(testdata[[#This Row],[ema2]]-J288)*Multiplier+J288</f>
-        <v>262.42375863661385</v>
+        <v>262.42375863685822</v>
       </c>
       <c r="K289" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J288)/J288</f>
-        <v>1.1636700262743702E-2</v>
+        <v>1.1636700253329833E-2</v>
       </c>
       <c r="L289" s="18">
-        <f t="shared" si="3"/>
-        <v>2.6513252029725098E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.6513252018166927E-2</v>
       </c>
       <c r="P289" s="7">
         <v>288</v>
@@ -16292,19 +16691,19 @@
       </c>
       <c r="I290" s="2">
         <f>(testdata[[#This Row],[ema]]-I289)*Multiplier+I289</f>
-        <v>262.66923491222116</v>
+        <v>262.66923491222991</v>
       </c>
       <c r="J290" s="12">
         <f>(testdata[[#This Row],[ema2]]-J289)*Multiplier+J289</f>
-        <v>262.44713732952886</v>
+        <v>262.44713732975077</v>
       </c>
       <c r="K290" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J289)/J289</f>
-        <v>8.9087562179825403E-3</v>
+        <v>8.9087562094181776E-3</v>
       </c>
       <c r="L290" s="18">
-        <f t="shared" si="3"/>
-        <v>1.9442170425543533E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.9442170415057781E-2</v>
       </c>
       <c r="P290" s="7">
         <v>289</v>
@@ -16347,19 +16746,19 @@
       </c>
       <c r="I291" s="2">
         <f>(testdata[[#This Row],[ema]]-I290)*Multiplier+I290</f>
-        <v>262.64761119559722</v>
+        <v>262.64761119560518</v>
       </c>
       <c r="J291" s="12">
         <f>(testdata[[#This Row],[ema2]]-J290)*Multiplier+J290</f>
-        <v>262.46623007867822</v>
+        <v>262.46623007887979</v>
       </c>
       <c r="K291" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J290)/J290</f>
-        <v>7.2748932770382805E-3</v>
+        <v>7.2748932692782075E-3</v>
       </c>
       <c r="L291" s="18">
-        <f t="shared" si="3"/>
-        <v>1.405252240303822E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4052522393524716E-2</v>
       </c>
       <c r="P291" s="7">
         <v>290</v>
@@ -16402,19 +16801,19 @@
       </c>
       <c r="I292" s="2">
         <f>(testdata[[#This Row],[ema]]-I291)*Multiplier+I291</f>
-        <v>262.62068011513549</v>
+        <v>262.6206801151427</v>
       </c>
       <c r="J292" s="12">
         <f>(testdata[[#This Row],[ema2]]-J291)*Multiplier+J291</f>
-        <v>262.48093960595986</v>
+        <v>262.4809396061429</v>
       </c>
       <c r="K292" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J291)/J291</f>
-        <v>5.6043504252829991E-3</v>
+        <v>5.604350418218375E-3</v>
       </c>
       <c r="L292" s="18">
-        <f t="shared" si="3"/>
-        <v>1.0133787439281349E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.0133787430645488E-2</v>
       </c>
       <c r="P292" s="7">
         <v>291</v>
@@ -16457,19 +16856,19 @@
       </c>
       <c r="I293" s="2">
         <f>(testdata[[#This Row],[ema]]-I292)*Multiplier+I292</f>
-        <v>262.55518161058393</v>
+        <v>262.55518161059047</v>
       </c>
       <c r="J293" s="12">
         <f>(testdata[[#This Row],[ema2]]-J292)*Multiplier+J292</f>
-        <v>262.48801027306689</v>
+        <v>262.48801027323316</v>
       </c>
       <c r="K293" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J292)/J292</f>
-        <v>2.6937830676941098E-3</v>
+        <v>2.6937830613036496E-3</v>
       </c>
       <c r="L293" s="18">
-        <f t="shared" si="3"/>
-        <v>7.2236966501483257E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.223696642309649E-3</v>
       </c>
       <c r="P293" s="7">
         <v>292</v>
@@ -16512,19 +16911,19 @@
       </c>
       <c r="I294" s="2">
         <f>(testdata[[#This Row],[ema]]-I293)*Multiplier+I293</f>
-        <v>262.47076962286184</v>
+        <v>262.47076962286775</v>
       </c>
       <c r="J294" s="12">
         <f>(testdata[[#This Row],[ema2]]-J293)*Multiplier+J293</f>
-        <v>262.48636830638071</v>
+        <v>262.48636830653169</v>
       </c>
       <c r="K294" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J293)/J293</f>
-        <v>-6.2553969016382446E-4</v>
+        <v>-6.2553969598879127E-4</v>
       </c>
       <c r="L294" s="18">
-        <f t="shared" si="3"/>
-        <v>4.7712486595668218E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.7712486524459233E-3</v>
       </c>
       <c r="P294" s="7">
         <v>293</v>
@@ -16567,19 +16966,19 @@
       </c>
       <c r="I295" s="2">
         <f>(testdata[[#This Row],[ema]]-I294)*Multiplier+I294</f>
-        <v>262.39876099234226</v>
+        <v>262.39876099234766</v>
       </c>
       <c r="J295" s="12">
         <f>(testdata[[#This Row],[ema2]]-J294)*Multiplier+J294</f>
-        <v>262.47802475266275</v>
+        <v>262.47802475279985</v>
       </c>
       <c r="K295" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J294)/J294</f>
-        <v>-3.1786617231966529E-3</v>
+        <v>-3.1786617284788299E-3</v>
       </c>
       <c r="L295" s="18">
-        <f t="shared" si="3"/>
-        <v>2.3537650713309822E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.3537650648665222E-3</v>
       </c>
       <c r="P295" s="7">
         <v>294</v>
@@ -16622,19 +17021,19 @@
       </c>
       <c r="I296" s="2">
         <f>(testdata[[#This Row],[ema]]-I295)*Multiplier+I295</f>
-        <v>262.34363591391389</v>
+        <v>262.34363591391877</v>
       </c>
       <c r="J296" s="12">
         <f>(testdata[[#This Row],[ema2]]-J295)*Multiplier+J295</f>
-        <v>262.46522581563903</v>
+        <v>262.46522581576357</v>
       </c>
       <c r="K296" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J295)/J295</f>
-        <v>-4.8761937445155707E-3</v>
+        <v>-4.8761937492990985E-3</v>
       </c>
       <c r="L296" s="18">
-        <f t="shared" si="3"/>
-        <v>-7.6452332979787615E-5</v>
+        <f t="shared" si="4"/>
+        <v>-7.6452338848938782E-5</v>
       </c>
       <c r="P296" s="7">
         <v>295</v>
@@ -16677,19 +17076,19 @@
       </c>
       <c r="I297" s="2">
         <f>(testdata[[#This Row],[ema]]-I296)*Multiplier+I296</f>
-        <v>262.30192458291998</v>
+        <v>262.30192458292441</v>
       </c>
       <c r="J297" s="12">
         <f>(testdata[[#This Row],[ema2]]-J296)*Multiplier+J296</f>
-        <v>262.44967331728486</v>
+        <v>262.44967331739792</v>
       </c>
       <c r="K297" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J296)/J296</f>
-        <v>-5.9255462531606221E-3</v>
+        <v>-5.9255462575326266E-3</v>
       </c>
       <c r="L297" s="18">
-        <f t="shared" si="3"/>
-        <v>-2.3824316686685124E-3</v>
+        <f t="shared" si="4"/>
+        <v>-2.3824316739991394E-3</v>
       </c>
       <c r="P297" s="7">
         <v>296</v>
@@ -16732,19 +17131,19 @@
       </c>
       <c r="I298" s="2">
         <f>(testdata[[#This Row],[ema]]-I297)*Multiplier+I297</f>
-        <v>262.28309127493702</v>
+        <v>262.28309127494106</v>
       </c>
       <c r="J298" s="12">
         <f>(testdata[[#This Row],[ema2]]-J297)*Multiplier+J297</f>
-        <v>262.43380836087078</v>
+        <v>262.43380836097344</v>
       </c>
       <c r="K298" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J297)/J297</f>
-        <v>-6.0449518620271448E-3</v>
+        <v>-6.0449518659880987E-3</v>
       </c>
       <c r="L298" s="18">
-        <f t="shared" si="3"/>
-        <v>-4.1301786546127633E-3</v>
+        <f t="shared" si="4"/>
+        <v>-4.1301786594574895E-3</v>
       </c>
       <c r="P298" s="7">
         <v>297</v>
@@ -16787,19 +17186,19 @@
       </c>
       <c r="I299" s="2">
         <f>(testdata[[#This Row],[ema]]-I298)*Multiplier+I298</f>
-        <v>262.32487996137331</v>
+        <v>262.32487996137701</v>
       </c>
       <c r="J299" s="12">
         <f>(testdata[[#This Row],[ema2]]-J298)*Multiplier+J298</f>
-        <v>262.42343422758529</v>
+        <v>262.42343422767857</v>
       </c>
       <c r="K299" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J298)/J298</f>
-        <v>-3.9530475704676726E-3</v>
+        <v>-3.9530475740400424E-3</v>
       </c>
       <c r="L299" s="18">
-        <f t="shared" si="3"/>
-        <v>-4.7956802306735324E-3</v>
+        <f t="shared" si="4"/>
+        <v>-4.7956802350677388E-3</v>
       </c>
       <c r="P299" s="7">
         <v>298</v>
@@ -16842,19 +17241,19 @@
       </c>
       <c r="I300" s="2">
         <f>(testdata[[#This Row],[ema]]-I299)*Multiplier+I299</f>
-        <v>262.41283051910125</v>
+        <v>262.4128305191046</v>
       </c>
       <c r="J300" s="12">
         <f>(testdata[[#This Row],[ema2]]-J299)*Multiplier+J299</f>
-        <v>262.42242435058682</v>
+        <v>262.42242435067152</v>
       </c>
       <c r="K300" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J299)/J299</f>
-        <v>-3.8482729312609406E-4</v>
+        <v>-3.8482729639676132E-4</v>
       </c>
       <c r="L300" s="18">
-        <f t="shared" si="3"/>
-        <v>-4.2369133446594201E-3</v>
+        <f t="shared" si="4"/>
+        <v>-4.2369133486513258E-3</v>
       </c>
       <c r="P300" s="7">
         <v>299</v>
@@ -16897,19 +17296,19 @@
       </c>
       <c r="I301" s="2">
         <f>(testdata[[#This Row],[ema]]-I300)*Multiplier+I300</f>
-        <v>262.52207956504992</v>
+        <v>262.52207956505299</v>
       </c>
       <c r="J301" s="12">
         <f>(testdata[[#This Row],[ema2]]-J300)*Multiplier+J300</f>
-        <v>262.43191532339284</v>
+        <v>262.43191532346975</v>
       </c>
       <c r="K301" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J300)/J300</f>
-        <v>3.6166775112711352E-3</v>
+        <v>3.6166775083024058E-3</v>
       </c>
       <c r="L301" s="18">
-        <f t="shared" si="3"/>
-        <v>-2.5383390935020795E-3</v>
+        <f t="shared" si="4"/>
+        <v>-2.5383390971310247E-3</v>
       </c>
       <c r="P301" s="7">
         <v>300</v>
@@ -16952,19 +17351,19 @@
       </c>
       <c r="I302" s="2">
         <f>(testdata[[#This Row],[ema]]-I301)*Multiplier+I301</f>
-        <v>262.63534620298026</v>
+        <v>262.63534620298304</v>
       </c>
       <c r="J302" s="12">
         <f>(testdata[[#This Row],[ema2]]-J301)*Multiplier+J301</f>
-        <v>262.45128969287737</v>
+        <v>262.45128969294723</v>
       </c>
       <c r="K302" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J301)/J301</f>
-        <v>7.3826270180015951E-3</v>
+        <v>7.3826270153135596E-3</v>
       </c>
       <c r="L302" s="18">
-        <f t="shared" si="3"/>
-        <v>1.2329556073036372E-4</v>
+        <f t="shared" si="4"/>
+        <v>1.2329555743821244E-4</v>
       </c>
       <c r="P302" s="7">
         <v>301</v>
@@ -17007,19 +17406,19 @@
       </c>
       <c r="I303" s="2">
         <f>(testdata[[#This Row],[ema]]-I302)*Multiplier+I302</f>
-        <v>262.7482438707375</v>
+        <v>262.74824387074</v>
       </c>
       <c r="J303" s="12">
         <f>(testdata[[#This Row],[ema2]]-J302)*Multiplier+J302</f>
-        <v>262.47957104314975</v>
+        <v>262.47957104321318</v>
       </c>
       <c r="K303" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J302)/J302</f>
-        <v>1.077584732217351E-2</v>
+        <v>1.0775847319723215E-2</v>
       </c>
       <c r="L303" s="18">
-        <f t="shared" si="3"/>
-        <v>3.4874553975704952E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.4874553945804755E-3</v>
       </c>
       <c r="P303" s="7">
         <v>302</v>
@@ -17062,19 +17461,19 @@
       </c>
       <c r="I304" s="2">
         <f>(testdata[[#This Row],[ema]]-I303)*Multiplier+I303</f>
-        <v>262.86244587204681</v>
+        <v>262.86244587204908</v>
       </c>
       <c r="J304" s="12">
         <f>(testdata[[#This Row],[ema2]]-J303)*Multiplier+J303</f>
-        <v>262.51603531256853</v>
+        <v>262.51603531262612</v>
       </c>
       <c r="K304" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J303)/J303</f>
-        <v>1.3892231412094155E-2</v>
+        <v>1.3892231409860196E-2</v>
       </c>
       <c r="L304" s="18">
-        <f t="shared" si="3"/>
-        <v>7.0565111940828597E-3</v>
+        <f t="shared" si="4"/>
+        <v>7.0565111913605235E-3</v>
       </c>
       <c r="P304" s="7">
         <v>303</v>
@@ -17117,19 +17516,19 @@
       </c>
       <c r="I305" s="2">
         <f>(testdata[[#This Row],[ema]]-I304)*Multiplier+I304</f>
-        <v>262.9441173890184</v>
+        <v>262.94411738902045</v>
       </c>
       <c r="J305" s="12">
         <f>(testdata[[#This Row],[ema2]]-J304)*Multiplier+J304</f>
-        <v>262.55680503413521</v>
+        <v>262.55680503418751</v>
       </c>
       <c r="K305" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J304)/J304</f>
-        <v>1.5530373799121542E-2</v>
+        <v>1.5530373797104377E-2</v>
       </c>
       <c r="L305" s="18">
-        <f t="shared" si="3"/>
-        <v>1.0239551412532386E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.023955141006075E-2</v>
       </c>
       <c r="P305" s="7">
         <v>304</v>
@@ -17172,19 +17571,19 @@
       </c>
       <c r="I306" s="2">
         <f>(testdata[[#This Row],[ema]]-I305)*Multiplier+I305</f>
-        <v>263.00240978827162</v>
+        <v>263.0024097882735</v>
       </c>
       <c r="J306" s="12">
         <f>(testdata[[#This Row],[ema2]]-J305)*Multiplier+J305</f>
-        <v>262.59924358214818</v>
+        <v>262.5992435821957</v>
       </c>
       <c r="K306" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J305)/J305</f>
-        <v>1.616356811146058E-2</v>
+        <v>1.6163568109638763E-2</v>
       </c>
       <c r="L306" s="18">
-        <f t="shared" si="3"/>
-        <v>1.2748929532570275E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.274892953032802E-2</v>
       </c>
       <c r="P306" s="7">
         <v>305</v>
@@ -17227,19 +17626,19 @@
       </c>
       <c r="I307" s="2">
         <f>(testdata[[#This Row],[ema]]-I306)*Multiplier+I306</f>
-        <v>263.03650030295944</v>
+        <v>263.03650030296114</v>
       </c>
       <c r="J307" s="12">
         <f>(testdata[[#This Row],[ema2]]-J306)*Multiplier+J306</f>
-        <v>262.64088707936827</v>
+        <v>262.64088707941147</v>
       </c>
       <c r="K307" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J306)/J306</f>
-        <v>1.585819389729734E-2</v>
+        <v>1.5858193895649339E-2</v>
       </c>
       <c r="L307" s="18">
-        <f t="shared" si="3"/>
-        <v>1.4444042908429424E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4444042906395177E-2</v>
       </c>
       <c r="P307" s="7">
         <v>306</v>
@@ -17282,19 +17681,19 @@
       </c>
       <c r="I308" s="2">
         <f>(testdata[[#This Row],[ema]]-I307)*Multiplier+I307</f>
-        <v>262.99115035872012</v>
+        <v>262.99115035872165</v>
       </c>
       <c r="J308" s="12">
         <f>(testdata[[#This Row],[ema2]]-J307)*Multiplier+J307</f>
-        <v>262.6742454869256</v>
+        <v>262.67424548696482</v>
       </c>
       <c r="K308" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J307)/J307</f>
-        <v>1.270114791656533E-2</v>
+        <v>1.2701147915048229E-2</v>
       </c>
       <c r="L308" s="18">
-        <f t="shared" si="3"/>
-        <v>1.4829103027307788E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.4829103025460181E-2</v>
       </c>
       <c r="P308" s="7">
         <v>307</v>
@@ -17337,19 +17736,19 @@
       </c>
       <c r="I309" s="2">
         <f>(testdata[[#This Row],[ema]]-I308)*Multiplier+I308</f>
-        <v>262.83193055984196</v>
+        <v>262.83193055984333</v>
       </c>
       <c r="J309" s="12">
         <f>(testdata[[#This Row],[ema2]]-J308)*Multiplier+J308</f>
-        <v>262.68926311291762</v>
+        <v>262.68926311295326</v>
       </c>
       <c r="K309" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J308)/J308</f>
-        <v>5.7172053408499571E-3</v>
+        <v>5.7172053394857663E-3</v>
       </c>
       <c r="L309" s="18">
-        <f t="shared" si="3"/>
-        <v>1.319409781305895E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.3194097811385294E-2</v>
       </c>
       <c r="P309" s="7">
         <v>308</v>
@@ -17392,19 +17791,19 @@
       </c>
       <c r="I310" s="2">
         <f>(testdata[[#This Row],[ema]]-I309)*Multiplier+I309</f>
-        <v>262.64289185318802</v>
+        <v>262.64289185318927</v>
       </c>
       <c r="J310" s="12">
         <f>(testdata[[#This Row],[ema2]]-J309)*Multiplier+J309</f>
-        <v>262.68484680246718</v>
+        <v>262.68484680249952</v>
       </c>
       <c r="K310" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J309)/J309</f>
-        <v>-1.6811918378785871E-3</v>
+        <v>-1.681191839133423E-3</v>
       </c>
       <c r="L310" s="18">
-        <f t="shared" si="3"/>
-        <v>9.7517846856589249E-3</v>
+        <f t="shared" si="4"/>
+        <v>9.7517846841377355E-3</v>
       </c>
       <c r="P310" s="7">
         <v>309</v>
@@ -17447,19 +17846,19 @@
       </c>
       <c r="I311" s="2">
         <f>(testdata[[#This Row],[ema]]-I310)*Multiplier+I310</f>
-        <v>262.39161171596618</v>
+        <v>262.39161171596731</v>
       </c>
       <c r="J311" s="12">
         <f>(testdata[[#This Row],[ema2]]-J310)*Multiplier+J310</f>
-        <v>262.65691965137182</v>
+        <v>262.65691965140121</v>
       </c>
       <c r="K311" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J310)/J310</f>
-        <v>-1.0631428281950154E-2</v>
+        <v>-1.0631428283074094E-2</v>
       </c>
       <c r="L311" s="18">
-        <f t="shared" si="3"/>
-        <v>4.3927854069767775E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.392785405595164E-3</v>
       </c>
       <c r="P311" s="7">
         <v>310</v>
@@ -17502,19 +17901,19 @@
       </c>
       <c r="I312" s="2">
         <f>(testdata[[#This Row],[ema]]-I311)*Multiplier+I311</f>
-        <v>262.08485757446743</v>
+        <v>262.08485757446846</v>
       </c>
       <c r="J312" s="12">
         <f>(testdata[[#This Row],[ema2]]-J311)*Multiplier+J311</f>
-        <v>262.60243754880952</v>
+        <v>262.60243754883618</v>
       </c>
       <c r="K312" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J311)/J311</f>
-        <v>-2.074268693724823E-2</v>
+        <v>-2.074268693828471E-2</v>
       </c>
       <c r="L312" s="18">
-        <f t="shared" si="3"/>
-        <v>-2.9273907599323369E-3</v>
+        <f t="shared" si="4"/>
+        <v>-2.9273907611916464E-3</v>
       </c>
       <c r="P312" s="7">
         <v>311</v>
@@ -17557,19 +17956,19 @@
       </c>
       <c r="I313" s="2">
         <f>(testdata[[#This Row],[ema]]-I312)*Multiplier+I312</f>
-        <v>261.76459073687352</v>
+        <v>261.76459073687448</v>
       </c>
       <c r="J313" s="12">
         <f>(testdata[[#This Row],[ema2]]-J312)*Multiplier+J312</f>
-        <v>262.52264261433942</v>
+        <v>262.52264261436363</v>
       </c>
       <c r="K313" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J312)/J312</f>
-        <v>-3.0386212411021369E-2</v>
+        <v>-3.0386212411949071E-2</v>
       </c>
       <c r="L313" s="18">
-        <f t="shared" si="3"/>
-        <v>-1.1544862825449677E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.1544862826591108E-2</v>
       </c>
       <c r="P313" s="7">
         <v>312</v>
@@ -17612,19 +18011,19 @@
       </c>
       <c r="I314" s="2">
         <f>(testdata[[#This Row],[ema]]-I313)*Multiplier+I313</f>
-        <v>261.38637148218214</v>
+        <v>261.38637148218299</v>
       </c>
       <c r="J314" s="12">
         <f>(testdata[[#This Row],[ema2]]-J313)*Multiplier+J313</f>
-        <v>262.41442631603871</v>
+        <v>262.41442631606071</v>
       </c>
       <c r="K314" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J313)/J313</f>
-        <v>-4.1221700811415206E-2</v>
+        <v>-4.122170081225586E-2</v>
       </c>
       <c r="L314" s="18">
-        <f t="shared" si="3"/>
-        <v>-2.093264405590271E-2</v>
+        <f t="shared" si="4"/>
+        <v>-2.0932644056939433E-2</v>
       </c>
       <c r="P314" s="7">
         <v>313</v>
@@ -17667,19 +18066,19 @@
       </c>
       <c r="I315" s="2">
         <f>(testdata[[#This Row],[ema]]-I314)*Multiplier+I314</f>
-        <v>260.99307752102044</v>
+        <v>260.99307752102118</v>
       </c>
       <c r="J315" s="12">
         <f>(testdata[[#This Row],[ema2]]-J314)*Multiplier+J314</f>
-        <v>262.27905976413223</v>
+        <v>262.27905976415218</v>
       </c>
       <c r="K315" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J314)/J314</f>
-        <v>-5.1585026710176944E-2</v>
+        <v>-5.1585026710952442E-2</v>
       </c>
       <c r="L315" s="18">
-        <f t="shared" si="3"/>
-        <v>-3.0913411030362381E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.0913411031303233E-2</v>
       </c>
       <c r="P315" s="7">
         <v>314</v>
@@ -17722,19 +18121,19 @@
       </c>
       <c r="I316" s="2">
         <f>(testdata[[#This Row],[ema]]-I315)*Multiplier+I315</f>
-        <v>260.61550058210105</v>
+        <v>260.61550058210167</v>
       </c>
       <c r="J316" s="12">
         <f>(testdata[[#This Row],[ema2]]-J315)*Multiplier+J315</f>
-        <v>262.12062555631974</v>
+        <v>262.12062555633787</v>
       </c>
       <c r="K316" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J315)/J315</f>
-        <v>-6.0406731652527093E-2</v>
+        <v>-6.0406731653216028E-2</v>
       </c>
       <c r="L316" s="18">
-        <f t="shared" si="3"/>
-        <v>-4.0868471704477771E-2</v>
+        <f t="shared" si="4"/>
+        <v>-4.0868471705331623E-2</v>
       </c>
       <c r="P316" s="7">
         <v>315</v>
@@ -17777,19 +18176,19 @@
       </c>
       <c r="I317" s="2">
         <f>(testdata[[#This Row],[ema]]-I316)*Multiplier+I316</f>
-        <v>260.27244553158334</v>
+        <v>260.27244553158391</v>
       </c>
       <c r="J317" s="12">
         <f>(testdata[[#This Row],[ema2]]-J316)*Multiplier+J316</f>
-        <v>261.94460841110674</v>
+        <v>261.94460841112323</v>
       </c>
       <c r="K317" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J316)/J316</f>
-        <v>-6.7151199887235086E-2</v>
+        <v>-6.7151199887859336E-2</v>
       </c>
       <c r="L317" s="18">
-        <f t="shared" si="3"/>
-        <v>-5.0150174294475144E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.0150174295246555E-2</v>
       </c>
       <c r="P317" s="7">
         <v>316</v>
@@ -17832,19 +18231,19 @@
       </c>
       <c r="I318" s="2">
         <f>(testdata[[#This Row],[ema]]-I317)*Multiplier+I317</f>
-        <v>259.90878871670077</v>
+        <v>259.90878871670128</v>
       </c>
       <c r="J318" s="12">
         <f>(testdata[[#This Row],[ema2]]-J317)*Multiplier+J317</f>
-        <v>261.75072082116333</v>
+        <v>261.75072082117828</v>
       </c>
       <c r="K318" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J317)/J317</f>
-        <v>-7.4018545798476568E-2</v>
+        <v>-7.4018545799057825E-2</v>
       </c>
       <c r="L318" s="18">
-        <f t="shared" si="3"/>
-        <v>-5.8876640971966175E-2</v>
+        <f t="shared" si="4"/>
+        <v>-5.8876640972668294E-2</v>
       </c>
       <c r="P318" s="7">
         <v>317</v>
@@ -17887,19 +18286,19 @@
       </c>
       <c r="I319" s="2">
         <f>(testdata[[#This Row],[ema]]-I318)*Multiplier+I318</f>
-        <v>259.54281305901497</v>
+        <v>259.54281305901549</v>
       </c>
       <c r="J319" s="12">
         <f>(testdata[[#This Row],[ema2]]-J318)*Multiplier+J318</f>
-        <v>261.5404438914349</v>
+        <v>261.54044389144849</v>
       </c>
       <c r="K319" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J318)/J318</f>
-        <v>-8.0334804453925726E-2</v>
+        <v>-8.0334804454442341E-2</v>
       </c>
       <c r="L319" s="18">
-        <f t="shared" si="3"/>
-        <v>-6.6699261700468276E-2</v>
+        <f t="shared" si="4"/>
+        <v>-6.66992617011056E-2</v>
       </c>
       <c r="P319" s="7">
         <v>318</v>
@@ -17942,19 +18341,19 @@
       </c>
       <c r="I320" s="2">
         <f>(testdata[[#This Row],[ema]]-I319)*Multiplier+I319</f>
-        <v>259.21472130241494</v>
+        <v>259.2147213024154</v>
       </c>
       <c r="J320" s="12">
         <f>(testdata[[#This Row],[ema2]]-J319)*Multiplier+J319</f>
-        <v>261.31894650200445</v>
+        <v>261.31894650201679</v>
       </c>
       <c r="K320" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J319)/J319</f>
-        <v>-8.4689536400112855E-2</v>
+        <v>-8.4689536400586601E-2</v>
       </c>
       <c r="L320" s="18">
-        <f t="shared" si="3"/>
-        <v>-7.3320163638455463E-2</v>
+        <f t="shared" si="4"/>
+        <v>-7.3320163639032418E-2</v>
       </c>
       <c r="P320" s="7">
         <v>319</v>
@@ -17997,19 +18396,19 @@
       </c>
       <c r="I321" s="2">
         <f>(testdata[[#This Row],[ema]]-I320)*Multiplier+I320</f>
-        <v>258.90837207488141</v>
+        <v>258.90837207488187</v>
       </c>
       <c r="J321" s="12">
         <f>(testdata[[#This Row],[ema2]]-J320)*Multiplier+J320</f>
-        <v>261.0893679851356</v>
+        <v>261.08936798514679</v>
       </c>
       <c r="K321" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J320)/J320</f>
-        <v>-8.7853758765667742E-2</v>
+        <v>-8.7853758766098647E-2</v>
       </c>
       <c r="L321" s="18">
-        <f t="shared" ref="L321:L384" si="4">AVERAGE(K317:K321)</f>
-        <v>-7.8809569061083593E-2</v>
+        <f t="shared" ref="L321:L384" si="5">AVERAGE(K317:K321)</f>
+        <v>-7.880956906160895E-2</v>
       </c>
       <c r="P321" s="7">
         <v>320</v>
@@ -18052,19 +18451,19 @@
       </c>
       <c r="I322" s="2">
         <f>(testdata[[#This Row],[ema]]-I321)*Multiplier+I321</f>
-        <v>258.64164745030291</v>
+        <v>258.64164745030331</v>
       </c>
       <c r="J322" s="12">
         <f>(testdata[[#This Row],[ema2]]-J321)*Multiplier+J321</f>
-        <v>260.85625174372296</v>
+        <v>260.85625174373314</v>
       </c>
       <c r="K322" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J321)/J321</f>
-        <v>-8.9285995523916903E-2</v>
+        <v>-8.9285995524304967E-2</v>
       </c>
       <c r="L322" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.3236528188419964E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.3236528188898082E-2</v>
       </c>
       <c r="P322" s="7">
         <v>321</v>
@@ -18107,19 +18506,19 @@
       </c>
       <c r="I323" s="2">
         <f>(testdata[[#This Row],[ema]]-I322)*Multiplier+I322</f>
-        <v>258.40297584197174</v>
+        <v>258.40297584197208</v>
       </c>
       <c r="J323" s="12">
         <f>(testdata[[#This Row],[ema2]]-J322)*Multiplier+J322</f>
-        <v>260.62260641974666</v>
+        <v>260.62260641975587</v>
       </c>
       <c r="K323" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J322)/J322</f>
-        <v>-8.9568611990119493E-2</v>
+        <v>-8.9568611990486449E-2</v>
       </c>
       <c r="L323" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.6346541426748552E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.6346541427183801E-2</v>
       </c>
       <c r="P323" s="7">
         <v>322</v>
@@ -18162,19 +18561,19 @@
       </c>
       <c r="I324" s="2">
         <f>(testdata[[#This Row],[ema]]-I323)*Multiplier+I323</f>
-        <v>258.20848070824059</v>
+        <v>258.20848070824087</v>
       </c>
       <c r="J324" s="12">
         <f>(testdata[[#This Row],[ema2]]-J323)*Multiplier+J323</f>
-        <v>260.39268968531752</v>
+        <v>260.39268968532588</v>
       </c>
       <c r="K324" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J323)/J323</f>
-        <v>-8.82182622557484E-2</v>
+        <v>-8.8218262256072447E-2</v>
       </c>
       <c r="L324" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.792323298711309E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.7923232987509828E-2</v>
       </c>
       <c r="P324" s="7">
         <v>323</v>
@@ -18217,19 +18616,19 @@
       </c>
       <c r="I325" s="2">
         <f>(testdata[[#This Row],[ema]]-I324)*Multiplier+I324</f>
-        <v>258.07703702091652</v>
+        <v>258.07703702091675</v>
       </c>
       <c r="J325" s="12">
         <f>(testdata[[#This Row],[ema2]]-J324)*Multiplier+J324</f>
-        <v>260.17215133632698</v>
+        <v>260.17215133633454</v>
       </c>
       <c r="K325" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J324)/J324</f>
-        <v>-8.4694523973412303E-2</v>
+        <v>-8.4694523973715213E-2</v>
       </c>
       <c r="L325" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.7924230501772976E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.7924230502135534E-2</v>
       </c>
       <c r="P325" s="7">
         <v>324</v>
@@ -18272,19 +18671,19 @@
       </c>
       <c r="I326" s="2">
         <f>(testdata[[#This Row],[ema]]-I325)*Multiplier+I325</f>
-        <v>258.00012246489007</v>
+        <v>258.0001224648903</v>
       </c>
       <c r="J326" s="12">
         <f>(testdata[[#This Row],[ema2]]-J325)*Multiplier+J325</f>
-        <v>259.96529144380918</v>
+        <v>259.96529144381606</v>
       </c>
       <c r="K326" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J325)/J325</f>
-        <v>-7.950885267900494E-2</v>
+        <v>-7.9508852679264816E-2</v>
       </c>
       <c r="L326" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.6255249284440408E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.6255249284768784E-2</v>
       </c>
       <c r="P326" s="7">
         <v>325</v>
@@ -18327,19 +18726,19 @@
       </c>
       <c r="I327" s="2">
         <f>(testdata[[#This Row],[ema]]-I326)*Multiplier+I326</f>
-        <v>257.9553908445157</v>
+        <v>257.95539084451588</v>
       </c>
       <c r="J327" s="12">
         <f>(testdata[[#This Row],[ema2]]-J326)*Multiplier+J326</f>
-        <v>259.77387233911458</v>
+        <v>259.77387233912083</v>
       </c>
       <c r="K327" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J326)/J326</f>
-        <v>-7.3632562112999511E-2</v>
+        <v>-7.3632562113238084E-2</v>
       </c>
       <c r="L327" s="18">
-        <f t="shared" si="4"/>
-        <v>-8.3124562602256924E-2</v>
+        <f t="shared" si="5"/>
+        <v>-8.3124562602555407E-2</v>
       </c>
       <c r="P327" s="7">
         <v>326</v>
@@ -18382,19 +18781,19 @@
       </c>
       <c r="I328" s="2">
         <f>(testdata[[#This Row],[ema]]-I327)*Multiplier+I327</f>
-        <v>257.91745506598232</v>
+        <v>257.91745506598249</v>
       </c>
       <c r="J328" s="12">
         <f>(testdata[[#This Row],[ema2]]-J327)*Multiplier+J327</f>
-        <v>259.59707069405437</v>
+        <v>259.59707069406005</v>
       </c>
       <c r="K328" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J327)/J327</f>
-        <v>-6.8059825827829296E-2</v>
+        <v>-6.8059825828046483E-2</v>
       </c>
       <c r="L328" s="18">
-        <f t="shared" si="4"/>
-        <v>-7.8822805369798882E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.8822805370067417E-2</v>
       </c>
       <c r="P328" s="7">
         <v>327</v>
@@ -18437,19 +18836,19 @@
       </c>
       <c r="I329" s="2">
         <f>(testdata[[#This Row],[ema]]-I328)*Multiplier+I328</f>
-        <v>257.88506360041663</v>
+        <v>257.8850636004168</v>
       </c>
       <c r="J329" s="12">
         <f>(testdata[[#This Row],[ema2]]-J328)*Multiplier+J328</f>
-        <v>259.43402239942219</v>
+        <v>259.43402239942736</v>
       </c>
       <c r="K329" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J328)/J328</f>
-        <v>-6.2808218211497194E-2</v>
+        <v>-6.2808218211692884E-2</v>
       </c>
       <c r="L329" s="18">
-        <f t="shared" si="4"/>
-        <v>-7.3740796560948646E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.3740796561191507E-2</v>
       </c>
       <c r="P329" s="7">
         <v>328</v>
@@ -18492,19 +18891,19 @@
       </c>
       <c r="I330" s="2">
         <f>(testdata[[#This Row],[ema]]-I329)*Multiplier+I329</f>
-        <v>257.82603055399738</v>
+        <v>257.82603055399755</v>
       </c>
       <c r="J330" s="12">
         <f>(testdata[[#This Row],[ema2]]-J329)*Multiplier+J329</f>
-        <v>259.28088031890553</v>
+        <v>259.28088031891025</v>
       </c>
       <c r="K330" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J329)/J329</f>
-        <v>-5.9029297352867195E-2</v>
+        <v>-5.9029297353041299E-2</v>
       </c>
       <c r="L330" s="18">
-        <f t="shared" si="4"/>
-        <v>-6.8607751236839626E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.8607751237056716E-2</v>
       </c>
       <c r="P330" s="7">
         <v>329</v>
@@ -18547,19 +18946,19 @@
       </c>
       <c r="I331" s="2">
         <f>(testdata[[#This Row],[ema]]-I330)*Multiplier+I330</f>
-        <v>257.75143859940931</v>
+        <v>257.75143859940948</v>
       </c>
       <c r="J331" s="12">
         <f>(testdata[[#This Row],[ema2]]-J330)*Multiplier+J330</f>
-        <v>259.13521920276304</v>
+        <v>259.1352192027673</v>
       </c>
       <c r="K331" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J330)/J330</f>
-        <v>-5.6178888301880989E-2</v>
+        <v>-5.6178888302055356E-2</v>
       </c>
       <c r="L331" s="18">
-        <f t="shared" si="4"/>
-        <v>-6.3941758361414844E-2</v>
+        <f t="shared" si="5"/>
+        <v>-6.3941758361614837E-2</v>
       </c>
       <c r="P331" s="7">
         <v>330</v>
@@ -18602,19 +19001,19 @@
       </c>
       <c r="I332" s="2">
         <f>(testdata[[#This Row],[ema]]-I331)*Multiplier+I331</f>
-        <v>257.68827884883353</v>
+        <v>257.68827884883365</v>
       </c>
       <c r="J332" s="12">
         <f>(testdata[[#This Row],[ema2]]-J331)*Multiplier+J331</f>
-        <v>258.99741535953166</v>
+        <v>258.99741535953552</v>
       </c>
       <c r="K332" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J331)/J331</f>
-        <v>-5.3178353623771789E-2</v>
+        <v>-5.3178353623924465E-2</v>
       </c>
       <c r="L332" s="18">
-        <f t="shared" si="4"/>
-        <v>-5.9850916663569287E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.9850916663752099E-2</v>
       </c>
       <c r="P332" s="7">
         <v>331</v>
@@ -18657,19 +19056,19 @@
       </c>
       <c r="I333" s="2">
         <f>(testdata[[#This Row],[ema]]-I332)*Multiplier+I332</f>
-        <v>257.63722718136597</v>
+        <v>257.63722718136609</v>
       </c>
       <c r="J333" s="12">
         <f>(testdata[[#This Row],[ema2]]-J332)*Multiplier+J332</f>
-        <v>258.86787362827778</v>
+        <v>258.8678736282813</v>
       </c>
       <c r="K333" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J332)/J332</f>
-        <v>-5.0016611584349092E-2</v>
+        <v>-5.0016611584480029E-2</v>
       </c>
       <c r="L333" s="18">
-        <f t="shared" si="4"/>
-        <v>-5.6242273814873255E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.6242273815038803E-2</v>
       </c>
       <c r="P333" s="7">
         <v>332</v>
@@ -18712,19 +19111,19 @@
       </c>
       <c r="I334" s="2">
         <f>(testdata[[#This Row],[ema]]-I333)*Multiplier+I333</f>
-        <v>257.578590989345</v>
+        <v>257.57859098934506</v>
       </c>
       <c r="J334" s="12">
         <f>(testdata[[#This Row],[ema2]]-J333)*Multiplier+J333</f>
-        <v>258.74508480552225</v>
+        <v>258.74508480552549</v>
       </c>
       <c r="K334" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J333)/J333</f>
-        <v>-4.7433009370580717E-2</v>
+        <v>-4.7433009370689866E-2</v>
       </c>
       <c r="L334" s="18">
-        <f t="shared" si="4"/>
-        <v>-5.3167232046689959E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.3167232046838209E-2</v>
       </c>
       <c r="P334" s="7">
         <v>333</v>
@@ -18767,19 +19166,19 @@
       </c>
       <c r="I335" s="2">
         <f>(testdata[[#This Row],[ema]]-I334)*Multiplier+I334</f>
-        <v>257.51835963044033</v>
+        <v>257.51835963044039</v>
       </c>
       <c r="J335" s="12">
         <f>(testdata[[#This Row],[ema2]]-J334)*Multiplier+J334</f>
-        <v>258.62825383646685</v>
+        <v>258.62825383646975</v>
       </c>
       <c r="K335" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J334)/J334</f>
-        <v>-4.515292305676534E-2</v>
+        <v>-4.5152923056896589E-2</v>
       </c>
       <c r="L335" s="18">
-        <f t="shared" si="4"/>
-        <v>-5.0391957187469583E-2</v>
+        <f t="shared" si="5"/>
+        <v>-5.0391957187609263E-2</v>
       </c>
       <c r="P335" s="7">
         <v>334</v>
@@ -18822,19 +19221,19 @@
       </c>
       <c r="I336" s="2">
         <f>(testdata[[#This Row],[ema]]-I335)*Multiplier+I335</f>
-        <v>257.44176788648036</v>
+        <v>257.44176788648042</v>
       </c>
       <c r="J336" s="12">
         <f>(testdata[[#This Row],[ema2]]-J335)*Multiplier+J335</f>
-        <v>258.51525517456338</v>
+        <v>258.51525517456599</v>
       </c>
       <c r="K336" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J335)/J335</f>
-        <v>-4.3691538038580058E-2</v>
+        <v>-4.3691538038689456E-2</v>
       </c>
       <c r="L336" s="18">
-        <f t="shared" si="4"/>
-        <v>-4.7894487134809392E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.7894487134936083E-2</v>
       </c>
       <c r="P336" s="7">
         <v>335</v>
@@ -18877,19 +19276,19 @@
       </c>
       <c r="I337" s="2">
         <f>(testdata[[#This Row],[ema]]-I336)*Multiplier+I336</f>
-        <v>257.34739897238632</v>
+        <v>257.34739897238637</v>
       </c>
       <c r="J337" s="12">
         <f>(testdata[[#This Row],[ema2]]-J336)*Multiplier+J336</f>
-        <v>258.40403077435604</v>
+        <v>258.40403077435843</v>
       </c>
       <c r="K337" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J336)/J336</f>
-        <v>-4.3024308229790635E-2</v>
+        <v>-4.3024308229878155E-2</v>
       </c>
       <c r="L337" s="18">
-        <f t="shared" si="4"/>
-        <v>-4.5863678056013171E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.5863678056126816E-2</v>
       </c>
       <c r="P337" s="7">
         <v>336</v>
@@ -18932,19 +19331,19 @@
       </c>
       <c r="I338" s="2">
         <f>(testdata[[#This Row],[ema]]-I337)*Multiplier+I337</f>
-        <v>257.26917499533982</v>
+        <v>257.26917499533988</v>
       </c>
       <c r="J338" s="12">
         <f>(testdata[[#This Row],[ema2]]-J337)*Multiplier+J337</f>
-        <v>258.29594927159258</v>
+        <v>258.29594927159474</v>
       </c>
       <c r="K338" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J337)/J337</f>
-        <v>-4.1826554500555606E-2</v>
+        <v>-4.1826554500643209E-2</v>
       </c>
       <c r="L338" s="18">
-        <f t="shared" si="4"/>
-        <v>-4.4225666639254473E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.4225666639359458E-2</v>
       </c>
       <c r="P338" s="7">
         <v>337</v>
@@ -18987,19 +19386,19 @@
       </c>
       <c r="I339" s="2">
         <f>(testdata[[#This Row],[ema]]-I338)*Multiplier+I338</f>
-        <v>257.21276783956853</v>
+        <v>257.21276783956858</v>
       </c>
       <c r="J339" s="12">
         <f>(testdata[[#This Row],[ema2]]-J338)*Multiplier+J338</f>
-        <v>258.19278913520935</v>
+        <v>258.19278913521129</v>
       </c>
       <c r="K339" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J338)/J338</f>
-        <v>-3.9938735653478288E-2</v>
+        <v>-3.9938735653565982E-2</v>
       </c>
       <c r="L339" s="18">
-        <f t="shared" si="4"/>
-        <v>-4.272681189583398E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.2726811895934677E-2</v>
       </c>
       <c r="P339" s="7">
         <v>338</v>
@@ -19042,19 +19441,19 @@
       </c>
       <c r="I340" s="2">
         <f>(testdata[[#This Row],[ema]]-I339)*Multiplier+I339</f>
-        <v>257.1747314345987</v>
+        <v>257.17473143459875</v>
       </c>
       <c r="J340" s="12">
         <f>(testdata[[#This Row],[ema2]]-J339)*Multiplier+J339</f>
-        <v>258.09583125896074</v>
+        <v>258.09583125896245</v>
       </c>
       <c r="K340" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J339)/J339</f>
-        <v>-3.7552511273982521E-2</v>
+        <v>-3.7552511274070305E-2</v>
       </c>
       <c r="L340" s="18">
-        <f t="shared" si="4"/>
-        <v>-4.1206729539277419E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.1206729539369422E-2</v>
       </c>
       <c r="P340" s="7">
         <v>339</v>
@@ -19097,19 +19496,19 @@
       </c>
       <c r="I341" s="2">
         <f>(testdata[[#This Row],[ema]]-I340)*Multiplier+I340</f>
-        <v>257.17466325334584</v>
+        <v>257.1746632533459</v>
       </c>
       <c r="J341" s="12">
         <f>(testdata[[#This Row],[ema2]]-J340)*Multiplier+J340</f>
-        <v>258.0081009727117</v>
+        <v>258.00810097271324</v>
       </c>
       <c r="K341" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J340)/J340</f>
-        <v>-3.3991361201420073E-2</v>
+        <v>-3.3991361201485923E-2</v>
       </c>
       <c r="L341" s="18">
-        <f t="shared" si="4"/>
-        <v>-3.9266694171845425E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.9266694171928719E-2</v>
       </c>
       <c r="P341" s="7">
         <v>340</v>
@@ -19152,19 +19551,19 @@
       </c>
       <c r="I342" s="2">
         <f>(testdata[[#This Row],[ema]]-I341)*Multiplier+I341</f>
-        <v>257.2278077738772</v>
+        <v>257.22780777387726</v>
       </c>
       <c r="J342" s="12">
         <f>(testdata[[#This Row],[ema2]]-J341)*Multiplier+J341</f>
-        <v>257.93378733472747</v>
+        <v>257.93378733472883</v>
       </c>
       <c r="K342" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J341)/J341</f>
-        <v>-2.88028312692757E-2</v>
+        <v>-2.8802831269341623E-2</v>
       </c>
       <c r="L342" s="18">
-        <f t="shared" si="4"/>
-        <v>-3.6422398779742439E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.642239877982141E-2</v>
       </c>
       <c r="P342" s="7">
         <v>341</v>
@@ -19207,19 +19606,19 @@
       </c>
       <c r="I343" s="2">
         <f>(testdata[[#This Row],[ema]]-I342)*Multiplier+I342</f>
-        <v>257.33128609772371</v>
+        <v>257.33128609772376</v>
       </c>
       <c r="J343" s="12">
         <f>(testdata[[#This Row],[ema2]]-J342)*Multiplier+J342</f>
-        <v>257.87640626453663</v>
+        <v>257.87640626453788</v>
       </c>
       <c r="K343" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J342)/J342</f>
-        <v>-2.22464341658264E-2</v>
+        <v>-2.2246434165870358E-2</v>
       </c>
       <c r="L343" s="18">
-        <f t="shared" si="4"/>
-        <v>-3.250637471279659E-2</v>
+        <f t="shared" si="5"/>
+        <v>-3.250637471286684E-2</v>
       </c>
       <c r="P343" s="7">
         <v>342</v>
@@ -19262,19 +19661,19 @@
       </c>
       <c r="I344" s="2">
         <f>(testdata[[#This Row],[ema]]-I343)*Multiplier+I343</f>
-        <v>257.47620793563232</v>
+        <v>257.47620793563237</v>
       </c>
       <c r="J344" s="12">
         <f>(testdata[[#This Row],[ema2]]-J343)*Multiplier+J343</f>
-        <v>257.83829213797429</v>
+        <v>257.83829213797543</v>
       </c>
       <c r="K344" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J343)/J343</f>
-        <v>-1.4779997563342667E-2</v>
+        <v>-1.4779997563386681E-2</v>
       </c>
       <c r="L344" s="18">
-        <f t="shared" si="4"/>
-        <v>-2.7474627094769472E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.7474627094830978E-2</v>
       </c>
       <c r="P344" s="7">
         <v>343</v>
@@ -19317,19 +19716,19 @@
       </c>
       <c r="I345" s="2">
         <f>(testdata[[#This Row],[ema]]-I344)*Multiplier+I344</f>
-        <v>257.63723276951549</v>
+        <v>257.63723276951555</v>
       </c>
       <c r="J345" s="12">
         <f>(testdata[[#This Row],[ema2]]-J344)*Multiplier+J344</f>
-        <v>257.81914362669249</v>
+        <v>257.81914362669352</v>
       </c>
       <c r="K345" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J344)/J344</f>
-        <v>-7.4265583761902506E-3</v>
+        <v>-7.4265583762343108E-3</v>
       </c>
       <c r="L345" s="18">
-        <f t="shared" si="4"/>
-        <v>-2.1449436515211018E-2</v>
+        <f t="shared" si="5"/>
+        <v>-2.1449436515263778E-2</v>
       </c>
       <c r="P345" s="7">
         <v>344</v>
@@ -19372,19 +19771,19 @@
       </c>
       <c r="I346" s="2">
         <f>(testdata[[#This Row],[ema]]-I345)*Multiplier+I345</f>
-        <v>257.81995620251723</v>
+        <v>257.81995620251729</v>
       </c>
       <c r="J346" s="12">
         <f>(testdata[[#This Row],[ema2]]-J345)*Multiplier+J345</f>
-        <v>257.81922101486629</v>
+        <v>257.8192210148672</v>
       </c>
       <c r="K346" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J345)/J345</f>
-        <v>3.0016457546233732E-5</v>
+        <v>3.0016457502138037E-5</v>
       </c>
       <c r="L346" s="18">
-        <f t="shared" si="4"/>
-        <v>-1.4645160983417758E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.4645160983466165E-2</v>
       </c>
       <c r="P346" s="7">
         <v>345</v>
@@ -19427,19 +19826,19 @@
       </c>
       <c r="I347" s="2">
         <f>(testdata[[#This Row],[ema]]-I346)*Multiplier+I346</f>
-        <v>258.01678916057517</v>
+        <v>258.01678916057523</v>
       </c>
       <c r="J347" s="12">
         <f>(testdata[[#This Row],[ema2]]-J346)*Multiplier+J346</f>
-        <v>257.83803702874332</v>
+        <v>257.83803702874417</v>
       </c>
       <c r="K347" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J346)/J346</f>
-        <v>7.298142397204597E-3</v>
+        <v>7.2981423971825235E-3</v>
       </c>
       <c r="L347" s="18">
-        <f t="shared" si="4"/>
-        <v>-7.4249662501216993E-3</v>
+        <f t="shared" si="5"/>
+        <v>-7.4249662501613368E-3</v>
       </c>
       <c r="P347" s="7">
         <v>346</v>
@@ -19482,19 +19881,19 @@
       </c>
       <c r="I348" s="2">
         <f>(testdata[[#This Row],[ema]]-I347)*Multiplier+I347</f>
-        <v>258.21740036514802</v>
+        <v>258.21740036514808</v>
       </c>
       <c r="J348" s="12">
         <f>(testdata[[#This Row],[ema2]]-J347)*Multiplier+J347</f>
-        <v>257.87416687030566</v>
+        <v>257.87416687030645</v>
       </c>
       <c r="K348" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J347)/J347</f>
-        <v>1.4012611164238209E-2</v>
+        <v>1.4012611164216118E-2</v>
       </c>
       <c r="L348" s="18">
-        <f t="shared" si="4"/>
-        <v>-1.7315718410877598E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.7315718414404255E-4</v>
       </c>
       <c r="P348" s="7">
         <v>347</v>
@@ -19537,19 +19936,19 @@
       </c>
       <c r="I349" s="2">
         <f>(testdata[[#This Row],[ema]]-I348)*Multiplier+I348</f>
-        <v>258.43715329800563</v>
+        <v>258.43715329800568</v>
       </c>
       <c r="J349" s="12">
         <f>(testdata[[#This Row],[ema2]]-J348)*Multiplier+J348</f>
-        <v>257.9277846253247</v>
+        <v>257.92778462532544</v>
       </c>
       <c r="K349" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J348)/J348</f>
-        <v>2.0792216478982804E-2</v>
+        <v>2.0792216478960696E-2</v>
       </c>
       <c r="L349" s="18">
-        <f t="shared" si="4"/>
-        <v>6.9412856243563194E-3</v>
+        <f t="shared" si="5"/>
+        <v>6.9412856243254327E-3</v>
       </c>
       <c r="P349" s="7">
         <v>348</v>
@@ -19592,19 +19991,19 @@
       </c>
       <c r="I350" s="2">
         <f>(testdata[[#This Row],[ema]]-I349)*Multiplier+I349</f>
-        <v>258.66396099770986</v>
+        <v>258.66396099770992</v>
       </c>
       <c r="J350" s="12">
         <f>(testdata[[#This Row],[ema2]]-J349)*Multiplier+J349</f>
-        <v>257.99789666078993</v>
+        <v>257.99789666079062</v>
       </c>
       <c r="K350" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J349)/J349</f>
-        <v>2.7182816138663086E-2</v>
+        <v>2.7182816138640969E-2</v>
       </c>
       <c r="L350" s="18">
-        <f t="shared" si="4"/>
-        <v>1.3863160527326984E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.3863160527300489E-2</v>
       </c>
       <c r="P350" s="7">
         <v>349</v>
@@ -19647,19 +20046,19 @@
       </c>
       <c r="I351" s="2">
         <f>(testdata[[#This Row],[ema]]-I350)*Multiplier+I350</f>
-        <v>258.90101708751121</v>
+        <v>258.90101708751126</v>
       </c>
       <c r="J351" s="12">
         <f>(testdata[[#This Row],[ema2]]-J350)*Multiplier+J350</f>
-        <v>258.08390813000148</v>
+        <v>258.0839081300021</v>
       </c>
       <c r="K351" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J350)/J350</f>
-        <v>3.333805055187241E-2</v>
+        <v>3.3338050551850289E-2</v>
       </c>
       <c r="L351" s="18">
-        <f t="shared" si="4"/>
-        <v>2.0524767346192224E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.052476734617012E-2</v>
       </c>
       <c r="P351" s="7">
         <v>350</v>
@@ -19702,19 +20101,19 @@
       </c>
       <c r="I352" s="2">
         <f>(testdata[[#This Row],[ema]]-I351)*Multiplier+I351</f>
-        <v>259.13941432122601</v>
+        <v>259.13941432122607</v>
       </c>
       <c r="J352" s="12">
         <f>(testdata[[#This Row],[ema2]]-J351)*Multiplier+J351</f>
-        <v>258.18443252916569</v>
+        <v>258.18443252916632</v>
       </c>
       <c r="K352" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J351)/J351</f>
-        <v>3.8950277796312154E-2</v>
+        <v>3.8950277796312063E-2</v>
       </c>
       <c r="L352" s="18">
-        <f t="shared" si="4"/>
-        <v>2.6855194426013734E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.6855194425996032E-2</v>
       </c>
       <c r="P352" s="7">
         <v>351</v>
@@ -19757,19 +20156,19 @@
       </c>
       <c r="I353" s="2">
         <f>(testdata[[#This Row],[ema]]-I352)*Multiplier+I352</f>
-        <v>259.37103278854153</v>
+        <v>259.37103278854158</v>
       </c>
       <c r="J353" s="12">
         <f>(testdata[[#This Row],[ema2]]-J352)*Multiplier+J352</f>
-        <v>258.29744207767766</v>
+        <v>258.29744207767823</v>
       </c>
       <c r="K353" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J352)/J352</f>
-        <v>4.3770860777673781E-2</v>
+        <v>4.3770860777651653E-2</v>
       </c>
       <c r="L353" s="18">
-        <f t="shared" si="4"/>
-        <v>3.2806844348700848E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.2806844348683133E-2</v>
       </c>
       <c r="P353" s="7">
         <v>352</v>
@@ -19812,19 +20211,19 @@
       </c>
       <c r="I354" s="2">
         <f>(testdata[[#This Row],[ema]]-I353)*Multiplier+I353</f>
-        <v>259.56760905962255</v>
+        <v>259.56760905962261</v>
       </c>
       <c r="J354" s="12">
         <f>(testdata[[#This Row],[ema2]]-J353)*Multiplier+J353</f>
-        <v>258.41841036167239</v>
+        <v>258.41841036167295</v>
       </c>
       <c r="K354" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J353)/J353</f>
-        <v>4.6832939196644836E-2</v>
+        <v>4.6832939196644732E-2</v>
       </c>
       <c r="L354" s="18">
-        <f t="shared" si="4"/>
-        <v>3.8014988892233252E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.8014988892219936E-2</v>
       </c>
       <c r="P354" s="7">
         <v>353</v>
@@ -19871,15 +20270,15 @@
       </c>
       <c r="J355" s="12">
         <f>(testdata[[#This Row],[ema2]]-J354)*Multiplier+J354</f>
-        <v>258.54667517614553</v>
+        <v>258.54667517614604</v>
       </c>
       <c r="K355" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J354)/J354</f>
-        <v>4.9634549757359245E-2</v>
+        <v>4.9634549757337144E-2</v>
       </c>
       <c r="L355" s="18">
-        <f t="shared" si="4"/>
-        <v>4.2505335615972487E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2505335615959178E-2</v>
       </c>
       <c r="P355" s="7">
         <v>354</v>
@@ -19926,15 +20325,15 @@
       </c>
       <c r="J356" s="12">
         <f>(testdata[[#This Row],[ema2]]-J355)*Multiplier+J355</f>
-        <v>258.68004991448498</v>
+        <v>258.68004991448549</v>
       </c>
       <c r="K356" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J355)/J355</f>
-        <v>5.1586328947602296E-2</v>
+        <v>5.1586328947602192E-2</v>
       </c>
       <c r="L356" s="18">
-        <f t="shared" si="4"/>
-        <v>4.6154991295118464E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6154991295109561E-2</v>
       </c>
       <c r="P356" s="7">
         <v>355</v>
@@ -19981,15 +20380,15 @@
       </c>
       <c r="J357" s="12">
         <f>(testdata[[#This Row],[ema2]]-J356)*Multiplier+J356</f>
-        <v>258.81889837383034</v>
+        <v>258.81889837383079</v>
       </c>
       <c r="K357" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J356)/J356</f>
-        <v>5.3675750948422536E-2</v>
+        <v>5.3675750948400457E-2</v>
       </c>
       <c r="L357" s="18">
-        <f t="shared" si="4"/>
-        <v>4.9100085925540535E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.9100085925527233E-2</v>
       </c>
       <c r="P357" s="7">
         <v>356</v>
@@ -20036,15 +20435,15 @@
       </c>
       <c r="J358" s="12">
         <f>(testdata[[#This Row],[ema2]]-J357)*Multiplier+J357</f>
-        <v>258.96431036076268</v>
+        <v>258.96431036076308</v>
       </c>
       <c r="K358" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J357)/J357</f>
-        <v>5.6182909302981483E-2</v>
+        <v>5.6182909302959425E-2</v>
       </c>
       <c r="L358" s="18">
-        <f t="shared" si="4"/>
-        <v>5.1582495630602077E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1582495630588789E-2</v>
       </c>
       <c r="P358" s="7">
         <v>357</v>
@@ -20091,15 +20490,15 @@
       </c>
       <c r="J359" s="12">
         <f>(testdata[[#This Row],[ema2]]-J358)*Multiplier+J358</f>
-        <v>259.11697291717098</v>
+        <v>259.11697291717132</v>
       </c>
       <c r="K359" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J358)/J358</f>
-        <v>5.8951195319396729E-2</v>
+        <v>5.8951195319374691E-2</v>
       </c>
       <c r="L359" s="18">
-        <f t="shared" si="4"/>
-        <v>5.4006146855152461E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.4006146855134787E-2</v>
       </c>
       <c r="P359" s="7">
         <v>358</v>
@@ -20146,15 +20545,15 @@
       </c>
       <c r="J360" s="12">
         <f>(testdata[[#This Row],[ema2]]-J359)*Multiplier+J359</f>
-        <v>259.27899596482064</v>
+        <v>259.27899596482092</v>
       </c>
       <c r="K360" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J359)/J359</f>
-        <v>6.2528921137654139E-2</v>
+        <v>6.2528921137632115E-2</v>
       </c>
       <c r="L360" s="18">
-        <f t="shared" si="4"/>
-        <v>5.658502113121143E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.658502113119377E-2</v>
       </c>
       <c r="P360" s="7">
         <v>359</v>
@@ -20201,15 +20600,15 @@
       </c>
       <c r="J361" s="12">
         <f>(testdata[[#This Row],[ema2]]-J360)*Multiplier+J360</f>
-        <v>259.45153776880983</v>
+        <v>259.45153776881006</v>
       </c>
       <c r="K361" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J360)/J360</f>
-        <v>6.6546772655892789E-2</v>
+        <v>6.6546772655870792E-2</v>
       </c>
       <c r="L361" s="18">
-        <f t="shared" si="4"/>
-        <v>5.957710987286953E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.9577109872847499E-2</v>
       </c>
       <c r="P361" s="7">
         <v>360</v>
@@ -20256,15 +20655,15 @@
       </c>
       <c r="J362" s="12">
         <f>(testdata[[#This Row],[ema2]]-J361)*Multiplier+J361</f>
-        <v>259.63572151015359</v>
+        <v>259.63572151015381</v>
       </c>
       <c r="K362" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J361)/J361</f>
-        <v>7.098965106457758E-2</v>
+        <v>7.0989651064577525E-2</v>
       </c>
       <c r="L362" s="18">
-        <f t="shared" si="4"/>
-        <v>6.3039889896100543E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3039889896082918E-2</v>
       </c>
       <c r="P362" s="7">
         <v>361</v>
@@ -20311,15 +20710,15 @@
       </c>
       <c r="J363" s="12">
         <f>(testdata[[#This Row],[ema2]]-J362)*Multiplier+J362</f>
-        <v>259.83223425627835</v>
+        <v>259.83223425627858</v>
       </c>
       <c r="K363" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J362)/J362</f>
-        <v>7.5687869520328119E-2</v>
+        <v>7.5687869520328063E-2</v>
       </c>
       <c r="L363" s="18">
-        <f t="shared" si="4"/>
-        <v>6.6940881939569874E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.6940881939556635E-2</v>
       </c>
       <c r="P363" s="7">
         <v>362</v>
@@ -20366,15 +20765,15 @@
       </c>
       <c r="J364" s="12">
         <f>(testdata[[#This Row],[ema2]]-J363)*Multiplier+J363</f>
-        <v>260.04140327728243</v>
+        <v>260.04140327728265</v>
       </c>
       <c r="K364" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J363)/J363</f>
-        <v>8.0501567329696405E-2</v>
+        <v>8.0501567329696336E-2</v>
       </c>
       <c r="L364" s="18">
-        <f t="shared" si="4"/>
-        <v>7.1250956341629812E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.1250956341620958E-2</v>
       </c>
       <c r="P364" s="7">
         <v>363</v>
@@ -20421,15 +20820,15 @@
       </c>
       <c r="J365" s="12">
         <f>(testdata[[#This Row],[ema2]]-J364)*Multiplier+J364</f>
-        <v>260.26222484922289</v>
+        <v>260.26222484922312</v>
       </c>
       <c r="K365" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J364)/J364</f>
-        <v>8.4917851218099971E-2</v>
+        <v>8.4917851218099902E-2</v>
       </c>
       <c r="L365" s="18">
-        <f t="shared" si="4"/>
-        <v>7.5728742357718967E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.5728742357714526E-2</v>
       </c>
       <c r="P365" s="7">
         <v>364</v>
@@ -20476,15 +20875,15 @@
       </c>
       <c r="J366" s="12">
         <f>(testdata[[#This Row],[ema2]]-J365)*Multiplier+J365</f>
-        <v>260.49405529246246</v>
+        <v>260.49405529246263</v>
       </c>
       <c r="K366" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J365)/J365</f>
-        <v>8.9075717144076236E-2</v>
+        <v>8.9075717144054309E-2</v>
       </c>
       <c r="L366" s="18">
-        <f t="shared" si="4"/>
-        <v>8.0234531255355665E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.0234531255351224E-2</v>
       </c>
       <c r="P366" s="7">
         <v>365</v>
@@ -20531,15 +20930,15 @@
       </c>
       <c r="J367" s="12">
         <f>(testdata[[#This Row],[ema2]]-J366)*Multiplier+J366</f>
-        <v>260.7356347283914</v>
+        <v>260.73563472839157</v>
       </c>
       <c r="K367" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J366)/J366</f>
-        <v>9.2738943949302072E-2</v>
+        <v>9.2738943949302016E-2</v>
       </c>
       <c r="L367" s="18">
-        <f t="shared" si="4"/>
-        <v>8.4584389832300572E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.4584389832296131E-2</v>
       </c>
       <c r="P367" s="7">
         <v>366</v>
@@ -20586,15 +20985,15 @@
       </c>
       <c r="J368" s="12">
         <f>(testdata[[#This Row],[ema2]]-J367)*Multiplier+J367</f>
-        <v>260.98509781793769</v>
+        <v>260.9850978179378</v>
       </c>
       <c r="K368" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J367)/J367</f>
-        <v>9.5676638065275543E-2</v>
+        <v>9.5676638065253686E-2</v>
       </c>
       <c r="L368" s="18">
-        <f t="shared" si="4"/>
-        <v>8.8582143541290043E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.8582143541281258E-2</v>
       </c>
       <c r="P368" s="7">
         <v>367</v>
@@ -20641,15 +21040,15 @@
       </c>
       <c r="J369" s="12">
         <f>(testdata[[#This Row],[ema2]]-J368)*Multiplier+J368</f>
-        <v>261.23975688075734</v>
+        <v>261.23975688075745</v>
       </c>
       <c r="K369" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J368)/J368</f>
-        <v>9.7576093404882741E-2</v>
+        <v>9.7576093404882686E-2</v>
       </c>
       <c r="L369" s="18">
-        <f t="shared" si="4"/>
-        <v>9.1997048756327332E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.1997048756318506E-2</v>
       </c>
       <c r="P369" s="7">
         <v>368</v>
@@ -20696,15 +21095,15 @@
       </c>
       <c r="J370" s="12">
         <f>(testdata[[#This Row],[ema2]]-J369)*Multiplier+J369</f>
-        <v>261.49766630388478</v>
+        <v>261.4976663038849</v>
       </c>
       <c r="K370" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J369)/J369</f>
-        <v>9.8725181115968674E-2</v>
+        <v>9.8725181115968633E-2</v>
       </c>
       <c r="L370" s="18">
-        <f t="shared" si="4"/>
-        <v>9.475851473590105E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.4758514735892252E-2</v>
       </c>
       <c r="P370" s="7">
         <v>369</v>
@@ -20751,15 +21150,15 @@
       </c>
       <c r="J371" s="12">
         <f>(testdata[[#This Row],[ema2]]-J370)*Multiplier+J370</f>
-        <v>261.75562823398366</v>
+        <v>261.75562823398371</v>
       </c>
       <c r="K371" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J370)/J370</f>
-        <v>9.8647889958259335E-2</v>
+        <v>9.8647889958237561E-2</v>
       </c>
       <c r="L371" s="18">
-        <f t="shared" si="4"/>
-        <v>9.6672949298737682E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.6672949298728911E-2</v>
       </c>
       <c r="P371" s="7">
         <v>370</v>
@@ -20806,15 +21205,15 @@
       </c>
       <c r="J372" s="12">
         <f>(testdata[[#This Row],[ema2]]-J371)*Multiplier+J371</f>
-        <v>262.0114647028949</v>
+        <v>262.01146470289495</v>
       </c>
       <c r="K372" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J371)/J371</f>
-        <v>9.7738669703999026E-2</v>
+        <v>9.7738669703998998E-2</v>
       </c>
       <c r="L372" s="18">
-        <f t="shared" si="4"/>
-        <v>9.7672894449677056E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.7672894449668313E-2</v>
       </c>
       <c r="P372" s="7">
         <v>371</v>
@@ -20861,15 +21260,15 @@
       </c>
       <c r="J373" s="12">
         <f>(testdata[[#This Row],[ema2]]-J372)*Multiplier+J372</f>
-        <v>262.26026006797588</v>
+        <v>262.26026006797593</v>
       </c>
       <c r="K373" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J372)/J372</f>
-        <v>9.4955907888648633E-2</v>
+        <v>9.4955907888648605E-2</v>
       </c>
       <c r="L373" s="18">
-        <f t="shared" si="4"/>
-        <v>9.752874841435169E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.7528748414347305E-2</v>
       </c>
       <c r="P373" s="7">
         <v>372</v>
@@ -20916,15 +21315,15 @@
       </c>
       <c r="J374" s="12">
         <f>(testdata[[#This Row],[ema2]]-J373)*Multiplier+J373</f>
-        <v>262.49883918018196</v>
+        <v>262.49883918018202</v>
       </c>
       <c r="K374" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J373)/J373</f>
-        <v>9.097036361675398E-2</v>
+        <v>9.0970363616753966E-2</v>
       </c>
       <c r="L374" s="18">
-        <f t="shared" si="4"/>
-        <v>9.6207602456725938E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.6207602456721567E-2</v>
       </c>
       <c r="P374" s="7">
         <v>373</v>
@@ -20975,11 +21374,11 @@
       </c>
       <c r="K375" s="18">
         <f>100*(testdata[[#This Row],[ema3]]-J374)/J374</f>
-        <v>8.5403167482316619E-2</v>
+        <v>8.5403167482294942E-2</v>
       </c>
       <c r="L375" s="18">
-        <f t="shared" si="4"/>
-        <v>9.3543199729995516E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.3543199729986815E-2</v>
       </c>
       <c r="P375" s="7">
         <v>374</v>
@@ -21033,8 +21432,8 @@
         <v>7.9227784625407999E-2</v>
       </c>
       <c r="L376" s="18">
-        <f t="shared" si="4"/>
-        <v>8.9659178663425251E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.9659178663420908E-2</v>
       </c>
       <c r="P376" s="7">
         <v>375</v>
@@ -21088,8 +21487,8 @@
         <v>7.2818428442817537E-2</v>
       </c>
       <c r="L377" s="18">
-        <f t="shared" si="4"/>
-        <v>8.4675130411188959E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.4675130411184601E-2</v>
       </c>
       <c r="P377" s="7">
         <v>376</v>
@@ -21143,8 +21542,8 @@
         <v>6.652177859990388E-2</v>
       </c>
       <c r="L378" s="18">
-        <f t="shared" si="4"/>
-        <v>7.8988304553440011E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.8988304553435668E-2</v>
       </c>
       <c r="P378" s="7">
         <v>377</v>
@@ -21198,8 +21597,8 @@
         <v>6.0107298681411105E-2</v>
       </c>
       <c r="L379" s="18">
-        <f t="shared" si="4"/>
-        <v>7.2815691566371438E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.2815691566367108E-2</v>
       </c>
       <c r="P379" s="7">
         <v>378</v>
@@ -21253,7 +21652,7 @@
         <v>5.4423286523718702E-2</v>
       </c>
       <c r="L380" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6619715374651847E-2</v>
       </c>
       <c r="P380" s="7">
@@ -21308,7 +21707,7 @@
         <v>5.0111653785054139E-2</v>
       </c>
       <c r="L381" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.0796489206581074E-2</v>
       </c>
       <c r="P381" s="7">
@@ -21363,7 +21762,7 @@
         <v>4.7670681090989042E-2</v>
       </c>
       <c r="L382" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5766939736215368E-2</v>
       </c>
       <c r="P382" s="7">
@@ -21418,7 +21817,7 @@
         <v>4.6951076434896391E-2</v>
       </c>
       <c r="L383" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1852799303213869E-2</v>
       </c>
       <c r="P383" s="7">
@@ -21473,7 +21872,7 @@
         <v>4.6833451502717005E-2</v>
       </c>
       <c r="L384" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9198029867475054E-2</v>
       </c>
       <c r="P384" s="7">
@@ -21528,7 +21927,7 @@
         <v>4.7920949236451911E-2</v>
       </c>
       <c r="L385" s="18">
-        <f t="shared" ref="L385:L448" si="5">AVERAGE(K381:K385)</f>
+        <f t="shared" ref="L385:L448" si="6">AVERAGE(K381:K385)</f>
         <v>4.7897562410021702E-2</v>
       </c>
       <c r="P385" s="7">
@@ -21583,7 +21982,7 @@
         <v>4.9897917009197094E-2</v>
       </c>
       <c r="L386" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7854815054850286E-2</v>
       </c>
       <c r="P386" s="7">
@@ -21638,7 +22037,7 @@
         <v>5.2359108635424409E-2</v>
       </c>
       <c r="L387" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8792500563737365E-2</v>
       </c>
       <c r="P387" s="7">
@@ -21693,7 +22092,7 @@
         <v>5.5427821391418844E-2</v>
       </c>
       <c r="L388" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0487849555041854E-2</v>
       </c>
       <c r="P388" s="7">
@@ -21748,7 +22147,7 @@
         <v>5.9003383696207855E-2</v>
       </c>
       <c r="L389" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2921835993740021E-2</v>
       </c>
       <c r="P389" s="7">
@@ -21803,7 +22202,7 @@
         <v>6.2472826961079767E-2</v>
       </c>
       <c r="L390" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5832211538665598E-2</v>
       </c>
       <c r="P390" s="7">
@@ -21858,7 +22257,7 @@
         <v>6.5617684991589639E-2</v>
       </c>
       <c r="L391" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8976165135144108E-2</v>
       </c>
       <c r="P391" s="7">
@@ -21913,7 +22312,7 @@
         <v>6.85460981842268E-2</v>
       </c>
       <c r="L392" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2213563044904586E-2</v>
       </c>
       <c r="P392" s="7">
@@ -21968,7 +22367,7 @@
         <v>7.1624076630101299E-2</v>
       </c>
       <c r="L393" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.545281409264106E-2</v>
       </c>
       <c r="P393" s="7">
@@ -22023,7 +22422,7 @@
         <v>7.5430514417607161E-2</v>
       </c>
       <c r="L394" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8738240236920933E-2</v>
       </c>
       <c r="P394" s="7">
@@ -22078,7 +22477,7 @@
         <v>7.939450404680648E-2</v>
       </c>
       <c r="L395" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.2122575654066282E-2</v>
       </c>
       <c r="P395" s="7">
@@ -22133,7 +22532,7 @@
         <v>8.269694299022462E-2</v>
       </c>
       <c r="L396" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5538427253793269E-2</v>
       </c>
       <c r="P396" s="7">
@@ -22188,7 +22587,7 @@
         <v>8.4887383364733018E-2</v>
       </c>
       <c r="L397" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8806684289894513E-2</v>
       </c>
       <c r="P397" s="7">
@@ -22243,7 +22642,7 @@
         <v>8.6559151199842477E-2</v>
       </c>
       <c r="L398" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.1793699203842746E-2</v>
       </c>
       <c r="P398" s="7">
@@ -22298,7 +22697,7 @@
         <v>8.7581951321366758E-2</v>
       </c>
       <c r="L399" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.4223986584594665E-2</v>
       </c>
       <c r="P399" s="7">
@@ -22353,7 +22752,7 @@
         <v>8.8500607155192396E-2</v>
       </c>
       <c r="L400" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6045207206271845E-2</v>
       </c>
       <c r="P400" s="7">
@@ -22408,7 +22807,7 @@
         <v>8.9621673731108464E-2</v>
       </c>
       <c r="L401" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.743015335444862E-2</v>
       </c>
       <c r="P401" s="7">
@@ -22463,7 +22862,7 @@
         <v>9.1109800867852114E-2</v>
       </c>
       <c r="L402" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8674636855072445E-2</v>
       </c>
       <c r="P402" s="7">
@@ -22518,7 +22917,7 @@
         <v>9.3042936354228487E-2</v>
       </c>
       <c r="L403" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9971393885949644E-2</v>
       </c>
       <c r="P403" s="7">
@@ -22573,7 +22972,7 @@
         <v>9.5132632938632708E-2</v>
       </c>
       <c r="L404" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1481530209402834E-2</v>
       </c>
       <c r="P404" s="7">
@@ -22628,7 +23027,7 @@
         <v>9.7079456325288041E-2</v>
       </c>
       <c r="L405" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3197300043421957E-2</v>
       </c>
       <c r="P405" s="7">
@@ -22683,7 +23082,7 @@
         <v>9.8184829214714858E-2</v>
       </c>
       <c r="L406" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4909931140143233E-2</v>
       </c>
       <c r="P406" s="7">
@@ -22738,7 +23137,7 @@
         <v>9.8221955346620052E-2</v>
       </c>
       <c r="L407" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6332362035896832E-2</v>
       </c>
       <c r="P407" s="7">
@@ -22793,7 +23192,7 @@
         <v>9.794507579988003E-2</v>
       </c>
       <c r="L408" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7312789925027135E-2</v>
       </c>
       <c r="P408" s="7">
@@ -22848,7 +23247,7 @@
         <v>9.6695544249474255E-2</v>
       </c>
       <c r="L409" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7625372187195442E-2</v>
       </c>
       <c r="P409" s="7">
@@ -22903,7 +23302,7 @@
         <v>9.5383984684164147E-2</v>
       </c>
       <c r="L410" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7286277858970677E-2</v>
       </c>
       <c r="P410" s="7">
@@ -22958,7 +23357,7 @@
         <v>9.4290253369948993E-2</v>
       </c>
       <c r="L411" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6507362690017501E-2</v>
       </c>
       <c r="P411" s="7">
@@ -23013,7 +23412,7 @@
         <v>9.3491000918606917E-2</v>
       </c>
       <c r="L412" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5561171804414868E-2</v>
       </c>
       <c r="P412" s="7">
@@ -23068,7 +23467,7 @@
         <v>9.3054835355224463E-2</v>
       </c>
       <c r="L413" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4583123715483747E-2</v>
       </c>
       <c r="P413" s="7">
@@ -23123,7 +23522,7 @@
         <v>9.2761130166036806E-2</v>
       </c>
       <c r="L414" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3796240898796263E-2</v>
       </c>
       <c r="P414" s="7">
@@ -23178,7 +23577,7 @@
         <v>9.2379853016821292E-2</v>
       </c>
       <c r="L415" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3195414565327692E-2</v>
       </c>
       <c r="P415" s="7">
@@ -23233,7 +23632,7 @@
         <v>9.2397741247793264E-2</v>
       </c>
       <c r="L416" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2816912140896546E-2</v>
       </c>
       <c r="P416" s="7">
@@ -23288,7 +23687,7 @@
         <v>9.332868895395352E-2</v>
       </c>
       <c r="L417" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2784449747965875E-2</v>
       </c>
       <c r="P417" s="7">
@@ -23343,7 +23742,7 @@
         <v>9.4870812250697628E-2</v>
       </c>
       <c r="L418" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3147645127060502E-2</v>
       </c>
       <c r="P418" s="7">
@@ -23398,7 +23797,7 @@
         <v>9.7219528354221249E-2</v>
       </c>
       <c r="L419" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4039324764697396E-2</v>
       </c>
       <c r="P419" s="7">
@@ -23453,7 +23852,7 @@
         <v>9.965331398991556E-2</v>
       </c>
       <c r="L420" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5494016959316252E-2</v>
       </c>
       <c r="P420" s="7">
@@ -23508,7 +23907,7 @@
         <v>0.10199746531433558</v>
       </c>
       <c r="L421" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7413961772624708E-2</v>
       </c>
       <c r="P421" s="7">
@@ -23563,7 +23962,7 @@
         <v>0.10397108521517637</v>
       </c>
       <c r="L422" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9542441024869269E-2</v>
       </c>
       <c r="P422" s="7">
@@ -23618,7 +24017,7 @@
         <v>0.1052863622944659</v>
       </c>
       <c r="L423" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10162555103362292</v>
       </c>
       <c r="P423" s="7">
@@ -23673,7 +24072,7 @@
         <v>0.10572206337706191</v>
       </c>
       <c r="L424" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10332605803819109</v>
       </c>
       <c r="P424" s="7">
@@ -23728,7 +24127,7 @@
         <v>0.10522968435263919</v>
       </c>
       <c r="L425" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10444133211073581</v>
       </c>
       <c r="P425" s="7">
@@ -23783,7 +24182,7 @@
         <v>0.10412679509584767</v>
       </c>
       <c r="L426" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10486719806703822</v>
       </c>
       <c r="P426" s="7">
@@ -23838,7 +24237,7 @@
         <v>0.1028000544071223</v>
       </c>
       <c r="L427" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10463299190542738</v>
       </c>
       <c r="P427" s="7">
@@ -23893,7 +24292,7 @@
         <v>0.10127357654543993</v>
       </c>
       <c r="L428" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10383043475562219</v>
       </c>
       <c r="P428" s="7">
@@ -23948,7 +24347,7 @@
         <v>0.10007217602763958</v>
       </c>
       <c r="L429" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10270045728573773</v>
       </c>
       <c r="P429" s="7">
@@ -24003,7 +24402,7 @@
         <v>9.9068785449407976E-2</v>
       </c>
       <c r="L430" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10146827750509149</v>
       </c>
       <c r="P430" s="7">
@@ -24058,7 +24457,7 @@
         <v>9.7678505178563246E-2</v>
       </c>
       <c r="L431" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10017861952163461</v>
       </c>
       <c r="P431" s="7">
@@ -24113,7 +24512,7 @@
         <v>9.643256189379526E-2</v>
       </c>
       <c r="L432" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.89051210189692E-2</v>
       </c>
       <c r="P432" s="7">
@@ -24168,7 +24567,7 @@
         <v>9.5334112581637542E-2</v>
       </c>
       <c r="L433" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.7717228226208735E-2</v>
       </c>
       <c r="P433" s="7">
@@ -24223,7 +24622,7 @@
         <v>9.5005848216289046E-2</v>
       </c>
       <c r="L434" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6703962663938617E-2</v>
       </c>
       <c r="P434" s="7">
@@ -24278,7 +24677,7 @@
         <v>9.5088745261519461E-2</v>
       </c>
       <c r="L435" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5907954626360911E-2</v>
       </c>
       <c r="P435" s="7">
@@ -24333,7 +24732,7 @@
         <v>9.5091460079384571E-2</v>
       </c>
       <c r="L436" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5390545606525171E-2</v>
       </c>
       <c r="P436" s="7">
@@ -24388,7 +24787,7 @@
         <v>9.4869350783225198E-2</v>
       </c>
       <c r="L437" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5077903384411161E-2</v>
       </c>
       <c r="P437" s="7">
@@ -24443,7 +24842,7 @@
         <v>9.4137756960170807E-2</v>
       </c>
       <c r="L438" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4838632260117822E-2</v>
       </c>
       <c r="P438" s="7">
@@ -24498,7 +24897,7 @@
         <v>9.3212123301424574E-2</v>
       </c>
       <c r="L439" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.4479887277144917E-2</v>
       </c>
       <c r="P439" s="7">
@@ -24553,7 +24952,7 @@
         <v>9.2094164578192306E-2</v>
       </c>
       <c r="L440" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3880971140479497E-2</v>
       </c>
       <c r="P440" s="7">
@@ -24608,7 +25007,7 @@
         <v>9.108987485310277E-2</v>
       </c>
       <c r="L441" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.3080654095223134E-2</v>
       </c>
       <c r="P441" s="7">
@@ -24663,7 +25062,7 @@
         <v>9.0062084117092087E-2</v>
       </c>
       <c r="L442" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.2119200761996506E-2</v>
       </c>
       <c r="P442" s="7">
@@ -24718,7 +25117,7 @@
         <v>8.9013658163203613E-2</v>
       </c>
       <c r="L443" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.1094381002603073E-2</v>
       </c>
       <c r="P443" s="7">
@@ -24773,7 +25172,7 @@
         <v>8.7206481043846679E-2</v>
       </c>
       <c r="L444" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.9893252551087488E-2</v>
       </c>
       <c r="P444" s="7">
@@ -24828,7 +25227,7 @@
         <v>8.4319348963048255E-2</v>
       </c>
       <c r="L445" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8338289428058686E-2</v>
       </c>
       <c r="P445" s="7">
@@ -24883,7 +25282,7 @@
         <v>8.0635687047564145E-2</v>
       </c>
       <c r="L446" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.6247451866950958E-2</v>
       </c>
       <c r="P446" s="7">
@@ -24938,7 +25337,7 @@
         <v>7.6261606712375044E-2</v>
       </c>
       <c r="L447" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.3487356386007544E-2</v>
       </c>
       <c r="P447" s="7">
@@ -24993,7 +25392,7 @@
         <v>6.8677337144165115E-2</v>
       </c>
       <c r="L448" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9420092182199836E-2</v>
       </c>
       <c r="P448" s="7">
@@ -25048,7 +25447,7 @@
         <v>5.7009772079976088E-2</v>
       </c>
       <c r="L449" s="18">
-        <f t="shared" ref="L449:L503" si="6">AVERAGE(K445:K449)</f>
+        <f t="shared" ref="L449:L503" si="7">AVERAGE(K445:K449)</f>
         <v>7.3380750389425736E-2</v>
       </c>
       <c r="P449" s="7">
@@ -25103,7 +25502,7 @@
         <v>4.3715666772107899E-2</v>
       </c>
       <c r="L450" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.5260013951237664E-2</v>
       </c>
       <c r="P450" s="7">
@@ -25158,7 +25557,7 @@
         <v>2.9054641188301335E-2</v>
       </c>
       <c r="L451" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.4943804779385097E-2</v>
       </c>
       <c r="P451" s="7">
@@ -25213,7 +25612,7 @@
         <v>1.5536010600035025E-2</v>
       </c>
       <c r="L452" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.2798685556917092E-2</v>
       </c>
       <c r="P452" s="7">
@@ -25268,7 +25667,7 @@
         <v>3.206666065161008E-3</v>
       </c>
       <c r="L453" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.970455134111627E-2</v>
       </c>
       <c r="P453" s="7">
@@ -25323,7 +25722,7 @@
         <v>-9.1529469287143957E-3</v>
       </c>
       <c r="L454" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6472007539378174E-2</v>
       </c>
       <c r="P454" s="7">
@@ -25378,7 +25777,7 @@
         <v>-2.1262253399603057E-2</v>
       </c>
       <c r="L455" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4764235050359824E-3</v>
       </c>
       <c r="P455" s="7">
@@ -25433,7 +25832,7 @@
         <v>-3.323757265862036E-2</v>
       </c>
       <c r="L456" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.9820192643483565E-3</v>
       </c>
       <c r="P456" s="7">
@@ -25488,7 +25887,7 @@
         <v>-4.5205627621559087E-2</v>
       </c>
       <c r="L457" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.1130346908667181E-2</v>
       </c>
       <c r="P457" s="7">
@@ -25543,7 +25942,7 @@
         <v>-5.9330971544597919E-2</v>
       </c>
       <c r="L458" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.3637874430618962E-2</v>
       </c>
       <c r="P458" s="7">
@@ -25598,7 +25997,7 @@
         <v>-7.3221800013471908E-2</v>
       </c>
       <c r="L459" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.6451645047570468E-2</v>
       </c>
       <c r="P459" s="7">
@@ -25653,7 +26052,7 @@
         <v>-8.7966022278119685E-2</v>
       </c>
       <c r="L460" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.9792398823273786E-2</v>
       </c>
       <c r="P460" s="7">
@@ -25708,7 +26107,7 @@
         <v>-0.10335354392417008</v>
       </c>
       <c r="L461" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.3815593076383731E-2</v>
       </c>
       <c r="P461" s="7">
@@ -25763,7 +26162,7 @@
         <v>-0.1175720763867381</v>
       </c>
       <c r="L462" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.8288882829419532E-2</v>
       </c>
       <c r="P462" s="7">
@@ -25818,7 +26217,7 @@
         <v>-0.12961071095054452</v>
       </c>
       <c r="L463" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10234483071060888</v>
       </c>
       <c r="P463" s="7">
@@ -25873,7 +26272,7 @@
         <v>-0.13875341309459283</v>
       </c>
       <c r="L464" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11545115332683302</v>
       </c>
       <c r="P464" s="7">
@@ -25928,7 +26327,7 @@
         <v>-0.14589441040564444</v>
       </c>
       <c r="L465" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12703683095233798</v>
       </c>
       <c r="P465" s="7">
@@ -25983,7 +26382,7 @@
         <v>-0.15079524201755612</v>
       </c>
       <c r="L466" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.13652517057101521</v>
       </c>
       <c r="P466" s="7">
@@ -26038,7 +26437,7 @@
         <v>-0.15325589937566816</v>
       </c>
       <c r="L467" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14366193516880121</v>
       </c>
       <c r="P467" s="7">
@@ -26093,7 +26492,7 @@
         <v>-0.15191448077409134</v>
       </c>
       <c r="L468" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14812268913351057</v>
       </c>
       <c r="P468" s="7">
@@ -26148,7 +26547,7 @@
         <v>-0.14780356559238012</v>
       </c>
       <c r="L469" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14993271963306803</v>
       </c>
       <c r="P469" s="7">
@@ -26203,7 +26602,7 @@
         <v>-0.1424445121534367</v>
       </c>
       <c r="L470" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14924273998262649</v>
       </c>
       <c r="P470" s="7">
@@ -26258,7 +26657,7 @@
         <v>-0.13776101781976688</v>
       </c>
       <c r="L471" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14663589514306866</v>
       </c>
       <c r="P471" s="7">
@@ -26313,7 +26712,7 @@
         <v>-0.13373885572921623</v>
       </c>
       <c r="L472" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14273248641377828</v>
       </c>
       <c r="P472" s="7">
@@ -26368,7 +26767,7 @@
         <v>-0.13076694203117709</v>
       </c>
       <c r="L473" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.13850297866519543</v>
       </c>
       <c r="P473" s="7">
@@ -26423,7 +26822,7 @@
         <v>-0.12767460568976802</v>
       </c>
       <c r="L474" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.13447718668467296</v>
       </c>
       <c r="P474" s="7">
@@ -26478,7 +26877,7 @@
         <v>-0.12424474290626648</v>
       </c>
       <c r="L475" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.13083723283523896</v>
       </c>
       <c r="P475" s="7">
@@ -26533,7 +26932,7 @@
         <v>-0.12196997750709261</v>
       </c>
       <c r="L476" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12767902477270407</v>
       </c>
       <c r="P476" s="7">
@@ -26588,7 +26987,7 @@
         <v>-0.12204716173693896</v>
       </c>
       <c r="L477" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12534068597424863</v>
       </c>
       <c r="P477" s="7">
@@ -26643,7 +27042,7 @@
         <v>-0.1234955271623864</v>
       </c>
       <c r="L478" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1238864030004905</v>
       </c>
       <c r="P478" s="7">
@@ -26698,7 +27097,7 @@
         <v>-0.12637138761022684</v>
       </c>
       <c r="L479" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12362575938458224</v>
       </c>
       <c r="P479" s="7">
@@ -26753,7 +27152,7 @@
         <v>-0.12881903900169453</v>
       </c>
       <c r="L480" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12454061860366787</v>
       </c>
       <c r="P480" s="7">
@@ -26808,7 +27207,7 @@
         <v>-0.13050081405921782</v>
       </c>
       <c r="L481" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12624678591409291</v>
       </c>
       <c r="P481" s="7">
@@ -26863,7 +27262,7 @@
         <v>-0.12954253974160776</v>
       </c>
       <c r="L482" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12774586151502668</v>
       </c>
       <c r="P482" s="7">
@@ -26918,7 +27317,7 @@
         <v>-0.12671942622486704</v>
       </c>
       <c r="L483" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12839064132752279</v>
       </c>
       <c r="P483" s="7">
@@ -26973,7 +27372,7 @@
         <v>-0.12195166033388941</v>
       </c>
       <c r="L484" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1275066958722553</v>
       </c>
       <c r="P484" s="7">
@@ -27028,7 +27427,7 @@
         <v>-0.11461457315226434</v>
       </c>
       <c r="L485" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12466580270236927</v>
       </c>
       <c r="P485" s="7">
@@ -27083,7 +27482,7 @@
         <v>-0.10827704016179474</v>
       </c>
       <c r="L486" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.12022104792288464</v>
       </c>
       <c r="P486" s="7">
@@ -27138,7 +27537,7 @@
         <v>-0.10287824160415707</v>
       </c>
       <c r="L487" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11488818829539452</v>
       </c>
       <c r="P487" s="7">
@@ -27193,7 +27592,7 @@
         <v>-0.10018823583241053</v>
       </c>
       <c r="L488" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10958195021690323</v>
       </c>
       <c r="P488" s="7">
@@ -27248,7 +27647,7 @@
         <v>-9.9338268696301343E-2</v>
       </c>
       <c r="L489" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1050592718893856</v>
       </c>
       <c r="P489" s="7">
@@ -27303,7 +27702,7 @@
         <v>-9.9775009349745827E-2</v>
       </c>
       <c r="L490" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1020913591288819</v>
       </c>
       <c r="P490" s="7">
@@ -27358,7 +27757,7 @@
         <v>-0.10065905183458075</v>
       </c>
       <c r="L491" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10056776146343911</v>
       </c>
       <c r="P491" s="7">
@@ -27413,7 +27812,7 @@
         <v>-0.10179509002118908</v>
       </c>
       <c r="L492" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1003511311468455</v>
       </c>
       <c r="P492" s="7">
@@ -27468,7 +27867,7 @@
         <v>-0.10454549230858753</v>
       </c>
       <c r="L493" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10122258244208091</v>
       </c>
       <c r="P493" s="7">
@@ -27523,7 +27922,7 @@
         <v>-0.10995069962856899</v>
       </c>
       <c r="L494" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10334506862853443</v>
       </c>
       <c r="P494" s="7">
@@ -27578,7 +27977,7 @@
         <v>-0.11719249652434176</v>
       </c>
       <c r="L495" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.10682856606345362</v>
       </c>
       <c r="P495" s="7">
@@ -27633,7 +28032,7 @@
         <v>-0.12673109963785131</v>
       </c>
       <c r="L496" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11204297562410774</v>
       </c>
       <c r="P496" s="7">
@@ -27688,7 +28087,7 @@
         <v>-0.13893209536464493</v>
       </c>
       <c r="L497" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11947037669279889</v>
       </c>
       <c r="P497" s="7">
@@ -27743,7 +28142,7 @@
         <v>-0.15430495939038852</v>
       </c>
       <c r="L498" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.1294222701091591</v>
       </c>
       <c r="P498" s="7">
@@ -27798,7 +28197,7 @@
         <v>-0.17356805028014799</v>
       </c>
       <c r="L499" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.14214574023947488</v>
       </c>
       <c r="P499" s="7">
@@ -27853,7 +28252,7 @@
         <v>-0.19134727717631778</v>
       </c>
       <c r="L500" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.15697669636987013</v>
       </c>
       <c r="P500" s="7">
@@ -27908,7 +28307,7 @@
         <v>-0.2068376723697983</v>
       </c>
       <c r="L501" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.17299801091625949</v>
       </c>
       <c r="P501" s="7">
@@ -27963,7 +28362,7 @@
         <v>-0.2201854292482667</v>
       </c>
       <c r="L502" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.18924867769298387</v>
       </c>
       <c r="P502" s="7">
@@ -28018,7 +28417,7 @@
         <v>-0.23074156542800894</v>
       </c>
       <c r="L503" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.20453599890050791</v>
       </c>
       <c r="P503" s="7">
@@ -28037,6 +28436,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K22:K503" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
